--- a/【JAPTOOL】Project Schedule Offshore.xlsx
+++ b/【JAPTOOL】Project Schedule Offshore.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\z-projects\p-fpt\tugigroup\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="717"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9045" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="Master-Detail" sheetId="52" r:id="rId1"/>
@@ -28,7 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Master-Detail'!$1:$10</definedName>
     <definedName name="syupo">[1]リスト!$H$2:$H$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -38,7 +33,7 @@
     <author>HOANG TUAN VINH</author>
   </authors>
   <commentList>
-    <comment ref="S9" authorId="0" shapeId="0">
+    <comment ref="S9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,9 +255,6 @@
     <t>JAPTOOL Project Schedule</t>
   </si>
   <si>
-    <t>FPT SOFTWARE (FSU17-BU6)</t>
-  </si>
-  <si>
     <t>17/6/2015</t>
   </si>
   <si>
@@ -316,6 +308,9 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>FPT SOFTWARE (FSU17-BU6-GIB)</t>
   </si>
 </sst>
 </file>
@@ -1615,15 +1610,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1633,10 +1636,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1644,20 +1703,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1699,30 +1744,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1738,46 +1773,6 @@
     <xf numFmtId="0" fontId="11" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3042,12 +3037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="20" ySplit="10" topLeftCell="U11" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O2" sqref="O2:P2"/>
-      <selection pane="topRight" activeCell="O2" sqref="O2:P2"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2:P2"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23:M24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="14" ySplit="10" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -3055,9 +3049,9 @@
     <col min="1" max="1" width="1.375" style="42" customWidth="1"/>
     <col min="2" max="2" width="4.125" style="42" customWidth="1"/>
     <col min="3" max="3" width="3.25" style="42" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="42" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="17" style="42" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="42" customWidth="1"/>
     <col min="8" max="8" width="8.25" style="42" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="42" bestFit="1" customWidth="1"/>
@@ -3066,9 +3060,9 @@
     <col min="12" max="12" width="10.25" style="42" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.125" style="42" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.625" style="42" customWidth="1"/>
-    <col min="15" max="15" width="5.5" style="42" customWidth="1"/>
-    <col min="16" max="16" width="4.25" style="68" customWidth="1"/>
-    <col min="17" max="18" width="4.5" style="87" customWidth="1"/>
+    <col min="15" max="15" width="4.375" style="42" customWidth="1"/>
+    <col min="16" max="16" width="4.375" style="68" customWidth="1"/>
+    <col min="17" max="18" width="4.375" style="87" customWidth="1"/>
     <col min="19" max="20" width="6.75" style="87" customWidth="1"/>
     <col min="21" max="24" width="6.75" style="42" customWidth="1"/>
     <col min="25" max="26" width="6.75" style="87" customWidth="1"/>
@@ -3083,7 +3077,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="23.25" customHeight="1">
       <c r="B1" s="43" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -3092,19 +3086,19 @@
       <c r="H1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="132" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="132"/>
+      <c r="I1" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="149"/>
       <c r="K1" s="46"/>
       <c r="L1" s="47" t="s">
         <v>47</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
+        <v>55</v>
+      </c>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
       <c r="P1" s="49"/>
       <c r="Q1" s="50"/>
       <c r="R1" s="50"/>
@@ -3151,7 +3145,7 @@
         <v>37</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
@@ -3321,19 +3315,19 @@
     </row>
     <row r="7" spans="1:36" ht="18.75" customHeight="1">
       <c r="A7" s="71"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="129" t="s">
+      <c r="B7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="131"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="146"/>
       <c r="M7" s="71"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -3350,13 +3344,13 @@
     </row>
     <row r="8" spans="1:36" ht="18.75" customHeight="1">
       <c r="A8" s="71"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="128"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="143"/>
       <c r="I8" s="72">
         <f>MIN(I15:I42)</f>
         <v>42173</v>
@@ -3378,16 +3372,16 @@
         <f>TEXT(T9,"yyyy")</f>
         <v>2015</v>
       </c>
-      <c r="O8" s="150">
+      <c r="O8" s="130">
         <f>SUM(P15:P42)</f>
         <v>1</v>
       </c>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="150">
+      <c r="P8" s="131"/>
+      <c r="Q8" s="130">
         <f>SUM(R15:R42)</f>
         <v>1</v>
       </c>
-      <c r="R8" s="151"/>
+      <c r="R8" s="131"/>
       <c r="S8" s="75">
         <v>6</v>
       </c>
@@ -3444,52 +3438,52 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH8" s="142" t="s">
+      <c r="AH8" s="116" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="135" t="s">
+      <c r="E9" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="138" t="s">
+      <c r="G9" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="133" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="140" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="143" t="s">
+      <c r="H9" s="153" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="144"/>
-      <c r="K9" s="143" t="s">
+      <c r="J9" s="124"/>
+      <c r="K9" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="145"/>
-      <c r="M9" s="146" t="s">
+      <c r="L9" s="125"/>
+      <c r="M9" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="147"/>
-      <c r="O9" s="152" t="s">
+      <c r="N9" s="127"/>
+      <c r="O9" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="154" t="s">
+      <c r="P9" s="133"/>
+      <c r="Q9" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="153"/>
+      <c r="R9" s="133"/>
       <c r="S9" s="77">
         <v>42171</v>
       </c>
@@ -3535,16 +3529,16 @@
       <c r="AG9" s="77">
         <v>42185</v>
       </c>
-      <c r="AH9" s="142"/>
+      <c r="AH9" s="116"/>
     </row>
     <row r="10" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B10" s="134"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="141"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="154"/>
       <c r="I10" s="78" t="s">
         <v>18</v>
       </c>
@@ -3557,8 +3551,8 @@
       <c r="L10" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="148"/>
-      <c r="N10" s="149"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="129"/>
       <c r="O10" s="82" t="s">
         <v>3</v>
       </c>
@@ -3631,7 +3625,7 @@
         <f t="shared" si="2"/>
         <v>42185</v>
       </c>
-      <c r="AH10" s="142"/>
+      <c r="AH10" s="116"/>
     </row>
     <row r="11" spans="1:36" ht="13.5" customHeight="1">
       <c r="B11" s="89">
@@ -3684,7 +3678,7 @@
       <c r="AE11" s="85"/>
       <c r="AF11" s="85"/>
       <c r="AG11" s="85"/>
-      <c r="AH11" s="109"/>
+      <c r="AH11" s="111"/>
     </row>
     <row r="12" spans="1:36" ht="13.5" customHeight="1">
       <c r="B12" s="90"/>
@@ -3719,7 +3713,7 @@
       <c r="AE12" s="86"/>
       <c r="AF12" s="86"/>
       <c r="AG12" s="86"/>
-      <c r="AH12" s="109"/>
+      <c r="AH12" s="111"/>
     </row>
     <row r="13" spans="1:36" ht="13.5" customHeight="1">
       <c r="B13" s="89">
@@ -3772,7 +3766,7 @@
       <c r="AE13" s="85"/>
       <c r="AF13" s="85"/>
       <c r="AG13" s="85"/>
-      <c r="AH13" s="109"/>
+      <c r="AH13" s="111"/>
     </row>
     <row r="14" spans="1:36" ht="13.5" customHeight="1">
       <c r="B14" s="90"/>
@@ -3807,10 +3801,10 @@
       <c r="AE14" s="86"/>
       <c r="AF14" s="86"/>
       <c r="AG14" s="86"/>
-      <c r="AH14" s="109"/>
+      <c r="AH14" s="111"/>
     </row>
     <row r="15" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B15" s="110">
+      <c r="B15" s="147">
         <f>(ROW()-10)/2+0.5</f>
         <v>3</v>
       </c>
@@ -3818,16 +3812,16 @@
         <v>30</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="95"/>
-      <c r="H15" s="112"/>
+      <c r="H15" s="114"/>
       <c r="I15" s="99">
         <v>42173</v>
       </c>
@@ -3841,23 +3835,23 @@
         <v>42175</v>
       </c>
       <c r="M15" s="101"/>
-      <c r="N15" s="114" t="str">
+      <c r="N15" s="109" t="str">
         <f ca="1">IF(B15="","",IF(AND(I15="",J15="",K15="",L15=""),"",IF(OR(I15="",J15=""),"?",IF(AND(I15&lt;&gt;"",J15&lt;&gt;"",K15&lt;&gt;"",L15&lt;&gt;"",M15=100),"○",IF(AND(I15&lt;=TODAY(),J15&gt;=TODAY(),K15=""),"▲",  IF(J15&lt;TODAY(),"★",IF(K15&lt;&gt;"","△",IF(AND(I15&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O15" s="116">
+      <c r="O15" s="135">
         <f>IF(COUNTA(S15:X15)=0,"",SUMPRODUCT(--(ISNUMBER(S15:X15)),S15:X15)+ (COUNTA(S15:X15)-COUNT(S15:X15))*8)</f>
         <v>8</v>
       </c>
-      <c r="P15" s="118">
+      <c r="P15" s="117">
         <f>IF(O15="","",ROUND(O15/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="116">
+      <c r="Q15" s="135">
         <f>IF(COUNTA(S16:X16)=0,"",SUMPRODUCT(--(ISNUMBER(S16:X16)),S16:X16)+ (COUNTA(S16:X16)-COUNT(S16:X16))*8)</f>
         <v>8</v>
       </c>
-      <c r="R15" s="118">
+      <c r="R15" s="117">
         <f t="shared" ref="R15" si="9">IF(Q15="","",ROUND(Q15/8,2))</f>
         <v>1</v>
       </c>
@@ -3878,26 +3872,26 @@
       <c r="AE15" s="85"/>
       <c r="AF15" s="85"/>
       <c r="AG15" s="85"/>
-      <c r="AH15" s="109"/>
+      <c r="AH15" s="111"/>
     </row>
     <row r="16" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B16" s="111"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="92"/>
       <c r="D16" s="94"/>
       <c r="E16" s="94"/>
       <c r="F16" s="96"/>
       <c r="G16" s="96"/>
-      <c r="H16" s="113"/>
+      <c r="H16" s="115"/>
       <c r="I16" s="100"/>
       <c r="J16" s="100"/>
       <c r="K16" s="100"/>
       <c r="L16" s="100"/>
       <c r="M16" s="102"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="119"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="118"/>
       <c r="S16" s="86">
         <v>8</v>
       </c>
@@ -3915,7 +3909,7 @@
       <c r="AE16" s="86"/>
       <c r="AF16" s="86"/>
       <c r="AG16" s="86"/>
-      <c r="AH16" s="109"/>
+      <c r="AH16" s="111"/>
     </row>
     <row r="17" spans="2:34" ht="13.5" customHeight="1">
       <c r="B17" s="89">
@@ -3926,10 +3920,10 @@
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
       <c r="F17" s="95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="95"/>
-      <c r="H17" s="112"/>
+      <c r="H17" s="114"/>
       <c r="I17" s="99">
         <v>42176</v>
       </c>
@@ -3974,7 +3968,7 @@
       <c r="AE17" s="85"/>
       <c r="AF17" s="85"/>
       <c r="AG17" s="85"/>
-      <c r="AH17" s="109"/>
+      <c r="AH17" s="111"/>
     </row>
     <row r="18" spans="2:34" ht="13.5" customHeight="1">
       <c r="B18" s="90"/>
@@ -3983,7 +3977,7 @@
       <c r="E18" s="94"/>
       <c r="F18" s="96"/>
       <c r="G18" s="96"/>
-      <c r="H18" s="113"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="100"/>
       <c r="J18" s="100"/>
       <c r="K18" s="100"/>
@@ -4009,7 +4003,7 @@
       <c r="AE18" s="86"/>
       <c r="AF18" s="86"/>
       <c r="AG18" s="86"/>
-      <c r="AH18" s="109"/>
+      <c r="AH18" s="111"/>
     </row>
     <row r="19" spans="2:34" ht="13.5" customHeight="1">
       <c r="B19" s="89">
@@ -4020,10 +4014,10 @@
       <c r="D19" s="93"/>
       <c r="E19" s="93"/>
       <c r="F19" s="95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="95"/>
-      <c r="H19" s="112"/>
+      <c r="H19" s="114"/>
       <c r="I19" s="99">
         <v>42181</v>
       </c>
@@ -4068,7 +4062,7 @@
       <c r="AE19" s="85"/>
       <c r="AF19" s="85"/>
       <c r="AG19" s="85"/>
-      <c r="AH19" s="109"/>
+      <c r="AH19" s="111"/>
     </row>
     <row r="20" spans="2:34" ht="13.5" customHeight="1">
       <c r="B20" s="90"/>
@@ -4077,7 +4071,7 @@
       <c r="E20" s="94"/>
       <c r="F20" s="96"/>
       <c r="G20" s="96"/>
-      <c r="H20" s="113"/>
+      <c r="H20" s="115"/>
       <c r="I20" s="100"/>
       <c r="J20" s="100"/>
       <c r="K20" s="100"/>
@@ -4103,7 +4097,7 @@
       <c r="AE20" s="86"/>
       <c r="AF20" s="86"/>
       <c r="AG20" s="86"/>
-      <c r="AH20" s="109"/>
+      <c r="AH20" s="111"/>
     </row>
     <row r="21" spans="2:34" ht="13.5" customHeight="1">
       <c r="B21" s="89">
@@ -4114,10 +4108,10 @@
       <c r="D21" s="93"/>
       <c r="E21" s="93"/>
       <c r="F21" s="95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="95"/>
-      <c r="H21" s="112"/>
+      <c r="H21" s="114"/>
       <c r="I21" s="99">
         <v>42184</v>
       </c>
@@ -4162,7 +4156,7 @@
       <c r="AE21" s="85"/>
       <c r="AF21" s="85"/>
       <c r="AG21" s="85"/>
-      <c r="AH21" s="109"/>
+      <c r="AH21" s="111"/>
     </row>
     <row r="22" spans="2:34" ht="13.5" customHeight="1">
       <c r="B22" s="90"/>
@@ -4171,7 +4165,7 @@
       <c r="E22" s="94"/>
       <c r="F22" s="96"/>
       <c r="G22" s="96"/>
-      <c r="H22" s="113"/>
+      <c r="H22" s="115"/>
       <c r="I22" s="100"/>
       <c r="J22" s="100"/>
       <c r="K22" s="100"/>
@@ -4197,7 +4191,7 @@
       <c r="AE22" s="86"/>
       <c r="AF22" s="86"/>
       <c r="AG22" s="86"/>
-      <c r="AH22" s="109"/>
+      <c r="AH22" s="111"/>
     </row>
     <row r="23" spans="2:34" ht="13.5" customHeight="1">
       <c r="B23" s="89">
@@ -4208,10 +4202,10 @@
       <c r="D23" s="93"/>
       <c r="E23" s="93"/>
       <c r="F23" s="95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="95"/>
-      <c r="H23" s="112"/>
+      <c r="H23" s="114"/>
       <c r="I23" s="99">
         <v>42186</v>
       </c>
@@ -4256,7 +4250,7 @@
       <c r="AE23" s="85"/>
       <c r="AF23" s="85"/>
       <c r="AG23" s="85"/>
-      <c r="AH23" s="109"/>
+      <c r="AH23" s="111"/>
     </row>
     <row r="24" spans="2:34" ht="13.5" customHeight="1">
       <c r="B24" s="90"/>
@@ -4265,7 +4259,7 @@
       <c r="E24" s="94"/>
       <c r="F24" s="96"/>
       <c r="G24" s="96"/>
-      <c r="H24" s="113"/>
+      <c r="H24" s="115"/>
       <c r="I24" s="100"/>
       <c r="J24" s="100"/>
       <c r="K24" s="100"/>
@@ -4291,7 +4285,7 @@
       <c r="AE24" s="86"/>
       <c r="AF24" s="86"/>
       <c r="AG24" s="86"/>
-      <c r="AH24" s="109"/>
+      <c r="AH24" s="111"/>
     </row>
     <row r="25" spans="2:34" ht="13.5" customHeight="1">
       <c r="B25" s="89">
@@ -4302,18 +4296,18 @@
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
       <c r="F25" s="95" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="95"/>
-      <c r="H25" s="112"/>
+      <c r="H25" s="114"/>
       <c r="I25" s="99">
         <v>42189</v>
       </c>
       <c r="J25" s="99">
         <v>42190</v>
       </c>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
       <c r="M25" s="101"/>
       <c r="N25" s="103" t="str">
         <f ca="1">IF(B25="","",IF(AND(I25="",J25="",K25="",L25=""),"",IF(OR(I25="",J25=""),"?",IF(AND(I25&lt;&gt;"",J25&lt;&gt;"",K25&lt;&gt;"",L25&lt;&gt;"",M25=100),"○",IF(AND(I25&lt;=TODAY(),J25&gt;=TODAY(),K25=""),"▲",  IF(J25&lt;TODAY(),"★",IF(K25&lt;&gt;"","△",IF(AND(I25&lt;&gt;""),"◇",""))))))))</f>
@@ -4350,7 +4344,7 @@
       <c r="AE25" s="85"/>
       <c r="AF25" s="85"/>
       <c r="AG25" s="85"/>
-      <c r="AH25" s="109"/>
+      <c r="AH25" s="111"/>
     </row>
     <row r="26" spans="2:34" ht="13.5" customHeight="1">
       <c r="B26" s="90"/>
@@ -4359,11 +4353,11 @@
       <c r="E26" s="94"/>
       <c r="F26" s="96"/>
       <c r="G26" s="96"/>
-      <c r="H26" s="113"/>
+      <c r="H26" s="115"/>
       <c r="I26" s="100"/>
       <c r="J26" s="100"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
       <c r="M26" s="102"/>
       <c r="N26" s="104"/>
       <c r="O26" s="106"/>
@@ -4385,7 +4379,7 @@
       <c r="AE26" s="86"/>
       <c r="AF26" s="86"/>
       <c r="AG26" s="86"/>
-      <c r="AH26" s="109"/>
+      <c r="AH26" s="111"/>
     </row>
     <row r="27" spans="2:34" ht="13.5" customHeight="1">
       <c r="B27" s="89">
@@ -4438,7 +4432,7 @@
       <c r="AE27" s="85"/>
       <c r="AF27" s="85"/>
       <c r="AG27" s="85"/>
-      <c r="AH27" s="109"/>
+      <c r="AH27" s="111"/>
     </row>
     <row r="28" spans="2:34" ht="13.5" customHeight="1">
       <c r="B28" s="90"/>
@@ -4473,27 +4467,27 @@
       <c r="AE28" s="86"/>
       <c r="AF28" s="86"/>
       <c r="AG28" s="86"/>
-      <c r="AH28" s="109"/>
+      <c r="AH28" s="111"/>
     </row>
     <row r="29" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B29" s="110">
+      <c r="B29" s="147">
         <f>(ROW()-10)/2+0.5</f>
         <v>10</v>
       </c>
       <c r="C29" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="93" t="s">
-        <v>67</v>
-      </c>
       <c r="E29" s="93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="95"/>
-      <c r="H29" s="112"/>
+      <c r="H29" s="114"/>
       <c r="I29" s="99">
         <v>42191</v>
       </c>
@@ -4503,23 +4497,23 @@
       <c r="K29" s="99"/>
       <c r="L29" s="99"/>
       <c r="M29" s="101"/>
-      <c r="N29" s="114" t="str">
+      <c r="N29" s="109" t="str">
         <f ca="1">IF(B29="","",IF(AND(I29="",J29="",K29="",L29=""),"",IF(OR(I29="",J29=""),"?",IF(AND(I29&lt;&gt;"",J29&lt;&gt;"",K29&lt;&gt;"",L29&lt;&gt;"",M29=100),"○",IF(AND(I29&lt;=TODAY(),J29&gt;=TODAY(),K29=""),"▲",  IF(J29&lt;TODAY(),"★",IF(K29&lt;&gt;"","△",IF(AND(I29&lt;&gt;""),"◇",""))))))))</f>
         <v>◇</v>
       </c>
-      <c r="O29" s="116" t="str">
+      <c r="O29" s="135" t="str">
         <f>IF(COUNTA(S29:X29)=0,"",SUMPRODUCT(--(ISNUMBER(S29:X29)),S29:X29)+ (COUNTA(S29:X29)-COUNT(S29:X29))*8)</f>
         <v/>
       </c>
-      <c r="P29" s="118" t="str">
+      <c r="P29" s="117" t="str">
         <f>IF(O29="","",ROUND(O29/8,2))</f>
         <v/>
       </c>
-      <c r="Q29" s="116" t="str">
+      <c r="Q29" s="135" t="str">
         <f>IF(COUNTA(S30:X30)=0,"",SUMPRODUCT(--(ISNUMBER(S30:X30)),S30:X30)+ (COUNTA(S30:X30)-COUNT(S30:X30))*8)</f>
         <v/>
       </c>
-      <c r="R29" s="118" t="str">
+      <c r="R29" s="117" t="str">
         <f t="shared" ref="R29" si="27">IF(Q29="","",ROUND(Q29/8,2))</f>
         <v/>
       </c>
@@ -4538,26 +4532,26 @@
       <c r="AE29" s="85"/>
       <c r="AF29" s="85"/>
       <c r="AG29" s="85"/>
-      <c r="AH29" s="109"/>
+      <c r="AH29" s="111"/>
     </row>
     <row r="30" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B30" s="111"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="92"/>
       <c r="D30" s="94"/>
       <c r="E30" s="94"/>
       <c r="F30" s="96"/>
       <c r="G30" s="96"/>
-      <c r="H30" s="113"/>
+      <c r="H30" s="115"/>
       <c r="I30" s="100"/>
       <c r="J30" s="100"/>
       <c r="K30" s="100"/>
       <c r="L30" s="100"/>
       <c r="M30" s="102"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="119"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="118"/>
       <c r="S30" s="86"/>
       <c r="T30" s="86"/>
       <c r="U30" s="86"/>
@@ -4573,7 +4567,7 @@
       <c r="AE30" s="86"/>
       <c r="AF30" s="86"/>
       <c r="AG30" s="86"/>
-      <c r="AH30" s="109"/>
+      <c r="AH30" s="111"/>
     </row>
     <row r="31" spans="2:34" ht="13.5" customHeight="1">
       <c r="B31" s="89">
@@ -4584,10 +4578,10 @@
       <c r="D31" s="93"/>
       <c r="E31" s="93"/>
       <c r="F31" s="95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" s="95"/>
-      <c r="H31" s="112"/>
+      <c r="H31" s="114"/>
       <c r="I31" s="99">
         <v>42193</v>
       </c>
@@ -4632,7 +4626,7 @@
       <c r="AE31" s="85"/>
       <c r="AF31" s="85"/>
       <c r="AG31" s="85"/>
-      <c r="AH31" s="109"/>
+      <c r="AH31" s="111"/>
     </row>
     <row r="32" spans="2:34" ht="13.5" customHeight="1">
       <c r="B32" s="90"/>
@@ -4641,7 +4635,7 @@
       <c r="E32" s="94"/>
       <c r="F32" s="96"/>
       <c r="G32" s="96"/>
-      <c r="H32" s="113"/>
+      <c r="H32" s="115"/>
       <c r="I32" s="100"/>
       <c r="J32" s="100"/>
       <c r="K32" s="100"/>
@@ -4667,7 +4661,7 @@
       <c r="AE32" s="86"/>
       <c r="AF32" s="86"/>
       <c r="AG32" s="86"/>
-      <c r="AH32" s="109"/>
+      <c r="AH32" s="111"/>
     </row>
     <row r="33" spans="2:34" ht="13.5" customHeight="1">
       <c r="B33" s="89">
@@ -4678,10 +4672,10 @@
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
       <c r="F33" s="95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="95"/>
-      <c r="H33" s="112"/>
+      <c r="H33" s="114"/>
       <c r="I33" s="99">
         <v>42195</v>
       </c>
@@ -4726,7 +4720,7 @@
       <c r="AE33" s="85"/>
       <c r="AF33" s="85"/>
       <c r="AG33" s="85"/>
-      <c r="AH33" s="109"/>
+      <c r="AH33" s="111"/>
     </row>
     <row r="34" spans="2:34" ht="13.5" customHeight="1">
       <c r="B34" s="90"/>
@@ -4735,7 +4729,7 @@
       <c r="E34" s="94"/>
       <c r="F34" s="96"/>
       <c r="G34" s="96"/>
-      <c r="H34" s="113"/>
+      <c r="H34" s="115"/>
       <c r="I34" s="100"/>
       <c r="J34" s="100"/>
       <c r="K34" s="100"/>
@@ -4761,7 +4755,7 @@
       <c r="AE34" s="86"/>
       <c r="AF34" s="86"/>
       <c r="AG34" s="86"/>
-      <c r="AH34" s="109"/>
+      <c r="AH34" s="111"/>
     </row>
     <row r="35" spans="2:34" ht="13.5" customHeight="1">
       <c r="B35" s="89">
@@ -4772,10 +4766,10 @@
       <c r="D35" s="93"/>
       <c r="E35" s="93"/>
       <c r="F35" s="95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G35" s="95"/>
-      <c r="H35" s="112"/>
+      <c r="H35" s="114"/>
       <c r="I35" s="99">
         <v>42199</v>
       </c>
@@ -4820,7 +4814,7 @@
       <c r="AE35" s="85"/>
       <c r="AF35" s="85"/>
       <c r="AG35" s="85"/>
-      <c r="AH35" s="109"/>
+      <c r="AH35" s="111"/>
     </row>
     <row r="36" spans="2:34" ht="13.5" customHeight="1">
       <c r="B36" s="90"/>
@@ -4829,7 +4823,7 @@
       <c r="E36" s="94"/>
       <c r="F36" s="96"/>
       <c r="G36" s="96"/>
-      <c r="H36" s="113"/>
+      <c r="H36" s="115"/>
       <c r="I36" s="100"/>
       <c r="J36" s="100"/>
       <c r="K36" s="100"/>
@@ -4855,7 +4849,7 @@
       <c r="AE36" s="86"/>
       <c r="AF36" s="86"/>
       <c r="AG36" s="86"/>
-      <c r="AH36" s="109"/>
+      <c r="AH36" s="111"/>
     </row>
     <row r="37" spans="2:34" ht="13.5" customHeight="1">
       <c r="B37" s="89">
@@ -4866,10 +4860,10 @@
       <c r="D37" s="93"/>
       <c r="E37" s="93"/>
       <c r="F37" s="95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="95"/>
-      <c r="H37" s="112"/>
+      <c r="H37" s="114"/>
       <c r="I37" s="99">
         <v>42201</v>
       </c>
@@ -4914,7 +4908,7 @@
       <c r="AE37" s="85"/>
       <c r="AF37" s="85"/>
       <c r="AG37" s="85"/>
-      <c r="AH37" s="109"/>
+      <c r="AH37" s="111"/>
     </row>
     <row r="38" spans="2:34" ht="13.5" customHeight="1">
       <c r="B38" s="90"/>
@@ -4923,7 +4917,7 @@
       <c r="E38" s="94"/>
       <c r="F38" s="96"/>
       <c r="G38" s="96"/>
-      <c r="H38" s="113"/>
+      <c r="H38" s="115"/>
       <c r="I38" s="100"/>
       <c r="J38" s="100"/>
       <c r="K38" s="100"/>
@@ -4949,7 +4943,7 @@
       <c r="AE38" s="86"/>
       <c r="AF38" s="86"/>
       <c r="AG38" s="86"/>
-      <c r="AH38" s="109"/>
+      <c r="AH38" s="111"/>
     </row>
     <row r="39" spans="2:34" ht="13.5" customHeight="1">
       <c r="B39" s="89">
@@ -4960,18 +4954,18 @@
       <c r="D39" s="93"/>
       <c r="E39" s="93"/>
       <c r="F39" s="95" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="95"/>
-      <c r="H39" s="112"/>
+      <c r="H39" s="114"/>
       <c r="I39" s="99">
         <v>42206</v>
       </c>
       <c r="J39" s="99">
         <v>42207</v>
       </c>
-      <c r="K39" s="120"/>
-      <c r="L39" s="120"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="112"/>
       <c r="M39" s="101"/>
       <c r="N39" s="103" t="str">
         <f ca="1">IF(B39="","",IF(AND(I39="",J39="",K39="",L39=""),"",IF(OR(I39="",J39=""),"?",IF(AND(I39&lt;&gt;"",J39&lt;&gt;"",K39&lt;&gt;"",L39&lt;&gt;"",M39=100),"○",IF(AND(I39&lt;=TODAY(),J39&gt;=TODAY(),K39=""),"▲",  IF(J39&lt;TODAY(),"★",IF(K39&lt;&gt;"","△",IF(AND(I39&lt;&gt;""),"◇",""))))))))</f>
@@ -5008,7 +5002,7 @@
       <c r="AE39" s="85"/>
       <c r="AF39" s="85"/>
       <c r="AG39" s="85"/>
-      <c r="AH39" s="109"/>
+      <c r="AH39" s="111"/>
     </row>
     <row r="40" spans="2:34" ht="13.5" customHeight="1">
       <c r="B40" s="90"/>
@@ -5017,11 +5011,11 @@
       <c r="E40" s="94"/>
       <c r="F40" s="96"/>
       <c r="G40" s="96"/>
-      <c r="H40" s="113"/>
+      <c r="H40" s="115"/>
       <c r="I40" s="100"/>
       <c r="J40" s="100"/>
-      <c r="K40" s="121"/>
-      <c r="L40" s="121"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
       <c r="M40" s="102"/>
       <c r="N40" s="104"/>
       <c r="O40" s="106"/>
@@ -5043,7 +5037,7 @@
       <c r="AE40" s="86"/>
       <c r="AF40" s="86"/>
       <c r="AG40" s="86"/>
-      <c r="AH40" s="109"/>
+      <c r="AH40" s="111"/>
     </row>
     <row r="41" spans="2:34" ht="50.1" customHeight="1">
       <c r="B41" s="89">
@@ -5055,7 +5049,7 @@
       <c r="E41" s="93"/>
       <c r="F41" s="95"/>
       <c r="G41" s="95"/>
-      <c r="H41" s="112"/>
+      <c r="H41" s="114"/>
       <c r="I41" s="99"/>
       <c r="J41" s="99"/>
       <c r="K41" s="99"/>
@@ -5081,7 +5075,7 @@
       <c r="AE41" s="85"/>
       <c r="AF41" s="85"/>
       <c r="AG41" s="85"/>
-      <c r="AH41" s="109"/>
+      <c r="AH41" s="111"/>
     </row>
     <row r="42" spans="2:34" ht="13.5" customHeight="1">
       <c r="B42" s="90"/>
@@ -5090,7 +5084,7 @@
       <c r="E42" s="94"/>
       <c r="F42" s="96"/>
       <c r="G42" s="96"/>
-      <c r="H42" s="113"/>
+      <c r="H42" s="115"/>
       <c r="I42" s="100"/>
       <c r="J42" s="100"/>
       <c r="K42" s="100"/>
@@ -5116,7 +5110,7 @@
       <c r="AE42" s="86"/>
       <c r="AF42" s="86"/>
       <c r="AG42" s="86"/>
-      <c r="AH42" s="109"/>
+      <c r="AH42" s="111"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
@@ -5125,28 +5119,258 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="307">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="AH27:AH28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="AH31:AH32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="AH33:AH34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="AH39:AH40"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="AH21:AH22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="AH25:AH26"/>
     <mergeCell ref="R13:R14"/>
     <mergeCell ref="AH13:AH14"/>
@@ -5171,267 +5395,37 @@
     <mergeCell ref="AH23:AH24"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="M21:M22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="AH21:AH22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="N15:N16"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="O19:O20"/>
     <mergeCell ref="P19:P20"/>
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="R17:R18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="AH39:AH40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="AH33:AH34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="AH27:AH28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="S8:X8">

--- a/【JAPTOOL】Project Schedule Offshore.xlsx
+++ b/【JAPTOOL】Project Schedule Offshore.xlsx
@@ -19,7 +19,7 @@
     <definedName name="Excel_BuiltIn_Print_Titles">NA()</definedName>
     <definedName name="Holiday" localSheetId="0">Setting!$C$5:$C$104</definedName>
     <definedName name="Holiday">Setting!$C$5:$C$104</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Master-Detail'!$B$1:$AJ$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Master-Detail'!$B$1:$AJ$56</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Master-Detail'!$1:$10</definedName>
     <definedName name="syupo">[1]リスト!$H$2:$H$4</definedName>
   </definedNames>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>○</t>
     <phoneticPr fontId="3"/>
@@ -298,9 +298,6 @@
 ★</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -311,6 +308,27 @@
   </si>
   <si>
     <t>FPT SOFTWARE (FSU17-BU6-GIB)</t>
+  </si>
+  <si>
+    <t>TuyenTV1</t>
+  </si>
+  <si>
+    <t>DuongTD1</t>
+  </si>
+  <si>
+    <t>TuanNT22</t>
+  </si>
+  <si>
+    <t>DongDL1</t>
+  </si>
+  <si>
+    <t>QuyetND2</t>
+  </si>
+  <si>
+    <t>NamMH</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1857,511 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="150">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3035,13 +3557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="14" ySplit="10" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -3077,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="23.25" customHeight="1">
       <c r="B1" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -3180,27 +3702,27 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61">
-        <f ca="1">COUNTIF(N15:N42,"=△") + COUNTIF(N15:N42,"=○") +COUNTIF(N15:N42,"=★") + COUNTIF(N15:N42,"=◇")+ COUNTIF(N15:N42,"=▲")</f>
-        <v>12</v>
+        <f ca="1">COUNTIF(N15:N56,"=△") + COUNTIF(N15:N56,"=○") +COUNTIF(N15:N56,"=★") + COUNTIF(N15:N56,"=◇")+ COUNTIF(N15:N56,"=▲")</f>
+        <v>18</v>
       </c>
       <c r="I3" s="61">
-        <f ca="1">COUNTIF(N15:N42,"=○")</f>
+        <f ca="1">COUNTIF(N15:N56,"=○")</f>
         <v>0</v>
       </c>
       <c r="J3" s="61">
-        <f ca="1">COUNTIF(N15:N42,"=△") + COUNTIF(N15:N42,"=▲")  +  COUNTIF(N15:N42,"=★")</f>
+        <f ca="1">COUNTIF(N15:N56,"=△") + COUNTIF(N15:N56,"=▲")  +  COUNTIF(N15:N56,"=★")</f>
         <v>1</v>
       </c>
       <c r="K3" s="61">
-        <f ca="1">COUNTIF(N15:N42,"=◇")</f>
-        <v>11</v>
+        <f ca="1">COUNTIF(N15:N56,"=◇")</f>
+        <v>17</v>
       </c>
       <c r="L3" s="61">
-        <f ca="1">COUNTIF(N15:N42,"=▲")</f>
+        <f ca="1">COUNTIF(N15:N56,"=▲")</f>
         <v>0</v>
       </c>
       <c r="M3" s="61">
-        <f ca="1">COUNTIF(N15:N42,"=★")</f>
+        <f ca="1">COUNTIF(N15:N56,"=★")</f>
         <v>0</v>
       </c>
       <c r="N3" s="50"/>
@@ -3352,19 +3874,19 @@
       <c r="G8" s="142"/>
       <c r="H8" s="143"/>
       <c r="I8" s="72">
-        <f>MIN(I15:I42)</f>
+        <f>MIN(I15:I56)</f>
         <v>42173</v>
       </c>
       <c r="J8" s="72">
-        <f>MAX(J15:J42)</f>
+        <f>MAX(J15:J56)</f>
         <v>42207</v>
       </c>
       <c r="K8" s="72">
-        <f>IF(MIN(K15:K42)=DATE(1900,1,0),"",MIN(K15:K42))</f>
+        <f>IF(MIN(K15:K56)=DATE(1900,1,0),"",MIN(K15:K56))</f>
         <v>42173</v>
       </c>
       <c r="L8" s="72">
-        <f>IF(MAX(L15:L42)=DATE(1900,1,0),"",MAX(L15:L42))</f>
+        <f>IF(MAX(L15:L56)=DATE(1900,1,0),"",MAX(L15:L56))</f>
         <v>42175</v>
       </c>
       <c r="M8" s="73"/>
@@ -3373,12 +3895,12 @@
         <v>2015</v>
       </c>
       <c r="O8" s="130">
-        <f>SUM(P15:P42)</f>
+        <f>SUM(P15:P56)</f>
         <v>1</v>
       </c>
       <c r="P8" s="131"/>
       <c r="Q8" s="130">
-        <f>SUM(R15:R42)</f>
+        <f>SUM(R15:R56)</f>
         <v>1</v>
       </c>
       <c r="R8" s="131"/>
@@ -3812,7 +4334,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="93" t="s">
         <v>56</v>
@@ -3821,7 +4343,9 @@
         <v>58</v>
       </c>
       <c r="G15" s="95"/>
-      <c r="H15" s="114"/>
+      <c r="H15" s="114" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="99">
         <v>42173</v>
       </c>
@@ -3923,7 +4447,9 @@
         <v>59</v>
       </c>
       <c r="G17" s="95"/>
-      <c r="H17" s="114"/>
+      <c r="H17" s="114" t="s">
+        <v>70</v>
+      </c>
       <c r="I17" s="99">
         <v>42176</v>
       </c>
@@ -4017,7 +4543,9 @@
         <v>60</v>
       </c>
       <c r="G19" s="95"/>
-      <c r="H19" s="114"/>
+      <c r="H19" s="114" t="s">
+        <v>71</v>
+      </c>
       <c r="I19" s="99">
         <v>42181</v>
       </c>
@@ -4111,7 +4639,9 @@
         <v>61</v>
       </c>
       <c r="G21" s="95"/>
-      <c r="H21" s="114"/>
+      <c r="H21" s="114" t="s">
+        <v>71</v>
+      </c>
       <c r="I21" s="99">
         <v>42184</v>
       </c>
@@ -4205,7 +4735,9 @@
         <v>62</v>
       </c>
       <c r="G23" s="95"/>
-      <c r="H23" s="114"/>
+      <c r="H23" s="114" t="s">
+        <v>69</v>
+      </c>
       <c r="I23" s="99">
         <v>42186</v>
       </c>
@@ -4299,7 +4831,9 @@
         <v>57</v>
       </c>
       <c r="G25" s="95"/>
-      <c r="H25" s="114"/>
+      <c r="H25" s="114" t="s">
+        <v>69</v>
+      </c>
       <c r="I25" s="99">
         <v>42189</v>
       </c>
@@ -4391,7 +4925,7 @@
       <c r="E27" s="93"/>
       <c r="F27" s="95"/>
       <c r="G27" s="95"/>
-      <c r="H27" s="97"/>
+      <c r="H27" s="114"/>
       <c r="I27" s="99"/>
       <c r="J27" s="99"/>
       <c r="K27" s="99"/>
@@ -4441,7 +4975,7 @@
       <c r="E28" s="94"/>
       <c r="F28" s="96"/>
       <c r="G28" s="96"/>
-      <c r="H28" s="98"/>
+      <c r="H28" s="115"/>
       <c r="I28" s="100"/>
       <c r="J28" s="100"/>
       <c r="K28" s="100"/>
@@ -4474,20 +5008,20 @@
         <f>(ROW()-10)/2+0.5</f>
         <v>10</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="91"/>
+      <c r="D29" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="93" t="s">
-        <v>66</v>
-      </c>
       <c r="E29" s="93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="95" t="s">
         <v>58</v>
       </c>
       <c r="G29" s="95"/>
-      <c r="H29" s="114"/>
+      <c r="H29" s="114" t="s">
+        <v>73</v>
+      </c>
       <c r="I29" s="99">
         <v>42191</v>
       </c>
@@ -4581,7 +5115,9 @@
         <v>59</v>
       </c>
       <c r="G31" s="95"/>
-      <c r="H31" s="114"/>
+      <c r="H31" s="114" t="s">
+        <v>73</v>
+      </c>
       <c r="I31" s="99">
         <v>42193</v>
       </c>
@@ -4675,7 +5211,9 @@
         <v>60</v>
       </c>
       <c r="G33" s="95"/>
-      <c r="H33" s="114"/>
+      <c r="H33" s="114" t="s">
+        <v>74</v>
+      </c>
       <c r="I33" s="99">
         <v>42195</v>
       </c>
@@ -4769,7 +5307,9 @@
         <v>61</v>
       </c>
       <c r="G35" s="95"/>
-      <c r="H35" s="114"/>
+      <c r="H35" s="114" t="s">
+        <v>74</v>
+      </c>
       <c r="I35" s="99">
         <v>42199</v>
       </c>
@@ -4863,7 +5403,9 @@
         <v>62</v>
       </c>
       <c r="G37" s="95"/>
-      <c r="H37" s="114"/>
+      <c r="H37" s="114" t="s">
+        <v>72</v>
+      </c>
       <c r="I37" s="99">
         <v>42201</v>
       </c>
@@ -4957,7 +5499,9 @@
         <v>57</v>
       </c>
       <c r="G39" s="95"/>
-      <c r="H39" s="114"/>
+      <c r="H39" s="114" t="s">
+        <v>72</v>
+      </c>
       <c r="I39" s="99">
         <v>42206</v>
       </c>
@@ -5039,7 +5583,7 @@
       <c r="AG40" s="86"/>
       <c r="AH40" s="111"/>
     </row>
-    <row r="41" spans="2:34" ht="50.1" customHeight="1">
+    <row r="41" spans="2:34" ht="13.5" customHeight="1">
       <c r="B41" s="89">
         <f t="shared" ref="B41" si="42">(ROW()-10)/2+0.5</f>
         <v>16</v>
@@ -5055,11 +5599,26 @@
       <c r="K41" s="99"/>
       <c r="L41" s="99"/>
       <c r="M41" s="101"/>
-      <c r="N41" s="103"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="107"/>
-      <c r="Q41" s="105"/>
-      <c r="R41" s="107"/>
+      <c r="N41" s="103" t="str">
+        <f ca="1">IF(B41="","",IF(AND(I41="",J41="",K41="",L41=""),"",IF(OR(I41="",J41=""),"?",IF(AND(I41&lt;&gt;"",J41&lt;&gt;"",K41&lt;&gt;"",L41&lt;&gt;"",M41=100),"○",IF(AND(I41&lt;=TODAY(),J41&gt;=TODAY(),K41=""),"▲",  IF(J41&lt;TODAY(),"★",IF(K41&lt;&gt;"","△",IF(AND(I41&lt;&gt;""),"◇",""))))))))</f>
+        <v/>
+      </c>
+      <c r="O41" s="105" t="str">
+        <f>IF(COUNTA(S41:X41)=0,"",SUMPRODUCT(--(ISNUMBER(S41:X41)),S41:X41)+ (COUNTA(S41:X41)-COUNT(S41:X41))*8)</f>
+        <v/>
+      </c>
+      <c r="P41" s="107" t="str">
+        <f t="shared" ref="P41" si="43">IF(O41="","",ROUND(O41/8,2))</f>
+        <v/>
+      </c>
+      <c r="Q41" s="105" t="str">
+        <f>IF(COUNTA(S42:X42)=0,"",SUMPRODUCT(--(ISNUMBER(S42:X42)),S42:X42)+ (COUNTA(S42:X42)-COUNT(S42:X42))*8)</f>
+        <v/>
+      </c>
+      <c r="R41" s="107" t="str">
+        <f t="shared" ref="R41" si="44">IF(Q41="","",ROUND(Q41/8,2))</f>
+        <v/>
+      </c>
       <c r="S41" s="85"/>
       <c r="T41" s="85"/>
       <c r="U41" s="85"/>
@@ -5112,13 +5671,790 @@
       <c r="AG42" s="86"/>
       <c r="AH42" s="111"/>
     </row>
+    <row r="43" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B43" s="147">
+        <f>(ROW()-10)/2+0.5</f>
+        <v>17</v>
+      </c>
+      <c r="C43" s="91"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="95"/>
+      <c r="H43" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="99">
+        <v>42191</v>
+      </c>
+      <c r="J43" s="99">
+        <v>42192</v>
+      </c>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="101"/>
+      <c r="N43" s="109" t="str">
+        <f ca="1">IF(B43="","",IF(AND(I43="",J43="",K43="",L43=""),"",IF(OR(I43="",J43=""),"?",IF(AND(I43&lt;&gt;"",J43&lt;&gt;"",K43&lt;&gt;"",L43&lt;&gt;"",M43=100),"○",IF(AND(I43&lt;=TODAY(),J43&gt;=TODAY(),K43=""),"▲",  IF(J43&lt;TODAY(),"★",IF(K43&lt;&gt;"","△",IF(AND(I43&lt;&gt;""),"◇",""))))))))</f>
+        <v>◇</v>
+      </c>
+      <c r="O43" s="135" t="str">
+        <f>IF(COUNTA(S43:X43)=0,"",SUMPRODUCT(--(ISNUMBER(S43:X43)),S43:X43)+ (COUNTA(S43:X43)-COUNT(S43:X43))*8)</f>
+        <v/>
+      </c>
+      <c r="P43" s="117" t="str">
+        <f>IF(O43="","",ROUND(O43/8,2))</f>
+        <v/>
+      </c>
+      <c r="Q43" s="135" t="str">
+        <f>IF(COUNTA(S44:X44)=0,"",SUMPRODUCT(--(ISNUMBER(S44:X44)),S44:X44)+ (COUNTA(S44:X44)-COUNT(S44:X44))*8)</f>
+        <v/>
+      </c>
+      <c r="R43" s="117" t="str">
+        <f t="shared" ref="R43" si="45">IF(Q43="","",ROUND(Q43/8,2))</f>
+        <v/>
+      </c>
+      <c r="S43" s="85"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="85"/>
+      <c r="W43" s="85"/>
+      <c r="X43" s="85"/>
+      <c r="Y43" s="85"/>
+      <c r="Z43" s="85"/>
+      <c r="AA43" s="85"/>
+      <c r="AB43" s="85"/>
+      <c r="AC43" s="85"/>
+      <c r="AD43" s="85"/>
+      <c r="AE43" s="85"/>
+      <c r="AF43" s="85"/>
+      <c r="AG43" s="85"/>
+      <c r="AH43" s="111"/>
+    </row>
+    <row r="44" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B44" s="148"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="110"/>
+      <c r="O44" s="136"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="136"/>
+      <c r="R44" s="118"/>
+      <c r="S44" s="86"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="86"/>
+      <c r="V44" s="86"/>
+      <c r="W44" s="86"/>
+      <c r="X44" s="86"/>
+      <c r="Y44" s="86"/>
+      <c r="Z44" s="86"/>
+      <c r="AA44" s="86"/>
+      <c r="AB44" s="86"/>
+      <c r="AC44" s="86"/>
+      <c r="AD44" s="86"/>
+      <c r="AE44" s="86"/>
+      <c r="AF44" s="86"/>
+      <c r="AG44" s="86"/>
+      <c r="AH44" s="111"/>
+    </row>
+    <row r="45" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B45" s="89">
+        <f t="shared" ref="B45" si="46">(ROW()-10)/2+0.5</f>
+        <v>18</v>
+      </c>
+      <c r="C45" s="91"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="95"/>
+      <c r="H45" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="99">
+        <v>42193</v>
+      </c>
+      <c r="J45" s="99">
+        <v>42195</v>
+      </c>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="103" t="str">
+        <f ca="1">IF(B45="","",IF(AND(I45="",J45="",K45="",L45=""),"",IF(OR(I45="",J45=""),"?",IF(AND(I45&lt;&gt;"",J45&lt;&gt;"",K45&lt;&gt;"",L45&lt;&gt;"",M45=100),"○",IF(AND(I45&lt;=TODAY(),J45&gt;=TODAY(),K45=""),"▲",  IF(J45&lt;TODAY(),"★",IF(K45&lt;&gt;"","△",IF(AND(I45&lt;&gt;""),"◇",""))))))))</f>
+        <v>◇</v>
+      </c>
+      <c r="O45" s="105" t="str">
+        <f>IF(COUNTA(S45:X45)=0,"",SUMPRODUCT(--(ISNUMBER(S45:X45)),S45:X45)+ (COUNTA(S45:X45)-COUNT(S45:X45))*8)</f>
+        <v/>
+      </c>
+      <c r="P45" s="107" t="str">
+        <f t="shared" ref="P45" si="47">IF(O45="","",ROUND(O45/8,2))</f>
+        <v/>
+      </c>
+      <c r="Q45" s="105" t="str">
+        <f>IF(COUNTA(S46:X46)=0,"",SUMPRODUCT(--(ISNUMBER(S46:X46)),S46:X46)+ (COUNTA(S46:X46)-COUNT(S46:X46))*8)</f>
+        <v/>
+      </c>
+      <c r="R45" s="107" t="str">
+        <f t="shared" ref="R45" si="48">IF(Q45="","",ROUND(Q45/8,2))</f>
+        <v/>
+      </c>
+      <c r="S45" s="85"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="85"/>
+      <c r="W45" s="85"/>
+      <c r="X45" s="85"/>
+      <c r="Y45" s="85"/>
+      <c r="Z45" s="85"/>
+      <c r="AA45" s="85"/>
+      <c r="AB45" s="85"/>
+      <c r="AC45" s="85"/>
+      <c r="AD45" s="85"/>
+      <c r="AE45" s="85"/>
+      <c r="AF45" s="85"/>
+      <c r="AG45" s="85"/>
+      <c r="AH45" s="111"/>
+    </row>
+    <row r="46" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B46" s="90"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="106"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="106"/>
+      <c r="R46" s="108"/>
+      <c r="S46" s="86"/>
+      <c r="T46" s="86"/>
+      <c r="U46" s="86"/>
+      <c r="V46" s="86"/>
+      <c r="W46" s="86"/>
+      <c r="X46" s="86"/>
+      <c r="Y46" s="86"/>
+      <c r="Z46" s="86"/>
+      <c r="AA46" s="86"/>
+      <c r="AB46" s="86"/>
+      <c r="AC46" s="86"/>
+      <c r="AD46" s="86"/>
+      <c r="AE46" s="86"/>
+      <c r="AF46" s="86"/>
+      <c r="AG46" s="86"/>
+      <c r="AH46" s="111"/>
+    </row>
+    <row r="47" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B47" s="89">
+        <f t="shared" ref="B47" si="49">(ROW()-10)/2+0.5</f>
+        <v>19</v>
+      </c>
+      <c r="C47" s="91"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="95"/>
+      <c r="H47" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47" s="99">
+        <v>42195</v>
+      </c>
+      <c r="J47" s="99">
+        <v>42198</v>
+      </c>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="101"/>
+      <c r="N47" s="103" t="str">
+        <f ca="1">IF(B47="","",IF(AND(I47="",J47="",K47="",L47=""),"",IF(OR(I47="",J47=""),"?",IF(AND(I47&lt;&gt;"",J47&lt;&gt;"",K47&lt;&gt;"",L47&lt;&gt;"",M47=100),"○",IF(AND(I47&lt;=TODAY(),J47&gt;=TODAY(),K47=""),"▲",  IF(J47&lt;TODAY(),"★",IF(K47&lt;&gt;"","△",IF(AND(I47&lt;&gt;""),"◇",""))))))))</f>
+        <v>◇</v>
+      </c>
+      <c r="O47" s="105" t="str">
+        <f>IF(COUNTA(S47:X47)=0,"",SUMPRODUCT(--(ISNUMBER(S47:X47)),S47:X47)+ (COUNTA(S47:X47)-COUNT(S47:X47))*8)</f>
+        <v/>
+      </c>
+      <c r="P47" s="107" t="str">
+        <f t="shared" ref="P47" si="50">IF(O47="","",ROUND(O47/8,2))</f>
+        <v/>
+      </c>
+      <c r="Q47" s="105" t="str">
+        <f>IF(COUNTA(S48:X48)=0,"",SUMPRODUCT(--(ISNUMBER(S48:X48)),S48:X48)+ (COUNTA(S48:X48)-COUNT(S48:X48))*8)</f>
+        <v/>
+      </c>
+      <c r="R47" s="107" t="str">
+        <f t="shared" ref="R47" si="51">IF(Q47="","",ROUND(Q47/8,2))</f>
+        <v/>
+      </c>
+      <c r="S47" s="85"/>
+      <c r="T47" s="85"/>
+      <c r="U47" s="85"/>
+      <c r="V47" s="85"/>
+      <c r="W47" s="85"/>
+      <c r="X47" s="85"/>
+      <c r="Y47" s="85"/>
+      <c r="Z47" s="85"/>
+      <c r="AA47" s="85"/>
+      <c r="AB47" s="85"/>
+      <c r="AC47" s="85"/>
+      <c r="AD47" s="85"/>
+      <c r="AE47" s="85"/>
+      <c r="AF47" s="85"/>
+      <c r="AG47" s="85"/>
+      <c r="AH47" s="111"/>
+    </row>
+    <row r="48" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B48" s="90"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="100"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="104"/>
+      <c r="O48" s="106"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="106"/>
+      <c r="R48" s="108"/>
+      <c r="S48" s="86"/>
+      <c r="T48" s="86"/>
+      <c r="U48" s="86"/>
+      <c r="V48" s="86"/>
+      <c r="W48" s="86"/>
+      <c r="X48" s="86"/>
+      <c r="Y48" s="86"/>
+      <c r="Z48" s="86"/>
+      <c r="AA48" s="86"/>
+      <c r="AB48" s="86"/>
+      <c r="AC48" s="86"/>
+      <c r="AD48" s="86"/>
+      <c r="AE48" s="86"/>
+      <c r="AF48" s="86"/>
+      <c r="AG48" s="86"/>
+      <c r="AH48" s="111"/>
+    </row>
+    <row r="49" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B49" s="89">
+        <f t="shared" ref="B49:B51" si="52">(ROW()-10)/2+0.5</f>
+        <v>20</v>
+      </c>
+      <c r="C49" s="91"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="95"/>
+      <c r="H49" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="99">
+        <v>42199</v>
+      </c>
+      <c r="J49" s="99">
+        <v>42200</v>
+      </c>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="103" t="str">
+        <f ca="1">IF(B49="","",IF(AND(I49="",J49="",K49="",L49=""),"",IF(OR(I49="",J49=""),"?",IF(AND(I49&lt;&gt;"",J49&lt;&gt;"",K49&lt;&gt;"",L49&lt;&gt;"",M49=100),"○",IF(AND(I49&lt;=TODAY(),J49&gt;=TODAY(),K49=""),"▲",  IF(J49&lt;TODAY(),"★",IF(K49&lt;&gt;"","△",IF(AND(I49&lt;&gt;""),"◇",""))))))))</f>
+        <v>◇</v>
+      </c>
+      <c r="O49" s="105" t="str">
+        <f>IF(COUNTA(S49:X49)=0,"",SUMPRODUCT(--(ISNUMBER(S49:X49)),S49:X49)+ (COUNTA(S49:X49)-COUNT(S49:X49))*8)</f>
+        <v/>
+      </c>
+      <c r="P49" s="107" t="str">
+        <f t="shared" ref="P49" si="53">IF(O49="","",ROUND(O49/8,2))</f>
+        <v/>
+      </c>
+      <c r="Q49" s="105" t="str">
+        <f>IF(COUNTA(S50:X50)=0,"",SUMPRODUCT(--(ISNUMBER(S50:X50)),S50:X50)+ (COUNTA(S50:X50)-COUNT(S50:X50))*8)</f>
+        <v/>
+      </c>
+      <c r="R49" s="107" t="str">
+        <f t="shared" ref="R49" si="54">IF(Q49="","",ROUND(Q49/8,2))</f>
+        <v/>
+      </c>
+      <c r="S49" s="85"/>
+      <c r="T49" s="85"/>
+      <c r="U49" s="85"/>
+      <c r="V49" s="85"/>
+      <c r="W49" s="85"/>
+      <c r="X49" s="85"/>
+      <c r="Y49" s="85"/>
+      <c r="Z49" s="85"/>
+      <c r="AA49" s="85"/>
+      <c r="AB49" s="85"/>
+      <c r="AC49" s="85"/>
+      <c r="AD49" s="85"/>
+      <c r="AE49" s="85"/>
+      <c r="AF49" s="85"/>
+      <c r="AG49" s="85"/>
+      <c r="AH49" s="111"/>
+    </row>
+    <row r="50" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B50" s="90"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="102"/>
+      <c r="N50" s="104"/>
+      <c r="O50" s="106"/>
+      <c r="P50" s="108"/>
+      <c r="Q50" s="106"/>
+      <c r="R50" s="108"/>
+      <c r="S50" s="86"/>
+      <c r="T50" s="86"/>
+      <c r="U50" s="86"/>
+      <c r="V50" s="86"/>
+      <c r="W50" s="86"/>
+      <c r="X50" s="86"/>
+      <c r="Y50" s="86"/>
+      <c r="Z50" s="86"/>
+      <c r="AA50" s="86"/>
+      <c r="AB50" s="86"/>
+      <c r="AC50" s="86"/>
+      <c r="AD50" s="86"/>
+      <c r="AE50" s="86"/>
+      <c r="AF50" s="86"/>
+      <c r="AG50" s="86"/>
+      <c r="AH50" s="111"/>
+    </row>
+    <row r="51" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B51" s="89">
+        <f t="shared" si="52"/>
+        <v>21</v>
+      </c>
+      <c r="C51" s="91"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="95"/>
+      <c r="H51" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="99">
+        <v>42201</v>
+      </c>
+      <c r="J51" s="99">
+        <v>42205</v>
+      </c>
+      <c r="K51" s="99"/>
+      <c r="L51" s="99"/>
+      <c r="M51" s="101"/>
+      <c r="N51" s="103" t="str">
+        <f ca="1">IF(B51="","",IF(AND(I51="",J51="",K51="",L51=""),"",IF(OR(I51="",J51=""),"?",IF(AND(I51&lt;&gt;"",J51&lt;&gt;"",K51&lt;&gt;"",L51&lt;&gt;"",M51=100),"○",IF(AND(I51&lt;=TODAY(),J51&gt;=TODAY(),K51=""),"▲",  IF(J51&lt;TODAY(),"★",IF(K51&lt;&gt;"","△",IF(AND(I51&lt;&gt;""),"◇",""))))))))</f>
+        <v>◇</v>
+      </c>
+      <c r="O51" s="105" t="str">
+        <f>IF(COUNTA(S51:X51)=0,"",SUMPRODUCT(--(ISNUMBER(S51:X51)),S51:X51)+ (COUNTA(S51:X51)-COUNT(S51:X51))*8)</f>
+        <v/>
+      </c>
+      <c r="P51" s="107" t="str">
+        <f t="shared" ref="P51" si="55">IF(O51="","",ROUND(O51/8,2))</f>
+        <v/>
+      </c>
+      <c r="Q51" s="105" t="str">
+        <f>IF(COUNTA(S52:X52)=0,"",SUMPRODUCT(--(ISNUMBER(S52:X52)),S52:X52)+ (COUNTA(S52:X52)-COUNT(S52:X52))*8)</f>
+        <v/>
+      </c>
+      <c r="R51" s="107" t="str">
+        <f t="shared" ref="R51" si="56">IF(Q51="","",ROUND(Q51/8,2))</f>
+        <v/>
+      </c>
+      <c r="S51" s="85"/>
+      <c r="T51" s="85"/>
+      <c r="U51" s="85"/>
+      <c r="V51" s="85"/>
+      <c r="W51" s="85"/>
+      <c r="X51" s="85"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="85"/>
+      <c r="AA51" s="85"/>
+      <c r="AB51" s="85"/>
+      <c r="AC51" s="85"/>
+      <c r="AD51" s="85"/>
+      <c r="AE51" s="85"/>
+      <c r="AF51" s="85"/>
+      <c r="AG51" s="85"/>
+      <c r="AH51" s="111"/>
+    </row>
+    <row r="52" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B52" s="90"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="104"/>
+      <c r="O52" s="106"/>
+      <c r="P52" s="108"/>
+      <c r="Q52" s="106"/>
+      <c r="R52" s="108"/>
+      <c r="S52" s="86"/>
+      <c r="T52" s="86"/>
+      <c r="U52" s="86"/>
+      <c r="V52" s="86"/>
+      <c r="W52" s="86"/>
+      <c r="X52" s="86"/>
+      <c r="Y52" s="86"/>
+      <c r="Z52" s="86"/>
+      <c r="AA52" s="86"/>
+      <c r="AB52" s="86"/>
+      <c r="AC52" s="86"/>
+      <c r="AD52" s="86"/>
+      <c r="AE52" s="86"/>
+      <c r="AF52" s="86"/>
+      <c r="AG52" s="86"/>
+      <c r="AH52" s="111"/>
+    </row>
+    <row r="53" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B53" s="89">
+        <f t="shared" ref="B53" si="57">(ROW()-10)/2+0.5</f>
+        <v>22</v>
+      </c>
+      <c r="C53" s="91"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="95"/>
+      <c r="H53" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="99">
+        <v>42206</v>
+      </c>
+      <c r="J53" s="99">
+        <v>42207</v>
+      </c>
+      <c r="K53" s="112"/>
+      <c r="L53" s="112"/>
+      <c r="M53" s="101"/>
+      <c r="N53" s="103" t="str">
+        <f ca="1">IF(B53="","",IF(AND(I53="",J53="",K53="",L53=""),"",IF(OR(I53="",J53=""),"?",IF(AND(I53&lt;&gt;"",J53&lt;&gt;"",K53&lt;&gt;"",L53&lt;&gt;"",M53=100),"○",IF(AND(I53&lt;=TODAY(),J53&gt;=TODAY(),K53=""),"▲",  IF(J53&lt;TODAY(),"★",IF(K53&lt;&gt;"","△",IF(AND(I53&lt;&gt;""),"◇",""))))))))</f>
+        <v>◇</v>
+      </c>
+      <c r="O53" s="105" t="str">
+        <f>IF(COUNTA(S53:X53)=0,"",SUMPRODUCT(--(ISNUMBER(S53:X53)),S53:X53)+ (COUNTA(S53:X53)-COUNT(S53:X53))*8)</f>
+        <v/>
+      </c>
+      <c r="P53" s="107" t="str">
+        <f t="shared" ref="P53" si="58">IF(O53="","",ROUND(O53/8,2))</f>
+        <v/>
+      </c>
+      <c r="Q53" s="105" t="str">
+        <f>IF(COUNTA(S54:X54)=0,"",SUMPRODUCT(--(ISNUMBER(S54:X54)),S54:X54)+ (COUNTA(S54:X54)-COUNT(S54:X54))*8)</f>
+        <v/>
+      </c>
+      <c r="R53" s="107" t="str">
+        <f t="shared" ref="R53" si="59">IF(Q53="","",ROUND(Q53/8,2))</f>
+        <v/>
+      </c>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
+      <c r="W53" s="85"/>
+      <c r="X53" s="85"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="85"/>
+      <c r="AA53" s="85"/>
+      <c r="AB53" s="85"/>
+      <c r="AC53" s="85"/>
+      <c r="AD53" s="85"/>
+      <c r="AE53" s="85"/>
+      <c r="AF53" s="85"/>
+      <c r="AG53" s="85"/>
+      <c r="AH53" s="111"/>
+    </row>
+    <row r="54" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B54" s="90"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="113"/>
+      <c r="L54" s="113"/>
+      <c r="M54" s="102"/>
+      <c r="N54" s="104"/>
+      <c r="O54" s="106"/>
+      <c r="P54" s="108"/>
+      <c r="Q54" s="106"/>
+      <c r="R54" s="108"/>
+      <c r="S54" s="86"/>
+      <c r="T54" s="86"/>
+      <c r="U54" s="86"/>
+      <c r="V54" s="86"/>
+      <c r="W54" s="86"/>
+      <c r="X54" s="86"/>
+      <c r="Y54" s="86"/>
+      <c r="Z54" s="86"/>
+      <c r="AA54" s="86"/>
+      <c r="AB54" s="86"/>
+      <c r="AC54" s="86"/>
+      <c r="AD54" s="86"/>
+      <c r="AE54" s="86"/>
+      <c r="AF54" s="86"/>
+      <c r="AG54" s="86"/>
+      <c r="AH54" s="111"/>
+    </row>
+    <row r="55" spans="2:34" ht="50.1" customHeight="1">
+      <c r="B55" s="89">
+        <f t="shared" ref="B55" si="60">(ROW()-10)/2+0.5</f>
+        <v>23</v>
+      </c>
+      <c r="C55" s="91"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="99"/>
+      <c r="M55" s="101"/>
+      <c r="N55" s="103"/>
+      <c r="O55" s="105"/>
+      <c r="P55" s="107"/>
+      <c r="Q55" s="105"/>
+      <c r="R55" s="107"/>
+      <c r="S55" s="85"/>
+      <c r="T55" s="85"/>
+      <c r="U55" s="85"/>
+      <c r="V55" s="85"/>
+      <c r="W55" s="85"/>
+      <c r="X55" s="85"/>
+      <c r="Y55" s="85"/>
+      <c r="Z55" s="85"/>
+      <c r="AA55" s="85"/>
+      <c r="AB55" s="85"/>
+      <c r="AC55" s="85"/>
+      <c r="AD55" s="85"/>
+      <c r="AE55" s="85"/>
+      <c r="AF55" s="85"/>
+      <c r="AG55" s="85"/>
+      <c r="AH55" s="111"/>
+    </row>
+    <row r="56" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B56" s="90"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="102"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="106"/>
+      <c r="P56" s="108"/>
+      <c r="Q56" s="106"/>
+      <c r="R56" s="108"/>
+      <c r="S56" s="86"/>
+      <c r="T56" s="86"/>
+      <c r="U56" s="86"/>
+      <c r="V56" s="86"/>
+      <c r="W56" s="86"/>
+      <c r="X56" s="86"/>
+      <c r="Y56" s="86"/>
+      <c r="Z56" s="86"/>
+      <c r="AA56" s="86"/>
+      <c r="AB56" s="86"/>
+      <c r="AC56" s="86"/>
+      <c r="AD56" s="86"/>
+      <c r="AE56" s="86"/>
+      <c r="AF56" s="86"/>
+      <c r="AG56" s="86"/>
+      <c r="AH56" s="111"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A10:AJ10">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <dataConsolidate/>
-  <mergeCells count="307">
+  <mergeCells count="433">
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="AH53:AH54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="AH51:AH52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="AH49:AH50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="AH47:AH48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="AH45:AH46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
@@ -5293,16 +6629,6 @@
     <mergeCell ref="AH17:AH18"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="L19:L20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
@@ -5313,7 +6639,6 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
@@ -5325,25 +6650,31 @@
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="AH55:AH56"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="P21:P22"/>
@@ -5354,8 +6685,8 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="R23:R24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="G23:G24"/>
     <mergeCell ref="O25:O26"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="J23:J24"/>
@@ -5371,6 +6702,9 @@
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="AH25:AH26"/>
     <mergeCell ref="R13:R14"/>
     <mergeCell ref="AH13:AH14"/>
@@ -5417,6 +6751,8 @@
     <mergeCell ref="P19:P20"/>
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="R17:R18"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -5429,300 +6765,564 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="S8:X8">
-    <cfRule type="expression" dxfId="77" priority="50957" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="51038" stopIfTrue="1">
       <formula>IF(TEXT(S$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="50958" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="51039" stopIfTrue="1">
       <formula>OR(IF(TEXT(S$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:AG10">
-    <cfRule type="expression" dxfId="75" priority="50959" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="51040" stopIfTrue="1">
       <formula>IF(S$9=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="50960" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="51041" stopIfTrue="1">
       <formula>IF(WEEKDAY(S$9)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="50961" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="51042" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S16:X20 S42:X42 S24:X24 S22:X22 S26:X26 S12:X14">
-    <cfRule type="expression" dxfId="72" priority="65470" stopIfTrue="1">
+  <conditionalFormatting sqref="S16:X20 S56:X56 S24:X24 S22:X22 S26:X26 S12:X14">
+    <cfRule type="expression" dxfId="144" priority="65551" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="65471" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="65552" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=S$9,S$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="65472" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="65553" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=S$9,S$9&lt;=$L11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:R26 B41:R42">
-    <cfRule type="expression" dxfId="69" priority="65488" stopIfTrue="1">
+  <conditionalFormatting sqref="B55:R56 B11:R26">
+    <cfRule type="expression" dxfId="141" priority="65569" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;"",$L11&lt;&gt;"",$M11=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="65489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="65570" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$J11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="65490" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="65571" stopIfTrue="1">
       <formula>IF(OR(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;"",$M11&lt;100),AND($I11&lt;&gt;"",$J11&lt;&gt;"",TODAY()&gt;=$I11)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S41:X41 S25:X25 S21:X21 S23:X23">
-    <cfRule type="expression" dxfId="66" priority="65665" stopIfTrue="1">
+  <conditionalFormatting sqref="S55:X55 S25:X25 S21:X21 S23:X23">
+    <cfRule type="expression" dxfId="138" priority="65746" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="65666" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="65747" stopIfTrue="1">
       <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"", $I21&lt;=S$9,S$9&lt;=$J21),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="65667" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="65748" stopIfTrue="1">
       <formula>IF(AND($B21="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:X15">
-    <cfRule type="expression" dxfId="63" priority="65677" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="65758" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="65678" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="65759" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=S$9,S$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="65679" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="65760" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=S$9,S$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:X11">
-    <cfRule type="expression" dxfId="60" priority="65719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="65800" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="65720" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="65801" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=S$9,S$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="65721" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="65802" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:X34 S38:X38 S36:X36 S40:X40 S27:X28">
-    <cfRule type="expression" dxfId="57" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="143" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="144" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"", $I27&lt;=S$9,S$9&lt;=$J27),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="145" stopIfTrue="1">
       <formula>IF(AND($B27="", $K26&lt;&gt;"",$K26&lt;=S$9,S$9&lt;=$L26),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:R40">
-    <cfRule type="expression" dxfId="54" priority="59" stopIfTrue="1">
+  <conditionalFormatting sqref="B27:G40 I27:R40">
+    <cfRule type="expression" dxfId="126" priority="140" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="141" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="142" stopIfTrue="1">
       <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S39:X39 S35:X35 S37:X37">
-    <cfRule type="expression" dxfId="51" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="137" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="138" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"", $I35&lt;=S$9,S$9&lt;=$J35),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="139" stopIfTrue="1">
       <formula>IF(AND($B35="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:X29">
-    <cfRule type="expression" dxfId="48" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="134" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="135" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"", $I29&lt;=S$9,S$9&lt;=$J29),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="136" stopIfTrue="1">
       <formula>IF(AND($B29="", $K24&lt;&gt;"",$K24&lt;=S$9,S$9&lt;=$L24),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AD8">
-    <cfRule type="expression" dxfId="45" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="132" stopIfTrue="1">
       <formula>IF(TEXT(Y$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="133" stopIfTrue="1">
       <formula>OR(IF(TEXT(Y$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:AD20 Y42:AD42 Y24:AD24 Y22:AD22 Y26:AD26 Y12:AD14">
-    <cfRule type="expression" dxfId="43" priority="45" stopIfTrue="1">
+  <conditionalFormatting sqref="Y16:AD20 Y56:AD56 Y24:AD24 Y22:AD22 Y26:AD26 Y12:AD14">
+    <cfRule type="expression" dxfId="115" priority="126" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="127" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=Y$9,Y$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="128" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=Y$9,Y$9&lt;=$L11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y41:AD41 Y25:AD25 Y21:AD21 Y23:AD23">
-    <cfRule type="expression" dxfId="40" priority="42" stopIfTrue="1">
+  <conditionalFormatting sqref="Y55:AD55 Y25:AD25 Y21:AD21 Y23:AD23">
+    <cfRule type="expression" dxfId="112" priority="123" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="124" stopIfTrue="1">
       <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"", $I21&lt;=Y$9,Y$9&lt;=$J21),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="125" stopIfTrue="1">
       <formula>IF(AND($B21="", #REF!&lt;&gt;"",#REF!&lt;=Y$9,Y$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:AD15">
-    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="120" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="121" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=Y$9,Y$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="122" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=Y$9,Y$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:AD11">
-    <cfRule type="expression" dxfId="34" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="117" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="118" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=Y$9,Y$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="119" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=Y$9,Y$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30:AD34 Y38:AD38 Y36:AD36 Y40:AD40 Y27:AD28">
-    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="114" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="115" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"", $I27&lt;=Y$9,Y$9&lt;=$J27),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="116" stopIfTrue="1">
       <formula>IF(AND($B27="", $K26&lt;&gt;"",$K26&lt;=Y$9,Y$9&lt;=$L26),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AD39 Y35:AD35 Y37:AD37">
-    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="111" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="112" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"", $I35&lt;=Y$9,Y$9&lt;=$J35),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="113" stopIfTrue="1">
       <formula>IF(AND($B35="", #REF!&lt;&gt;"",#REF!&lt;=Y$9,Y$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y29:AD29">
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="108" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="109" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"", $I29&lt;=Y$9,Y$9&lt;=$J29),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="110" stopIfTrue="1">
       <formula>IF(AND($B29="", $K24&lt;&gt;"",$K24&lt;=Y$9,Y$9&lt;=$L24),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AG8">
-    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="103" stopIfTrue="1">
       <formula>IF(TEXT(AE$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="104" stopIfTrue="1">
       <formula>OR(IF(TEXT(AE$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16:AG20 AE42:AG42 AE24:AG24 AE22:AG22 AE26:AG26 AE12:AG14">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="AE16:AG20 AE56:AG56 AE24:AG24 AE22:AG22 AE26:AG26 AE12:AG14">
+    <cfRule type="expression" dxfId="92" priority="100" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="101" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=AE$9,AE$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="102" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=AE$9,AE$9&lt;=$L11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE41:AG41 AE25:AG25 AE21:AG21 AE23:AG23">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="AE55:AG55 AE25:AG25 AE21:AG21 AE23:AG23">
+    <cfRule type="expression" dxfId="89" priority="97" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="98" stopIfTrue="1">
       <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"", $I21&lt;=AE$9,AE$9&lt;=$J21),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="99" stopIfTrue="1">
       <formula>IF(AND($B21="", #REF!&lt;&gt;"",#REF!&lt;=AE$9,AE$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15:AG15">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="94" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="95" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=AE$9,AE$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="96" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=AE$9,AE$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AG11">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="91" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="92" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=AE$9,AE$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="93" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=AE$9,AE$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE30:AG34 AE38:AG38 AE36:AG36 AE40:AG40 AE27:AG28">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="88" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="89" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"", $I27&lt;=AE$9,AE$9&lt;=$J27),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="90" stopIfTrue="1">
       <formula>IF(AND($B27="", $K26&lt;&gt;"",$K26&lt;=AE$9,AE$9&lt;=$L26),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE39:AG39 AE35:AG35 AE37:AG37">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="85" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="86" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"", $I35&lt;=AE$9,AE$9&lt;=$J35),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="87" stopIfTrue="1">
       <formula>IF(AND($B35="", #REF!&lt;&gt;"",#REF!&lt;=AE$9,AE$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE29:AG29">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="82" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="83" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"", $I29&lt;=AE$9,AE$9&lt;=$J29),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="84" stopIfTrue="1">
       <formula>IF(AND($B29="", $K24&lt;&gt;"",$K24&lt;=AE$9,AE$9&lt;=$L24),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H36">
+    <cfRule type="expression" dxfId="71" priority="55" stopIfTrue="1">
+      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="56" stopIfTrue="1">
+      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="57" stopIfTrue="1">
+      <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H30">
+    <cfRule type="expression" dxfId="68" priority="76" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="77" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="78" stopIfTrue="1">
+      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H28">
+    <cfRule type="expression" dxfId="65" priority="73" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="74" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="75" stopIfTrue="1">
+      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="expression" dxfId="62" priority="70" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="71" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="72" stopIfTrue="1">
+      <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:H34">
+    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="65" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="66" stopIfTrue="1">
+      <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H40">
+    <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
+      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
+      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
+      <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:H38">
+    <cfRule type="expression" dxfId="53" priority="58" stopIfTrue="1">
+      <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$L37&lt;&gt;"",$M37=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="59" stopIfTrue="1">
+      <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$J37&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="60" stopIfTrue="1">
+      <formula>IF(OR(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$M37&lt;100),AND($I37&lt;&gt;"",$J37&lt;&gt;"",TODAY()&gt;=$I37)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44:X48 S52:X52 S50:X50 S54:X54 S41:X42">
+    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"", $I41&lt;=S$9,S$9&lt;=$J41),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
+      <formula>IF(AND($B41="", $K40&lt;&gt;"",$K40&lt;=S$9,S$9&lt;=$L40),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:G54 I41:R54">
+    <cfRule type="expression" dxfId="47" priority="46" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="48" stopIfTrue="1">
+      <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S53:X53 S49:X49 S51:X51">
+    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"", $I49&lt;=S$9,S$9&lt;=$J49),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+      <formula>IF(AND($B49="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43:X43">
+    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"", $I43&lt;=S$9,S$9&lt;=$J43),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
+      <formula>IF(AND($B43="", $K38&lt;&gt;"",$K38&lt;=S$9,S$9&lt;=$L38),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y44:AD48 Y52:AD52 Y50:AD50 Y54:AD54 Y41:AD42">
+    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"", $I41&lt;=Y$9,Y$9&lt;=$J41),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+      <formula>IF(AND($B41="", $K40&lt;&gt;"",$K40&lt;=Y$9,Y$9&lt;=$L40),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y53:AD53 Y49:AD49 Y51:AD51">
+    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"", $I49&lt;=Y$9,Y$9&lt;=$J49),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+      <formula>IF(AND($B49="", #REF!&lt;&gt;"",#REF!&lt;=Y$9,Y$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y43:AD43">
+    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"", $I43&lt;=Y$9,Y$9&lt;=$J43),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+      <formula>IF(AND($B43="", $K38&lt;&gt;"",$K38&lt;=Y$9,Y$9&lt;=$L38),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE44:AG48 AE52:AG52 AE50:AG50 AE54:AG54 AE41:AG42">
+    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"", $I41&lt;=AE$9,AE$9&lt;=$J41),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+      <formula>IF(AND($B41="", $K40&lt;&gt;"",$K40&lt;=AE$9,AE$9&lt;=$L40),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE53:AG53 AE49:AG49 AE51:AG51">
+    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"", $I49&lt;=AE$9,AE$9&lt;=$J49),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+      <formula>IF(AND($B49="", #REF!&lt;&gt;"",#REF!&lt;=AE$9,AE$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE43:AG43">
+    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"", $I43&lt;=AE$9,AE$9&lt;=$J43),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+      <formula>IF(AND($B43="", $K38&lt;&gt;"",$K38&lt;=AE$9,AE$9&lt;=$L38),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:H50">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:H44">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="21" stopIfTrue="1">
+      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H42">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
+      <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:H46">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+      <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H48">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+      <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:H54">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$L53&lt;&gt;"",$M53=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$J53&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>IF(OR(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$M53&lt;100),AND($I53&lt;&gt;"",$J53&lt;&gt;"",TODAY()&gt;=$I53)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:H52">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 M13:M42">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 M13:M56">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H26 H29:H40">
-      <formula1>"XuanDT2,DuongTD1,TuyenTV1"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H54">
+      <formula1>"XuanDT2,DongDL1,DuongTD1,TuyenTV1,TuanNT22,NamMH,QuyetND2"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/【JAPTOOL】Project Schedule Offshore.xlsx
+++ b/【JAPTOOL】Project Schedule Offshore.xlsx
@@ -19,11 +19,11 @@
     <definedName name="Excel_BuiltIn_Print_Titles">NA()</definedName>
     <definedName name="Holiday" localSheetId="0">Setting!$C$5:$C$104</definedName>
     <definedName name="Holiday">Setting!$C$5:$C$104</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Master-Detail'!$B$1:$AJ$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Master-Detail'!$B$1:$AJ$54</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Master-Detail'!$1:$10</definedName>
     <definedName name="syupo">[1]リスト!$H$2:$H$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>○</t>
     <phoneticPr fontId="3"/>
@@ -270,25 +270,7 @@
     <t>XuanDT2</t>
   </si>
   <si>
-    <t>Layout master</t>
-  </si>
-  <si>
     <t>Review</t>
-  </si>
-  <si>
-    <t>Define requirement</t>
-  </si>
-  <si>
-    <t>Testcase</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Review source code</t>
-  </si>
-  <si>
-    <t>Update</t>
   </si>
   <si>
     <t>PG</t>
@@ -296,9 +278,6 @@
   <si>
     <t>Finish Over
 ★</t>
-  </si>
-  <si>
-    <t>User</t>
   </si>
   <si>
     <t>Layout</t>
@@ -329,6 +308,45 @@
   </si>
   <si>
     <t>Forgot password</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Layout User</t>
+  </si>
+  <si>
+    <t>Home [Chua dang ky]</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Learning group</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Book master</t>
+  </si>
+  <si>
+    <t>Learning group (CRUD)</t>
+  </si>
+  <si>
+    <t>Book detail</t>
+  </si>
+  <si>
+    <t>Upload file</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Layout library page</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1291,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1556,6 +1574,36 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1586,210 +1634,172 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,7 +1867,154 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="150">
+  <dxfs count="435">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2029,6 +2186,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8"/>
         </patternFill>
       </fill>
@@ -2071,6 +2249,342 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8"/>
         </patternFill>
       </fill>
@@ -2092,6 +2606,90 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8"/>
         </patternFill>
       </fill>
@@ -2113,6 +2711,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8"/>
         </patternFill>
       </fill>
@@ -2134,6 +2753,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8"/>
         </patternFill>
       </fill>
@@ -2197,6 +2837,195 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8"/>
         </patternFill>
       </fill>
@@ -2218,153 +3047,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8"/>
         </patternFill>
       </fill>
@@ -2386,63 +3068,210 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2611,90 +3440,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor indexed="41"/>
         </patternFill>
       </fill>
@@ -2773,90 +3518,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8"/>
         </patternFill>
       </fill>
@@ -2978,6 +3639,1350 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3557,13 +5562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ56"/>
+  <dimension ref="A1:AJ54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="14" ySplit="10" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23:J24"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -3571,12 +5576,12 @@
     <col min="1" max="1" width="1.375" style="42" customWidth="1"/>
     <col min="2" max="2" width="4.125" style="42" customWidth="1"/>
     <col min="3" max="3" width="3.25" style="42" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="42" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="42" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="42" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="42" customWidth="1"/>
     <col min="10" max="10" width="10.875" style="42" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="42" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.25" style="42" bestFit="1" customWidth="1"/>
@@ -3599,7 +5604,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="23.25" customHeight="1">
       <c r="B1" s="43" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -3608,10 +5613,10 @@
       <c r="H1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="149" t="s">
+      <c r="I1" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="149"/>
+      <c r="J1" s="128"/>
       <c r="K1" s="46"/>
       <c r="L1" s="47" t="s">
         <v>47</v>
@@ -3619,8 +5624,8 @@
       <c r="M1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
       <c r="P1" s="49"/>
       <c r="Q1" s="50"/>
       <c r="R1" s="50"/>
@@ -3667,7 +5672,7 @@
         <v>37</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
@@ -3702,27 +5707,27 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61">
-        <f ca="1">COUNTIF(N15:N56,"=△") + COUNTIF(N15:N56,"=○") +COUNTIF(N15:N56,"=★") + COUNTIF(N15:N56,"=◇")+ COUNTIF(N15:N56,"=▲")</f>
-        <v>18</v>
+        <f ca="1">COUNTIF(N15:N54,"=△") + COUNTIF(N15:N54,"=○") +COUNTIF(N15:N54,"=★") + COUNTIF(N15:N54,"=◇")+ COUNTIF(N15:N54,"=▲")</f>
+        <v>14</v>
       </c>
       <c r="I3" s="61">
-        <f ca="1">COUNTIF(N15:N56,"=○")</f>
+        <f ca="1">COUNTIF(N15:N54,"=○")</f>
         <v>0</v>
       </c>
       <c r="J3" s="61">
-        <f ca="1">COUNTIF(N15:N56,"=△") + COUNTIF(N15:N56,"=▲")  +  COUNTIF(N15:N56,"=★")</f>
-        <v>1</v>
+        <f ca="1">COUNTIF(N15:N54,"=△") + COUNTIF(N15:N54,"=▲")  +  COUNTIF(N15:N54,"=★")</f>
+        <v>14</v>
       </c>
       <c r="K3" s="61">
-        <f ca="1">COUNTIF(N15:N56,"=◇")</f>
-        <v>17</v>
+        <f ca="1">COUNTIF(N15:N54,"=◇")</f>
+        <v>0</v>
       </c>
       <c r="L3" s="61">
-        <f ca="1">COUNTIF(N15:N56,"=▲")</f>
+        <f ca="1">COUNTIF(N15:N54,"=▲")</f>
         <v>0</v>
       </c>
       <c r="M3" s="61">
-        <f ca="1">COUNTIF(N15:N56,"=★")</f>
+        <f ca="1">COUNTIF(N15:N54,"=★")</f>
         <v>0</v>
       </c>
       <c r="N3" s="50"/>
@@ -3837,19 +5842,19 @@
     </row>
     <row r="7" spans="1:36" ht="18.75" customHeight="1">
       <c r="A7" s="71"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="144" t="s">
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="146"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="71"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -3866,44 +5871,44 @@
     </row>
     <row r="8" spans="1:36" ht="18.75" customHeight="1">
       <c r="A8" s="71"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="143"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="124"/>
       <c r="I8" s="72">
-        <f>MIN(I15:I56)</f>
-        <v>42173</v>
+        <f>MIN(I15:I54)</f>
+        <v>42172</v>
       </c>
       <c r="J8" s="72">
-        <f>MAX(J15:J56)</f>
-        <v>42207</v>
+        <f>MAX(J15:J54)</f>
+        <v>42174</v>
       </c>
       <c r="K8" s="72">
-        <f>IF(MIN(K15:K56)=DATE(1900,1,0),"",MIN(K15:K56))</f>
-        <v>42173</v>
-      </c>
-      <c r="L8" s="72">
-        <f>IF(MAX(L15:L56)=DATE(1900,1,0),"",MAX(L15:L56))</f>
-        <v>42175</v>
+        <f>IF(MIN(K15:K54)=DATE(1900,1,0),"",MIN(K15:K54))</f>
+        <v>42172</v>
+      </c>
+      <c r="L8" s="72" t="str">
+        <f>IF(MAX(L15:L54)=DATE(1900,1,0),"",MAX(L15:L54))</f>
+        <v/>
       </c>
       <c r="M8" s="73"/>
       <c r="N8" s="74" t="str">
         <f>TEXT(T9,"yyyy")</f>
         <v>2015</v>
       </c>
-      <c r="O8" s="130">
-        <f>SUM(P15:P56)</f>
-        <v>1</v>
-      </c>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="130">
-        <f>SUM(R15:R56)</f>
-        <v>1</v>
-      </c>
-      <c r="R8" s="131"/>
+      <c r="O8" s="146">
+        <f>SUM(P15:P54)</f>
+        <v>14</v>
+      </c>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="146">
+        <f>SUM(R15:R54)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="147"/>
       <c r="S8" s="75">
         <v>6</v>
       </c>
@@ -3960,52 +5965,52 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH8" s="116" t="s">
+      <c r="AH8" s="138" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="151" t="s">
+      <c r="F9" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="153" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="123" t="s">
+      <c r="H9" s="136" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="123" t="s">
+      <c r="J9" s="140"/>
+      <c r="K9" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="125"/>
-      <c r="M9" s="126" t="s">
+      <c r="L9" s="141"/>
+      <c r="M9" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="127"/>
-      <c r="O9" s="132" t="s">
+      <c r="N9" s="143"/>
+      <c r="O9" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="134" t="s">
+      <c r="P9" s="149"/>
+      <c r="Q9" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="133"/>
+      <c r="R9" s="149"/>
       <c r="S9" s="77">
         <v>42171</v>
       </c>
@@ -4051,16 +6056,16 @@
       <c r="AG9" s="77">
         <v>42185</v>
       </c>
-      <c r="AH9" s="116"/>
+      <c r="AH9" s="138"/>
     </row>
     <row r="10" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B10" s="122"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="154"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="137"/>
       <c r="I10" s="78" t="s">
         <v>18</v>
       </c>
@@ -4073,8 +6078,8 @@
       <c r="L10" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="128"/>
-      <c r="N10" s="129"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="145"/>
       <c r="O10" s="82" t="s">
         <v>3</v>
       </c>
@@ -4147,42 +6152,42 @@
         <f t="shared" si="2"/>
         <v>42185</v>
       </c>
-      <c r="AH10" s="116"/>
+      <c r="AH10" s="138"/>
     </row>
     <row r="11" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B11" s="89">
-        <f t="shared" ref="B11" si="3">(ROW()-10)/2+0.5</f>
+      <c r="B11" s="98">
+        <f>(ROW()-10)/2+0.5</f>
         <v>1</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="103" t="str">
+      <c r="C11" s="100"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="91" t="str">
         <f ca="1">IF(B11="","",IF(AND(I11="",J11="",K11="",L11=""),"",IF(OR(I11="",J11=""),"?",IF(AND(I11&lt;&gt;"",J11&lt;&gt;"",K11&lt;&gt;"",L11&lt;&gt;"",M11=100),"○",IF(AND(I11&lt;=TODAY(),J11&gt;=TODAY(),K11=""),"▲",  IF(J11&lt;TODAY(),"★",IF(K11&lt;&gt;"","△",IF(AND(I11&lt;&gt;""),"◇",""))))))))</f>
         <v/>
       </c>
-      <c r="O11" s="105" t="str">
+      <c r="O11" s="93" t="str">
         <f>IF(COUNTA(S11:X11)=0,"",SUMPRODUCT(--(ISNUMBER(S11:X11)),S11:X11)+ (COUNTA(S11:X11)-COUNT(S11:X11))*8)</f>
         <v/>
       </c>
-      <c r="P11" s="107" t="str">
-        <f t="shared" ref="P11" si="4">IF(O11="","",ROUND(O11/8,2))</f>
+      <c r="P11" s="95" t="str">
+        <f t="shared" ref="P11" si="3">IF(O11="","",ROUND(O11/8,2))</f>
         <v/>
       </c>
-      <c r="Q11" s="105" t="str">
+      <c r="Q11" s="93" t="str">
         <f>IF(COUNTA(S12:X12)=0,"",SUMPRODUCT(--(ISNUMBER(S12:X12)),S12:X12)+ (COUNTA(S12:X12)-COUNT(S12:X12))*8)</f>
         <v/>
       </c>
-      <c r="R11" s="107" t="str">
-        <f t="shared" ref="R11" si="5">IF(Q11="","",ROUND(Q11/8,2))</f>
+      <c r="R11" s="95" t="str">
+        <f t="shared" ref="R11" si="4">IF(Q11="","",ROUND(Q11/8,2))</f>
         <v/>
       </c>
       <c r="S11" s="85"/>
@@ -4200,26 +6205,26 @@
       <c r="AE11" s="85"/>
       <c r="AF11" s="85"/>
       <c r="AG11" s="85"/>
-      <c r="AH11" s="111"/>
+      <c r="AH11" s="97"/>
     </row>
     <row r="12" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B12" s="90"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="108"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="96"/>
       <c r="S12" s="86"/>
       <c r="T12" s="86"/>
       <c r="U12" s="86"/>
@@ -4235,42 +6240,42 @@
       <c r="AE12" s="86"/>
       <c r="AF12" s="86"/>
       <c r="AG12" s="86"/>
-      <c r="AH12" s="111"/>
+      <c r="AH12" s="97"/>
     </row>
     <row r="13" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B13" s="89">
-        <f t="shared" ref="B13" si="6">(ROW()-10)/2+0.5</f>
+      <c r="B13" s="98">
+        <f t="shared" ref="B13" si="5">(ROW()-10)/2+0.5</f>
         <v>2</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="103" t="str">
+      <c r="C13" s="100"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="91" t="str">
         <f ca="1">IF(B13="","",IF(AND(I13="",J13="",K13="",L13=""),"",IF(OR(I13="",J13=""),"?",IF(AND(I13&lt;&gt;"",J13&lt;&gt;"",K13&lt;&gt;"",L13&lt;&gt;"",M13=100),"○",IF(AND(I13&lt;=TODAY(),J13&gt;=TODAY(),K13=""),"▲",  IF(J13&lt;TODAY(),"★",IF(K13&lt;&gt;"","△",IF(AND(I13&lt;&gt;""),"◇",""))))))))</f>
         <v/>
       </c>
-      <c r="O13" s="105" t="str">
+      <c r="O13" s="93" t="str">
         <f>IF(COUNTA(S13:X13)=0,"",SUMPRODUCT(--(ISNUMBER(S13:X13)),S13:X13)+ (COUNTA(S13:X13)-COUNT(S13:X13))*8)</f>
         <v/>
       </c>
-      <c r="P13" s="107" t="str">
-        <f t="shared" ref="P13" si="7">IF(O13="","",ROUND(O13/8,2))</f>
+      <c r="P13" s="95" t="str">
+        <f t="shared" ref="P13" si="6">IF(O13="","",ROUND(O13/8,2))</f>
         <v/>
       </c>
-      <c r="Q13" s="105" t="str">
+      <c r="Q13" s="93" t="str">
         <f>IF(COUNTA(S14:X14)=0,"",SUMPRODUCT(--(ISNUMBER(S14:X14)),S14:X14)+ (COUNTA(S14:X14)-COUNT(S14:X14))*8)</f>
         <v/>
       </c>
-      <c r="R13" s="107" t="str">
-        <f t="shared" ref="R13" si="8">IF(Q13="","",ROUND(Q13/8,2))</f>
+      <c r="R13" s="95" t="str">
+        <f t="shared" ref="R13" si="7">IF(Q13="","",ROUND(Q13/8,2))</f>
         <v/>
       </c>
       <c r="S13" s="85"/>
@@ -4288,26 +6293,26 @@
       <c r="AE13" s="85"/>
       <c r="AF13" s="85"/>
       <c r="AG13" s="85"/>
-      <c r="AH13" s="111"/>
+      <c r="AH13" s="97"/>
     </row>
     <row r="14" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B14" s="90"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="108"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="96"/>
       <c r="S14" s="86"/>
       <c r="T14" s="86"/>
       <c r="U14" s="86"/>
@@ -4323,66 +6328,64 @@
       <c r="AE14" s="86"/>
       <c r="AF14" s="86"/>
       <c r="AG14" s="86"/>
-      <c r="AH14" s="111"/>
+      <c r="AH14" s="97"/>
     </row>
     <row r="15" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B15" s="147">
+      <c r="B15" s="116">
         <f>(ROW()-10)/2+0.5</f>
         <v>3</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="99">
-        <v>42173</v>
-      </c>
-      <c r="J15" s="99">
-        <v>42175</v>
-      </c>
-      <c r="K15" s="99">
-        <v>42173</v>
-      </c>
-      <c r="L15" s="99">
-        <v>42175</v>
-      </c>
-      <c r="M15" s="101"/>
-      <c r="N15" s="109" t="str">
+      <c r="D15" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="104"/>
+      <c r="H15" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J15" s="108">
+        <v>42174</v>
+      </c>
+      <c r="K15" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L15" s="108"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="110" t="str">
         <f ca="1">IF(B15="","",IF(AND(I15="",J15="",K15="",L15=""),"",IF(OR(I15="",J15=""),"?",IF(AND(I15&lt;&gt;"",J15&lt;&gt;"",K15&lt;&gt;"",L15&lt;&gt;"",M15=100),"○",IF(AND(I15&lt;=TODAY(),J15&gt;=TODAY(),K15=""),"▲",  IF(J15&lt;TODAY(),"★",IF(K15&lt;&gt;"","△",IF(AND(I15&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O15" s="135">
+      <c r="O15" s="112">
         <f>IF(COUNTA(S15:X15)=0,"",SUMPRODUCT(--(ISNUMBER(S15:X15)),S15:X15)+ (COUNTA(S15:X15)-COUNT(S15:X15))*8)</f>
         <v>8</v>
       </c>
-      <c r="P15" s="117">
+      <c r="P15" s="114">
         <f>IF(O15="","",ROUND(O15/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="135">
+      <c r="Q15" s="112" t="str">
         <f>IF(COUNTA(S16:X16)=0,"",SUMPRODUCT(--(ISNUMBER(S16:X16)),S16:X16)+ (COUNTA(S16:X16)-COUNT(S16:X16))*8)</f>
+        <v/>
+      </c>
+      <c r="R15" s="114" t="str">
+        <f t="shared" ref="R15" si="8">IF(Q15="","",ROUND(Q15/8,2))</f>
+        <v/>
+      </c>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85">
         <v>8</v>
       </c>
-      <c r="R15" s="117">
-        <f t="shared" ref="R15" si="9">IF(Q15="","",ROUND(Q15/8,2))</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="85">
-        <v>8</v>
-      </c>
-      <c r="T15" s="85"/>
       <c r="U15" s="85"/>
       <c r="V15" s="85"/>
       <c r="W15" s="85"/>
@@ -4396,29 +6399,27 @@
       <c r="AE15" s="85"/>
       <c r="AF15" s="85"/>
       <c r="AG15" s="85"/>
-      <c r="AH15" s="111"/>
+      <c r="AH15" s="97"/>
     </row>
     <row r="16" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B16" s="148"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="136"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="86">
-        <v>8</v>
-      </c>
+      <c r="B16" s="117"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="86"/>
       <c r="T16" s="86"/>
       <c r="U16" s="86"/>
       <c r="V16" s="86"/>
@@ -4433,54 +6434,60 @@
       <c r="AE16" s="86"/>
       <c r="AF16" s="86"/>
       <c r="AG16" s="86"/>
-      <c r="AH16" s="111"/>
+      <c r="AH16" s="97"/>
     </row>
     <row r="17" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B17" s="89">
-        <f t="shared" ref="B17" si="10">(ROW()-10)/2+0.5</f>
+      <c r="B17" s="98">
+        <f t="shared" ref="B17:B19" si="9">(ROW()-10)/2+0.5</f>
         <v>4</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="99">
-        <v>42176</v>
-      </c>
-      <c r="J17" s="99">
-        <v>42180</v>
-      </c>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="103" t="str">
+      <c r="C17" s="100"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="104"/>
+      <c r="H17" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J17" s="108">
+        <v>42174</v>
+      </c>
+      <c r="K17" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L17" s="108"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="91" t="str">
         <f ca="1">IF(B17="","",IF(AND(I17="",J17="",K17="",L17=""),"",IF(OR(I17="",J17=""),"?",IF(AND(I17&lt;&gt;"",J17&lt;&gt;"",K17&lt;&gt;"",L17&lt;&gt;"",M17=100),"○",IF(AND(I17&lt;=TODAY(),J17&gt;=TODAY(),K17=""),"▲",  IF(J17&lt;TODAY(),"★",IF(K17&lt;&gt;"","△",IF(AND(I17&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O17" s="105" t="str">
+        <v>△</v>
+      </c>
+      <c r="O17" s="93">
         <f>IF(COUNTA(S17:X17)=0,"",SUMPRODUCT(--(ISNUMBER(S17:X17)),S17:X17)+ (COUNTA(S17:X17)-COUNT(S17:X17))*8)</f>
-        <v/>
-      </c>
-      <c r="P17" s="107" t="str">
-        <f t="shared" ref="P17" si="11">IF(O17="","",ROUND(O17/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q17" s="105" t="str">
+        <v>8</v>
+      </c>
+      <c r="P17" s="95">
+        <f t="shared" ref="P17" si="10">IF(O17="","",ROUND(O17/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="93" t="str">
         <f>IF(COUNTA(S18:X18)=0,"",SUMPRODUCT(--(ISNUMBER(S18:X18)),S18:X18)+ (COUNTA(S18:X18)-COUNT(S18:X18))*8)</f>
         <v/>
       </c>
-      <c r="R17" s="107" t="str">
-        <f t="shared" ref="R17" si="12">IF(Q17="","",ROUND(Q17/8,2))</f>
+      <c r="R17" s="95" t="str">
+        <f t="shared" ref="R17" si="11">IF(Q17="","",ROUND(Q17/8,2))</f>
         <v/>
       </c>
       <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
+      <c r="T17" s="85">
+        <v>8</v>
+      </c>
       <c r="U17" s="85"/>
       <c r="V17" s="85"/>
       <c r="W17" s="85"/>
@@ -4494,26 +6501,26 @@
       <c r="AE17" s="85"/>
       <c r="AF17" s="85"/>
       <c r="AG17" s="85"/>
-      <c r="AH17" s="111"/>
+      <c r="AH17" s="97"/>
     </row>
     <row r="18" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B18" s="90"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="108"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="96"/>
       <c r="S18" s="86"/>
       <c r="T18" s="86"/>
       <c r="U18" s="86"/>
@@ -4529,54 +6536,58 @@
       <c r="AE18" s="86"/>
       <c r="AF18" s="86"/>
       <c r="AG18" s="86"/>
-      <c r="AH18" s="111"/>
+      <c r="AH18" s="97"/>
     </row>
     <row r="19" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B19" s="89">
-        <f t="shared" ref="B19" si="13">(ROW()-10)/2+0.5</f>
+      <c r="B19" s="98">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="95"/>
-      <c r="H19" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="99">
-        <v>42181</v>
-      </c>
-      <c r="J19" s="99">
-        <v>42183</v>
-      </c>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="103" t="str">
+      <c r="C19" s="100"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="104"/>
+      <c r="H19" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J19" s="108">
+        <v>42174</v>
+      </c>
+      <c r="K19" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L19" s="108"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="91" t="str">
         <f ca="1">IF(B19="","",IF(AND(I19="",J19="",K19="",L19=""),"",IF(OR(I19="",J19=""),"?",IF(AND(I19&lt;&gt;"",J19&lt;&gt;"",K19&lt;&gt;"",L19&lt;&gt;"",M19=100),"○",IF(AND(I19&lt;=TODAY(),J19&gt;=TODAY(),K19=""),"▲",  IF(J19&lt;TODAY(),"★",IF(K19&lt;&gt;"","△",IF(AND(I19&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O19" s="105" t="str">
+        <v>△</v>
+      </c>
+      <c r="O19" s="93">
         <f>IF(COUNTA(S19:X19)=0,"",SUMPRODUCT(--(ISNUMBER(S19:X19)),S19:X19)+ (COUNTA(S19:X19)-COUNT(S19:X19))*8)</f>
-        <v/>
-      </c>
-      <c r="P19" s="107" t="str">
-        <f t="shared" ref="P19" si="14">IF(O19="","",ROUND(O19/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q19" s="105" t="str">
+        <v>8</v>
+      </c>
+      <c r="P19" s="95">
+        <f t="shared" ref="P19" si="12">IF(O19="","",ROUND(O19/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="93" t="str">
         <f>IF(COUNTA(S20:X20)=0,"",SUMPRODUCT(--(ISNUMBER(S20:X20)),S20:X20)+ (COUNTA(S20:X20)-COUNT(S20:X20))*8)</f>
         <v/>
       </c>
-      <c r="R19" s="107" t="str">
-        <f t="shared" ref="R19" si="15">IF(Q19="","",ROUND(Q19/8,2))</f>
+      <c r="R19" s="95" t="str">
+        <f t="shared" ref="R19" si="13">IF(Q19="","",ROUND(Q19/8,2))</f>
         <v/>
       </c>
       <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
+      <c r="T19" s="85">
+        <v>8</v>
+      </c>
       <c r="U19" s="85"/>
       <c r="V19" s="85"/>
       <c r="W19" s="85"/>
@@ -4590,26 +6601,26 @@
       <c r="AE19" s="85"/>
       <c r="AF19" s="85"/>
       <c r="AG19" s="85"/>
-      <c r="AH19" s="111"/>
+      <c r="AH19" s="97"/>
     </row>
     <row r="20" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B20" s="90"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="108"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="96"/>
       <c r="S20" s="86"/>
       <c r="T20" s="86"/>
       <c r="U20" s="86"/>
@@ -4625,50 +6636,42 @@
       <c r="AE20" s="86"/>
       <c r="AF20" s="86"/>
       <c r="AG20" s="86"/>
-      <c r="AH20" s="111"/>
+      <c r="AH20" s="97"/>
     </row>
     <row r="21" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B21" s="89">
-        <f t="shared" ref="B21:B23" si="16">(ROW()-10)/2+0.5</f>
+      <c r="B21" s="98">
+        <f t="shared" ref="B21" si="14">(ROW()-10)/2+0.5</f>
         <v>6</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="99">
-        <v>42184</v>
-      </c>
-      <c r="J21" s="99">
-        <v>42185</v>
-      </c>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="103" t="str">
+      <c r="C21" s="100"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="91" t="str">
         <f ca="1">IF(B21="","",IF(AND(I21="",J21="",K21="",L21=""),"",IF(OR(I21="",J21=""),"?",IF(AND(I21&lt;&gt;"",J21&lt;&gt;"",K21&lt;&gt;"",L21&lt;&gt;"",M21=100),"○",IF(AND(I21&lt;=TODAY(),J21&gt;=TODAY(),K21=""),"▲",  IF(J21&lt;TODAY(),"★",IF(K21&lt;&gt;"","△",IF(AND(I21&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O21" s="105" t="str">
+        <v/>
+      </c>
+      <c r="O21" s="93" t="str">
         <f>IF(COUNTA(S21:X21)=0,"",SUMPRODUCT(--(ISNUMBER(S21:X21)),S21:X21)+ (COUNTA(S21:X21)-COUNT(S21:X21))*8)</f>
         <v/>
       </c>
-      <c r="P21" s="107" t="str">
-        <f t="shared" ref="P21" si="17">IF(O21="","",ROUND(O21/8,2))</f>
+      <c r="P21" s="95" t="str">
+        <f t="shared" ref="P21" si="15">IF(O21="","",ROUND(O21/8,2))</f>
         <v/>
       </c>
-      <c r="Q21" s="105" t="str">
+      <c r="Q21" s="93" t="str">
         <f>IF(COUNTA(S22:X22)=0,"",SUMPRODUCT(--(ISNUMBER(S22:X22)),S22:X22)+ (COUNTA(S22:X22)-COUNT(S22:X22))*8)</f>
         <v/>
       </c>
-      <c r="R21" s="107" t="str">
-        <f t="shared" ref="R21" si="18">IF(Q21="","",ROUND(Q21/8,2))</f>
+      <c r="R21" s="95" t="str">
+        <f t="shared" ref="R21" si="16">IF(Q21="","",ROUND(Q21/8,2))</f>
         <v/>
       </c>
       <c r="S21" s="85"/>
@@ -4686,26 +6689,26 @@
       <c r="AE21" s="85"/>
       <c r="AF21" s="85"/>
       <c r="AG21" s="85"/>
-      <c r="AH21" s="111"/>
+      <c r="AH21" s="97"/>
     </row>
     <row r="22" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B22" s="90"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="108"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="96"/>
       <c r="S22" s="86"/>
       <c r="T22" s="86"/>
       <c r="U22" s="86"/>
@@ -4721,54 +6724,62 @@
       <c r="AE22" s="86"/>
       <c r="AF22" s="86"/>
       <c r="AG22" s="86"/>
-      <c r="AH22" s="111"/>
+      <c r="AH22" s="97"/>
     </row>
     <row r="23" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B23" s="89">
-        <f t="shared" si="16"/>
+      <c r="B23" s="116">
+        <f>(ROW()-10)/2+0.5</f>
         <v>7</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="95"/>
-      <c r="H23" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="99">
-        <v>42186</v>
-      </c>
-      <c r="J23" s="99">
-        <v>42188</v>
-      </c>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="103" t="str">
+      <c r="C23" s="100"/>
+      <c r="D23" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="104"/>
+      <c r="H23" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J23" s="108">
+        <v>42174</v>
+      </c>
+      <c r="K23" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L23" s="108"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="110" t="str">
         <f ca="1">IF(B23="","",IF(AND(I23="",J23="",K23="",L23=""),"",IF(OR(I23="",J23=""),"?",IF(AND(I23&lt;&gt;"",J23&lt;&gt;"",K23&lt;&gt;"",L23&lt;&gt;"",M23=100),"○",IF(AND(I23&lt;=TODAY(),J23&gt;=TODAY(),K23=""),"▲",  IF(J23&lt;TODAY(),"★",IF(K23&lt;&gt;"","△",IF(AND(I23&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O23" s="105" t="str">
+        <v>△</v>
+      </c>
+      <c r="O23" s="112">
         <f>IF(COUNTA(S23:X23)=0,"",SUMPRODUCT(--(ISNUMBER(S23:X23)),S23:X23)+ (COUNTA(S23:X23)-COUNT(S23:X23))*8)</f>
-        <v/>
-      </c>
-      <c r="P23" s="107" t="str">
-        <f t="shared" ref="P23" si="19">IF(O23="","",ROUND(O23/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q23" s="105" t="str">
+        <v>8</v>
+      </c>
+      <c r="P23" s="114">
+        <f>IF(O23="","",ROUND(O23/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="112" t="str">
         <f>IF(COUNTA(S24:X24)=0,"",SUMPRODUCT(--(ISNUMBER(S24:X24)),S24:X24)+ (COUNTA(S24:X24)-COUNT(S24:X24))*8)</f>
         <v/>
       </c>
-      <c r="R23" s="107" t="str">
-        <f t="shared" ref="R23" si="20">IF(Q23="","",ROUND(Q23/8,2))</f>
+      <c r="R23" s="114" t="str">
+        <f t="shared" ref="R23" si="17">IF(Q23="","",ROUND(Q23/8,2))</f>
         <v/>
       </c>
       <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
+      <c r="T23" s="85">
+        <v>8</v>
+      </c>
       <c r="U23" s="85"/>
       <c r="V23" s="85"/>
       <c r="W23" s="85"/>
@@ -4782,26 +6793,26 @@
       <c r="AE23" s="85"/>
       <c r="AF23" s="85"/>
       <c r="AG23" s="85"/>
-      <c r="AH23" s="111"/>
+      <c r="AH23" s="97"/>
     </row>
     <row r="24" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B24" s="90"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="108"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="115"/>
       <c r="S24" s="86"/>
       <c r="T24" s="86"/>
       <c r="U24" s="86"/>
@@ -4817,54 +6828,60 @@
       <c r="AE24" s="86"/>
       <c r="AF24" s="86"/>
       <c r="AG24" s="86"/>
-      <c r="AH24" s="111"/>
+      <c r="AH24" s="97"/>
     </row>
     <row r="25" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B25" s="89">
-        <f t="shared" ref="B25" si="21">(ROW()-10)/2+0.5</f>
+      <c r="B25" s="98">
+        <f t="shared" ref="B25" si="18">(ROW()-10)/2+0.5</f>
         <v>8</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="95"/>
-      <c r="H25" s="114" t="s">
+      <c r="C25" s="100"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="99">
-        <v>42189</v>
-      </c>
-      <c r="J25" s="99">
-        <v>42190</v>
-      </c>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="103" t="str">
+      <c r="F25" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="104"/>
+      <c r="H25" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J25" s="108">
+        <v>42174</v>
+      </c>
+      <c r="K25" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L25" s="108"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="91" t="str">
         <f ca="1">IF(B25="","",IF(AND(I25="",J25="",K25="",L25=""),"",IF(OR(I25="",J25=""),"?",IF(AND(I25&lt;&gt;"",J25&lt;&gt;"",K25&lt;&gt;"",L25&lt;&gt;"",M25=100),"○",IF(AND(I25&lt;=TODAY(),J25&gt;=TODAY(),K25=""),"▲",  IF(J25&lt;TODAY(),"★",IF(K25&lt;&gt;"","△",IF(AND(I25&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O25" s="105" t="str">
+        <v>△</v>
+      </c>
+      <c r="O25" s="93">
         <f>IF(COUNTA(S25:X25)=0,"",SUMPRODUCT(--(ISNUMBER(S25:X25)),S25:X25)+ (COUNTA(S25:X25)-COUNT(S25:X25))*8)</f>
-        <v/>
-      </c>
-      <c r="P25" s="107" t="str">
-        <f t="shared" ref="P25" si="22">IF(O25="","",ROUND(O25/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q25" s="105" t="str">
+        <v>8</v>
+      </c>
+      <c r="P25" s="95">
+        <f t="shared" ref="P25" si="19">IF(O25="","",ROUND(O25/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="93" t="str">
         <f>IF(COUNTA(S26:X26)=0,"",SUMPRODUCT(--(ISNUMBER(S26:X26)),S26:X26)+ (COUNTA(S26:X26)-COUNT(S26:X26))*8)</f>
         <v/>
       </c>
-      <c r="R25" s="107" t="str">
-        <f t="shared" ref="R25" si="23">IF(Q25="","",ROUND(Q25/8,2))</f>
+      <c r="R25" s="95" t="str">
+        <f t="shared" ref="R25" si="20">IF(Q25="","",ROUND(Q25/8,2))</f>
         <v/>
       </c>
       <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
+      <c r="T25" s="85">
+        <v>8</v>
+      </c>
       <c r="U25" s="85"/>
       <c r="V25" s="85"/>
       <c r="W25" s="85"/>
@@ -4878,26 +6895,26 @@
       <c r="AE25" s="85"/>
       <c r="AF25" s="85"/>
       <c r="AG25" s="85"/>
-      <c r="AH25" s="111"/>
+      <c r="AH25" s="97"/>
     </row>
     <row r="26" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B26" s="90"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="108"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="96"/>
       <c r="S26" s="86"/>
       <c r="T26" s="86"/>
       <c r="U26" s="86"/>
@@ -4913,46 +6930,60 @@
       <c r="AE26" s="86"/>
       <c r="AF26" s="86"/>
       <c r="AG26" s="86"/>
-      <c r="AH26" s="111"/>
+      <c r="AH26" s="97"/>
     </row>
     <row r="27" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B27" s="89">
-        <f t="shared" ref="B27" si="24">(ROW()-10)/2+0.5</f>
+      <c r="B27" s="116">
+        <f>(ROW()-10)/2+0.5</f>
         <v>9</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="103" t="str">
+      <c r="C27" s="100"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="104"/>
+      <c r="H27" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J27" s="108">
+        <v>42174</v>
+      </c>
+      <c r="K27" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L27" s="108"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="110" t="str">
         <f ca="1">IF(B27="","",IF(AND(I27="",J27="",K27="",L27=""),"",IF(OR(I27="",J27=""),"?",IF(AND(I27&lt;&gt;"",J27&lt;&gt;"",K27&lt;&gt;"",L27&lt;&gt;"",M27=100),"○",IF(AND(I27&lt;=TODAY(),J27&gt;=TODAY(),K27=""),"▲",  IF(J27&lt;TODAY(),"★",IF(K27&lt;&gt;"","△",IF(AND(I27&lt;&gt;""),"◇",""))))))))</f>
-        <v/>
-      </c>
-      <c r="O27" s="105" t="str">
+        <v>△</v>
+      </c>
+      <c r="O27" s="112">
         <f>IF(COUNTA(S27:X27)=0,"",SUMPRODUCT(--(ISNUMBER(S27:X27)),S27:X27)+ (COUNTA(S27:X27)-COUNT(S27:X27))*8)</f>
-        <v/>
-      </c>
-      <c r="P27" s="107" t="str">
-        <f t="shared" ref="P27" si="25">IF(O27="","",ROUND(O27/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q27" s="105" t="str">
+        <v>8</v>
+      </c>
+      <c r="P27" s="114">
+        <f>IF(O27="","",ROUND(O27/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="112" t="str">
         <f>IF(COUNTA(S28:X28)=0,"",SUMPRODUCT(--(ISNUMBER(S28:X28)),S28:X28)+ (COUNTA(S28:X28)-COUNT(S28:X28))*8)</f>
         <v/>
       </c>
-      <c r="R27" s="107" t="str">
-        <f t="shared" ref="R27" si="26">IF(Q27="","",ROUND(Q27/8,2))</f>
+      <c r="R27" s="114" t="str">
+        <f t="shared" ref="R27" si="21">IF(Q27="","",ROUND(Q27/8,2))</f>
         <v/>
       </c>
       <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
+      <c r="T27" s="85">
+        <v>8</v>
+      </c>
       <c r="U27" s="85"/>
       <c r="V27" s="85"/>
       <c r="W27" s="85"/>
@@ -4966,26 +6997,26 @@
       <c r="AE27" s="85"/>
       <c r="AF27" s="85"/>
       <c r="AG27" s="85"/>
-      <c r="AH27" s="111"/>
+      <c r="AH27" s="97"/>
     </row>
     <row r="28" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B28" s="90"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="108"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="115"/>
       <c r="S28" s="86"/>
       <c r="T28" s="86"/>
       <c r="U28" s="86"/>
@@ -5001,58 +7032,60 @@
       <c r="AE28" s="86"/>
       <c r="AF28" s="86"/>
       <c r="AG28" s="86"/>
-      <c r="AH28" s="111"/>
+      <c r="AH28" s="97"/>
     </row>
     <row r="29" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B29" s="147">
-        <f>(ROW()-10)/2+0.5</f>
+      <c r="B29" s="98">
+        <f t="shared" ref="B29" si="22">(ROW()-10)/2+0.5</f>
         <v>10</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="93" t="s">
+      <c r="C29" s="100"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="104"/>
+      <c r="H29" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="95"/>
-      <c r="H29" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="99">
-        <v>42191</v>
-      </c>
-      <c r="J29" s="99">
-        <v>42192</v>
-      </c>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="109" t="str">
+      <c r="I29" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J29" s="108">
+        <v>42174</v>
+      </c>
+      <c r="K29" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L29" s="108"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="91" t="str">
         <f ca="1">IF(B29="","",IF(AND(I29="",J29="",K29="",L29=""),"",IF(OR(I29="",J29=""),"?",IF(AND(I29&lt;&gt;"",J29&lt;&gt;"",K29&lt;&gt;"",L29&lt;&gt;"",M29=100),"○",IF(AND(I29&lt;=TODAY(),J29&gt;=TODAY(),K29=""),"▲",  IF(J29&lt;TODAY(),"★",IF(K29&lt;&gt;"","△",IF(AND(I29&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O29" s="135" t="str">
+        <v>△</v>
+      </c>
+      <c r="O29" s="93">
         <f>IF(COUNTA(S29:X29)=0,"",SUMPRODUCT(--(ISNUMBER(S29:X29)),S29:X29)+ (COUNTA(S29:X29)-COUNT(S29:X29))*8)</f>
-        <v/>
-      </c>
-      <c r="P29" s="117" t="str">
-        <f>IF(O29="","",ROUND(O29/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q29" s="135" t="str">
+        <v>8</v>
+      </c>
+      <c r="P29" s="95">
+        <f t="shared" ref="P29" si="23">IF(O29="","",ROUND(O29/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="93" t="str">
         <f>IF(COUNTA(S30:X30)=0,"",SUMPRODUCT(--(ISNUMBER(S30:X30)),S30:X30)+ (COUNTA(S30:X30)-COUNT(S30:X30))*8)</f>
         <v/>
       </c>
-      <c r="R29" s="117" t="str">
-        <f t="shared" ref="R29" si="27">IF(Q29="","",ROUND(Q29/8,2))</f>
+      <c r="R29" s="95" t="str">
+        <f t="shared" ref="R29" si="24">IF(Q29="","",ROUND(Q29/8,2))</f>
         <v/>
       </c>
       <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
+      <c r="T29" s="85">
+        <v>8</v>
+      </c>
       <c r="U29" s="85"/>
       <c r="V29" s="85"/>
       <c r="W29" s="85"/>
@@ -5066,26 +7099,26 @@
       <c r="AE29" s="85"/>
       <c r="AF29" s="85"/>
       <c r="AG29" s="85"/>
-      <c r="AH29" s="111"/>
+      <c r="AH29" s="97"/>
     </row>
     <row r="30" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B30" s="148"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="118"/>
-      <c r="Q30" s="136"/>
-      <c r="R30" s="118"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="96"/>
       <c r="S30" s="86"/>
       <c r="T30" s="86"/>
       <c r="U30" s="86"/>
@@ -5101,52 +7134,29 @@
       <c r="AE30" s="86"/>
       <c r="AF30" s="86"/>
       <c r="AG30" s="86"/>
-      <c r="AH30" s="111"/>
+      <c r="AH30" s="97"/>
     </row>
     <row r="31" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B31" s="89">
-        <f t="shared" ref="B31" si="28">(ROW()-10)/2+0.5</f>
+      <c r="B31" s="98">
+        <f>(ROW()-10)/2+0.5</f>
         <v>11</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="95"/>
-      <c r="H31" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="99">
-        <v>42193</v>
-      </c>
-      <c r="J31" s="99">
-        <v>42195</v>
-      </c>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="103" t="str">
-        <f ca="1">IF(B31="","",IF(AND(I31="",J31="",K31="",L31=""),"",IF(OR(I31="",J31=""),"?",IF(AND(I31&lt;&gt;"",J31&lt;&gt;"",K31&lt;&gt;"",L31&lt;&gt;"",M31=100),"○",IF(AND(I31&lt;=TODAY(),J31&gt;=TODAY(),K31=""),"▲",  IF(J31&lt;TODAY(),"★",IF(K31&lt;&gt;"","△",IF(AND(I31&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O31" s="105" t="str">
-        <f>IF(COUNTA(S31:X31)=0,"",SUMPRODUCT(--(ISNUMBER(S31:X31)),S31:X31)+ (COUNTA(S31:X31)-COUNT(S31:X31))*8)</f>
-        <v/>
-      </c>
-      <c r="P31" s="107" t="str">
-        <f t="shared" ref="P31" si="29">IF(O31="","",ROUND(O31/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q31" s="105" t="str">
-        <f>IF(COUNTA(S32:X32)=0,"",SUMPRODUCT(--(ISNUMBER(S32:X32)),S32:X32)+ (COUNTA(S32:X32)-COUNT(S32:X32))*8)</f>
-        <v/>
-      </c>
-      <c r="R31" s="107" t="str">
-        <f t="shared" ref="R31" si="30">IF(Q31="","",ROUND(Q31/8,2))</f>
-        <v/>
-      </c>
+      <c r="C31" s="100"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="95"/>
       <c r="S31" s="85"/>
       <c r="T31" s="85"/>
       <c r="U31" s="85"/>
@@ -5162,26 +7172,26 @@
       <c r="AE31" s="85"/>
       <c r="AF31" s="85"/>
       <c r="AG31" s="85"/>
-      <c r="AH31" s="111"/>
+      <c r="AH31" s="97"/>
     </row>
     <row r="32" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B32" s="90"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="108"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="96"/>
       <c r="S32" s="86"/>
       <c r="T32" s="86"/>
       <c r="U32" s="86"/>
@@ -5197,54 +7207,62 @@
       <c r="AE32" s="86"/>
       <c r="AF32" s="86"/>
       <c r="AG32" s="86"/>
-      <c r="AH32" s="111"/>
+      <c r="AH32" s="97"/>
     </row>
     <row r="33" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B33" s="89">
-        <f t="shared" ref="B33" si="31">(ROW()-10)/2+0.5</f>
+      <c r="B33" s="116">
+        <f>(ROW()-10)/2+0.5</f>
         <v>12</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="95"/>
-      <c r="H33" s="114" t="s">
+      <c r="C33" s="100"/>
+      <c r="D33" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="I33" s="99">
-        <v>42195</v>
-      </c>
-      <c r="J33" s="99">
-        <v>42198</v>
-      </c>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="103" t="str">
+      <c r="F33" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="104"/>
+      <c r="H33" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J33" s="108">
+        <v>42174</v>
+      </c>
+      <c r="K33" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L33" s="108"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="110" t="str">
         <f ca="1">IF(B33="","",IF(AND(I33="",J33="",K33="",L33=""),"",IF(OR(I33="",J33=""),"?",IF(AND(I33&lt;&gt;"",J33&lt;&gt;"",K33&lt;&gt;"",L33&lt;&gt;"",M33=100),"○",IF(AND(I33&lt;=TODAY(),J33&gt;=TODAY(),K33=""),"▲",  IF(J33&lt;TODAY(),"★",IF(K33&lt;&gt;"","△",IF(AND(I33&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O33" s="105" t="str">
+        <v>△</v>
+      </c>
+      <c r="O33" s="112">
         <f>IF(COUNTA(S33:X33)=0,"",SUMPRODUCT(--(ISNUMBER(S33:X33)),S33:X33)+ (COUNTA(S33:X33)-COUNT(S33:X33))*8)</f>
-        <v/>
-      </c>
-      <c r="P33" s="107" t="str">
-        <f t="shared" ref="P33" si="32">IF(O33="","",ROUND(O33/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q33" s="105" t="str">
+        <v>8</v>
+      </c>
+      <c r="P33" s="114">
+        <f>IF(O33="","",ROUND(O33/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="112" t="str">
         <f>IF(COUNTA(S34:X34)=0,"",SUMPRODUCT(--(ISNUMBER(S34:X34)),S34:X34)+ (COUNTA(S34:X34)-COUNT(S34:X34))*8)</f>
         <v/>
       </c>
-      <c r="R33" s="107" t="str">
-        <f t="shared" ref="R33" si="33">IF(Q33="","",ROUND(Q33/8,2))</f>
+      <c r="R33" s="114" t="str">
+        <f t="shared" ref="R33" si="25">IF(Q33="","",ROUND(Q33/8,2))</f>
         <v/>
       </c>
       <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
+      <c r="T33" s="85">
+        <v>8</v>
+      </c>
       <c r="U33" s="85"/>
       <c r="V33" s="85"/>
       <c r="W33" s="85"/>
@@ -5258,26 +7276,26 @@
       <c r="AE33" s="85"/>
       <c r="AF33" s="85"/>
       <c r="AG33" s="85"/>
-      <c r="AH33" s="111"/>
+      <c r="AH33" s="97"/>
     </row>
     <row r="34" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B34" s="90"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="106"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="108"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="115"/>
       <c r="S34" s="86"/>
       <c r="T34" s="86"/>
       <c r="U34" s="86"/>
@@ -5293,54 +7311,60 @@
       <c r="AE34" s="86"/>
       <c r="AF34" s="86"/>
       <c r="AG34" s="86"/>
-      <c r="AH34" s="111"/>
+      <c r="AH34" s="97"/>
     </row>
     <row r="35" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B35" s="89">
-        <f t="shared" ref="B35:B37" si="34">(ROW()-10)/2+0.5</f>
+      <c r="B35" s="98">
+        <f t="shared" ref="B35" si="26">(ROW()-10)/2+0.5</f>
         <v>13</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="95"/>
-      <c r="H35" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="99">
-        <v>42199</v>
-      </c>
-      <c r="J35" s="99">
-        <v>42200</v>
-      </c>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="103" t="str">
+      <c r="C35" s="100"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="104"/>
+      <c r="H35" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J35" s="108">
+        <v>42174</v>
+      </c>
+      <c r="K35" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L35" s="108"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="91" t="str">
         <f ca="1">IF(B35="","",IF(AND(I35="",J35="",K35="",L35=""),"",IF(OR(I35="",J35=""),"?",IF(AND(I35&lt;&gt;"",J35&lt;&gt;"",K35&lt;&gt;"",L35&lt;&gt;"",M35=100),"○",IF(AND(I35&lt;=TODAY(),J35&gt;=TODAY(),K35=""),"▲",  IF(J35&lt;TODAY(),"★",IF(K35&lt;&gt;"","△",IF(AND(I35&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O35" s="105" t="str">
+        <v>△</v>
+      </c>
+      <c r="O35" s="93">
         <f>IF(COUNTA(S35:X35)=0,"",SUMPRODUCT(--(ISNUMBER(S35:X35)),S35:X35)+ (COUNTA(S35:X35)-COUNT(S35:X35))*8)</f>
-        <v/>
-      </c>
-      <c r="P35" s="107" t="str">
-        <f t="shared" ref="P35" si="35">IF(O35="","",ROUND(O35/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q35" s="105" t="str">
+        <v>8</v>
+      </c>
+      <c r="P35" s="95">
+        <f t="shared" ref="P35" si="27">IF(O35="","",ROUND(O35/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="93" t="str">
         <f>IF(COUNTA(S36:X36)=0,"",SUMPRODUCT(--(ISNUMBER(S36:X36)),S36:X36)+ (COUNTA(S36:X36)-COUNT(S36:X36))*8)</f>
         <v/>
       </c>
-      <c r="R35" s="107" t="str">
-        <f t="shared" ref="R35" si="36">IF(Q35="","",ROUND(Q35/8,2))</f>
+      <c r="R35" s="95" t="str">
+        <f t="shared" ref="R35" si="28">IF(Q35="","",ROUND(Q35/8,2))</f>
         <v/>
       </c>
       <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
+      <c r="T35" s="85">
+        <v>8</v>
+      </c>
       <c r="U35" s="85"/>
       <c r="V35" s="85"/>
       <c r="W35" s="85"/>
@@ -5354,26 +7378,26 @@
       <c r="AE35" s="85"/>
       <c r="AF35" s="85"/>
       <c r="AG35" s="85"/>
-      <c r="AH35" s="111"/>
+      <c r="AH35" s="97"/>
     </row>
     <row r="36" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B36" s="90"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="108"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="96"/>
       <c r="S36" s="86"/>
       <c r="T36" s="86"/>
       <c r="U36" s="86"/>
@@ -5389,52 +7413,29 @@
       <c r="AE36" s="86"/>
       <c r="AF36" s="86"/>
       <c r="AG36" s="86"/>
-      <c r="AH36" s="111"/>
+      <c r="AH36" s="97"/>
     </row>
     <row r="37" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B37" s="89">
-        <f t="shared" si="34"/>
+      <c r="B37" s="98">
+        <f>(ROW()-10)/2+0.5</f>
         <v>14</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="95"/>
-      <c r="H37" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="I37" s="99">
-        <v>42201</v>
-      </c>
-      <c r="J37" s="99">
-        <v>42205</v>
-      </c>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="103" t="str">
-        <f ca="1">IF(B37="","",IF(AND(I37="",J37="",K37="",L37=""),"",IF(OR(I37="",J37=""),"?",IF(AND(I37&lt;&gt;"",J37&lt;&gt;"",K37&lt;&gt;"",L37&lt;&gt;"",M37=100),"○",IF(AND(I37&lt;=TODAY(),J37&gt;=TODAY(),K37=""),"▲",  IF(J37&lt;TODAY(),"★",IF(K37&lt;&gt;"","△",IF(AND(I37&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O37" s="105" t="str">
-        <f>IF(COUNTA(S37:X37)=0,"",SUMPRODUCT(--(ISNUMBER(S37:X37)),S37:X37)+ (COUNTA(S37:X37)-COUNT(S37:X37))*8)</f>
-        <v/>
-      </c>
-      <c r="P37" s="107" t="str">
-        <f t="shared" ref="P37" si="37">IF(O37="","",ROUND(O37/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q37" s="105" t="str">
-        <f>IF(COUNTA(S38:X38)=0,"",SUMPRODUCT(--(ISNUMBER(S38:X38)),S38:X38)+ (COUNTA(S38:X38)-COUNT(S38:X38))*8)</f>
-        <v/>
-      </c>
-      <c r="R37" s="107" t="str">
-        <f t="shared" ref="R37" si="38">IF(Q37="","",ROUND(Q37/8,2))</f>
-        <v/>
-      </c>
+      <c r="C37" s="100"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="95"/>
       <c r="S37" s="85"/>
       <c r="T37" s="85"/>
       <c r="U37" s="85"/>
@@ -5450,26 +7451,26 @@
       <c r="AE37" s="85"/>
       <c r="AF37" s="85"/>
       <c r="AG37" s="85"/>
-      <c r="AH37" s="111"/>
+      <c r="AH37" s="97"/>
     </row>
     <row r="38" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B38" s="90"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="106"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="108"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="96"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="96"/>
       <c r="S38" s="86"/>
       <c r="T38" s="86"/>
       <c r="U38" s="86"/>
@@ -5485,54 +7486,62 @@
       <c r="AE38" s="86"/>
       <c r="AF38" s="86"/>
       <c r="AG38" s="86"/>
-      <c r="AH38" s="111"/>
+      <c r="AH38" s="97"/>
     </row>
     <row r="39" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B39" s="89">
-        <f t="shared" ref="B39" si="39">(ROW()-10)/2+0.5</f>
+      <c r="B39" s="98">
+        <f t="shared" ref="B39:B41" si="29">(ROW()-10)/2+0.5</f>
         <v>15</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="95"/>
-      <c r="H39" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="I39" s="99">
-        <v>42206</v>
-      </c>
-      <c r="J39" s="99">
-        <v>42207</v>
-      </c>
-      <c r="K39" s="112"/>
-      <c r="L39" s="112"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="103" t="str">
+      <c r="C39" s="100"/>
+      <c r="D39" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="104"/>
+      <c r="H39" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J39" s="108">
+        <v>42173</v>
+      </c>
+      <c r="K39" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L39" s="108"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="91" t="str">
         <f ca="1">IF(B39="","",IF(AND(I39="",J39="",K39="",L39=""),"",IF(OR(I39="",J39=""),"?",IF(AND(I39&lt;&gt;"",J39&lt;&gt;"",K39&lt;&gt;"",L39&lt;&gt;"",M39=100),"○",IF(AND(I39&lt;=TODAY(),J39&gt;=TODAY(),K39=""),"▲",  IF(J39&lt;TODAY(),"★",IF(K39&lt;&gt;"","△",IF(AND(I39&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O39" s="105" t="str">
+        <v>△</v>
+      </c>
+      <c r="O39" s="93">
         <f>IF(COUNTA(S39:X39)=0,"",SUMPRODUCT(--(ISNUMBER(S39:X39)),S39:X39)+ (COUNTA(S39:X39)-COUNT(S39:X39))*8)</f>
-        <v/>
-      </c>
-      <c r="P39" s="107" t="str">
-        <f t="shared" ref="P39" si="40">IF(O39="","",ROUND(O39/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q39" s="105" t="str">
+        <v>8</v>
+      </c>
+      <c r="P39" s="95">
+        <f t="shared" ref="P39" si="30">IF(O39="","",ROUND(O39/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="93" t="str">
         <f>IF(COUNTA(S40:X40)=0,"",SUMPRODUCT(--(ISNUMBER(S40:X40)),S40:X40)+ (COUNTA(S40:X40)-COUNT(S40:X40))*8)</f>
         <v/>
       </c>
-      <c r="R39" s="107" t="str">
-        <f t="shared" ref="R39" si="41">IF(Q39="","",ROUND(Q39/8,2))</f>
+      <c r="R39" s="95" t="str">
+        <f t="shared" ref="R39" si="31">IF(Q39="","",ROUND(Q39/8,2))</f>
         <v/>
       </c>
       <c r="S39" s="85"/>
-      <c r="T39" s="85"/>
+      <c r="T39" s="85">
+        <v>8</v>
+      </c>
       <c r="U39" s="85"/>
       <c r="V39" s="85"/>
       <c r="W39" s="85"/>
@@ -5546,26 +7555,26 @@
       <c r="AE39" s="85"/>
       <c r="AF39" s="85"/>
       <c r="AG39" s="85"/>
-      <c r="AH39" s="111"/>
+      <c r="AH39" s="97"/>
     </row>
     <row r="40" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B40" s="90"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="104"/>
-      <c r="O40" s="106"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="108"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="96"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="96"/>
       <c r="S40" s="86"/>
       <c r="T40" s="86"/>
       <c r="U40" s="86"/>
@@ -5581,46 +7590,60 @@
       <c r="AE40" s="86"/>
       <c r="AF40" s="86"/>
       <c r="AG40" s="86"/>
-      <c r="AH40" s="111"/>
+      <c r="AH40" s="97"/>
     </row>
     <row r="41" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B41" s="89">
-        <f t="shared" ref="B41" si="42">(ROW()-10)/2+0.5</f>
+      <c r="B41" s="98">
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="103" t="str">
+      <c r="C41" s="100"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="104"/>
+      <c r="H41" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J41" s="108">
+        <v>42173</v>
+      </c>
+      <c r="K41" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L41" s="108"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="91" t="str">
         <f ca="1">IF(B41="","",IF(AND(I41="",J41="",K41="",L41=""),"",IF(OR(I41="",J41=""),"?",IF(AND(I41&lt;&gt;"",J41&lt;&gt;"",K41&lt;&gt;"",L41&lt;&gt;"",M41=100),"○",IF(AND(I41&lt;=TODAY(),J41&gt;=TODAY(),K41=""),"▲",  IF(J41&lt;TODAY(),"★",IF(K41&lt;&gt;"","△",IF(AND(I41&lt;&gt;""),"◇",""))))))))</f>
-        <v/>
-      </c>
-      <c r="O41" s="105" t="str">
+        <v>△</v>
+      </c>
+      <c r="O41" s="93">
         <f>IF(COUNTA(S41:X41)=0,"",SUMPRODUCT(--(ISNUMBER(S41:X41)),S41:X41)+ (COUNTA(S41:X41)-COUNT(S41:X41))*8)</f>
-        <v/>
-      </c>
-      <c r="P41" s="107" t="str">
-        <f t="shared" ref="P41" si="43">IF(O41="","",ROUND(O41/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q41" s="105" t="str">
+        <v>8</v>
+      </c>
+      <c r="P41" s="95">
+        <f t="shared" ref="P41" si="32">IF(O41="","",ROUND(O41/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="93" t="str">
         <f>IF(COUNTA(S42:X42)=0,"",SUMPRODUCT(--(ISNUMBER(S42:X42)),S42:X42)+ (COUNTA(S42:X42)-COUNT(S42:X42))*8)</f>
         <v/>
       </c>
-      <c r="R41" s="107" t="str">
-        <f t="shared" ref="R41" si="44">IF(Q41="","",ROUND(Q41/8,2))</f>
+      <c r="R41" s="95" t="str">
+        <f t="shared" ref="R41" si="33">IF(Q41="","",ROUND(Q41/8,2))</f>
         <v/>
       </c>
       <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
+      <c r="T41" s="85">
+        <v>8</v>
+      </c>
       <c r="U41" s="85"/>
       <c r="V41" s="85"/>
       <c r="W41" s="85"/>
@@ -5634,26 +7657,26 @@
       <c r="AE41" s="85"/>
       <c r="AF41" s="85"/>
       <c r="AG41" s="85"/>
-      <c r="AH41" s="111"/>
+      <c r="AH41" s="97"/>
     </row>
     <row r="42" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B42" s="90"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="102"/>
-      <c r="N42" s="104"/>
-      <c r="O42" s="106"/>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="108"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="109"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="96"/>
       <c r="S42" s="86"/>
       <c r="T42" s="86"/>
       <c r="U42" s="86"/>
@@ -5669,56 +7692,60 @@
       <c r="AE42" s="86"/>
       <c r="AF42" s="86"/>
       <c r="AG42" s="86"/>
-      <c r="AH42" s="111"/>
+      <c r="AH42" s="97"/>
     </row>
     <row r="43" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B43" s="147">
-        <f>(ROW()-10)/2+0.5</f>
+      <c r="B43" s="98">
+        <f t="shared" ref="B43" si="34">(ROW()-10)/2+0.5</f>
         <v>17</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93" t="s">
+      <c r="C43" s="100"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="95"/>
-      <c r="H43" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="I43" s="99">
-        <v>42191</v>
-      </c>
-      <c r="J43" s="99">
-        <v>42192</v>
-      </c>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="109" t="str">
+      <c r="G43" s="104"/>
+      <c r="H43" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J43" s="108">
+        <v>42173</v>
+      </c>
+      <c r="K43" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L43" s="108"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="91" t="str">
         <f ca="1">IF(B43="","",IF(AND(I43="",J43="",K43="",L43=""),"",IF(OR(I43="",J43=""),"?",IF(AND(I43&lt;&gt;"",J43&lt;&gt;"",K43&lt;&gt;"",L43&lt;&gt;"",M43=100),"○",IF(AND(I43&lt;=TODAY(),J43&gt;=TODAY(),K43=""),"▲",  IF(J43&lt;TODAY(),"★",IF(K43&lt;&gt;"","△",IF(AND(I43&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O43" s="135" t="str">
+        <v>△</v>
+      </c>
+      <c r="O43" s="93">
         <f>IF(COUNTA(S43:X43)=0,"",SUMPRODUCT(--(ISNUMBER(S43:X43)),S43:X43)+ (COUNTA(S43:X43)-COUNT(S43:X43))*8)</f>
-        <v/>
-      </c>
-      <c r="P43" s="117" t="str">
-        <f>IF(O43="","",ROUND(O43/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q43" s="135" t="str">
+        <v>8</v>
+      </c>
+      <c r="P43" s="95">
+        <f t="shared" ref="P43" si="35">IF(O43="","",ROUND(O43/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="93" t="str">
         <f>IF(COUNTA(S44:X44)=0,"",SUMPRODUCT(--(ISNUMBER(S44:X44)),S44:X44)+ (COUNTA(S44:X44)-COUNT(S44:X44))*8)</f>
         <v/>
       </c>
-      <c r="R43" s="117" t="str">
-        <f t="shared" ref="R43" si="45">IF(Q43="","",ROUND(Q43/8,2))</f>
+      <c r="R43" s="95" t="str">
+        <f t="shared" ref="R43" si="36">IF(Q43="","",ROUND(Q43/8,2))</f>
         <v/>
       </c>
       <c r="S43" s="85"/>
-      <c r="T43" s="85"/>
+      <c r="T43" s="85">
+        <v>8</v>
+      </c>
       <c r="U43" s="85"/>
       <c r="V43" s="85"/>
       <c r="W43" s="85"/>
@@ -5732,26 +7759,26 @@
       <c r="AE43" s="85"/>
       <c r="AF43" s="85"/>
       <c r="AG43" s="85"/>
-      <c r="AH43" s="111"/>
+      <c r="AH43" s="97"/>
     </row>
     <row r="44" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B44" s="148"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="110"/>
-      <c r="O44" s="136"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="136"/>
-      <c r="R44" s="118"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="109"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="96"/>
       <c r="S44" s="86"/>
       <c r="T44" s="86"/>
       <c r="U44" s="86"/>
@@ -5767,52 +7794,29 @@
       <c r="AE44" s="86"/>
       <c r="AF44" s="86"/>
       <c r="AG44" s="86"/>
-      <c r="AH44" s="111"/>
+      <c r="AH44" s="97"/>
     </row>
     <row r="45" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B45" s="89">
-        <f t="shared" ref="B45" si="46">(ROW()-10)/2+0.5</f>
+      <c r="B45" s="98">
+        <f>(ROW()-10)/2+0.5</f>
         <v>18</v>
       </c>
-      <c r="C45" s="91"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="95"/>
-      <c r="H45" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="I45" s="99">
-        <v>42193</v>
-      </c>
-      <c r="J45" s="99">
-        <v>42195</v>
-      </c>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="103" t="str">
-        <f ca="1">IF(B45="","",IF(AND(I45="",J45="",K45="",L45=""),"",IF(OR(I45="",J45=""),"?",IF(AND(I45&lt;&gt;"",J45&lt;&gt;"",K45&lt;&gt;"",L45&lt;&gt;"",M45=100),"○",IF(AND(I45&lt;=TODAY(),J45&gt;=TODAY(),K45=""),"▲",  IF(J45&lt;TODAY(),"★",IF(K45&lt;&gt;"","△",IF(AND(I45&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O45" s="105" t="str">
-        <f>IF(COUNTA(S45:X45)=0,"",SUMPRODUCT(--(ISNUMBER(S45:X45)),S45:X45)+ (COUNTA(S45:X45)-COUNT(S45:X45))*8)</f>
-        <v/>
-      </c>
-      <c r="P45" s="107" t="str">
-        <f t="shared" ref="P45" si="47">IF(O45="","",ROUND(O45/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q45" s="105" t="str">
-        <f>IF(COUNTA(S46:X46)=0,"",SUMPRODUCT(--(ISNUMBER(S46:X46)),S46:X46)+ (COUNTA(S46:X46)-COUNT(S46:X46))*8)</f>
-        <v/>
-      </c>
-      <c r="R45" s="107" t="str">
-        <f t="shared" ref="R45" si="48">IF(Q45="","",ROUND(Q45/8,2))</f>
-        <v/>
-      </c>
+      <c r="C45" s="100"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="93"/>
+      <c r="R45" s="95"/>
       <c r="S45" s="85"/>
       <c r="T45" s="85"/>
       <c r="U45" s="85"/>
@@ -5828,26 +7832,26 @@
       <c r="AE45" s="85"/>
       <c r="AF45" s="85"/>
       <c r="AG45" s="85"/>
-      <c r="AH45" s="111"/>
+      <c r="AH45" s="97"/>
     </row>
     <row r="46" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B46" s="90"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="102"/>
-      <c r="N46" s="104"/>
-      <c r="O46" s="106"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="106"/>
-      <c r="R46" s="108"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="109"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="109"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="94"/>
+      <c r="P46" s="96"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="96"/>
       <c r="S46" s="86"/>
       <c r="T46" s="86"/>
       <c r="U46" s="86"/>
@@ -5863,54 +7867,62 @@
       <c r="AE46" s="86"/>
       <c r="AF46" s="86"/>
       <c r="AG46" s="86"/>
-      <c r="AH46" s="111"/>
+      <c r="AH46" s="97"/>
     </row>
     <row r="47" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B47" s="89">
-        <f t="shared" ref="B47" si="49">(ROW()-10)/2+0.5</f>
+      <c r="B47" s="98">
+        <f t="shared" ref="B47" si="37">(ROW()-10)/2+0.5</f>
         <v>19</v>
       </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" s="95"/>
-      <c r="H47" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="I47" s="99">
-        <v>42195</v>
-      </c>
-      <c r="J47" s="99">
-        <v>42198</v>
-      </c>
-      <c r="K47" s="99"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="101"/>
-      <c r="N47" s="103" t="str">
+      <c r="C47" s="100"/>
+      <c r="D47" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="104"/>
+      <c r="H47" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J47" s="108">
+        <v>42172</v>
+      </c>
+      <c r="K47" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L47" s="108"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="91" t="str">
         <f ca="1">IF(B47="","",IF(AND(I47="",J47="",K47="",L47=""),"",IF(OR(I47="",J47=""),"?",IF(AND(I47&lt;&gt;"",J47&lt;&gt;"",K47&lt;&gt;"",L47&lt;&gt;"",M47=100),"○",IF(AND(I47&lt;=TODAY(),J47&gt;=TODAY(),K47=""),"▲",  IF(J47&lt;TODAY(),"★",IF(K47&lt;&gt;"","△",IF(AND(I47&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O47" s="105" t="str">
+        <v>△</v>
+      </c>
+      <c r="O47" s="93">
         <f>IF(COUNTA(S47:X47)=0,"",SUMPRODUCT(--(ISNUMBER(S47:X47)),S47:X47)+ (COUNTA(S47:X47)-COUNT(S47:X47))*8)</f>
-        <v/>
-      </c>
-      <c r="P47" s="107" t="str">
-        <f t="shared" ref="P47" si="50">IF(O47="","",ROUND(O47/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q47" s="105" t="str">
+        <v>8</v>
+      </c>
+      <c r="P47" s="95">
+        <f t="shared" ref="P47" si="38">IF(O47="","",ROUND(O47/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="93" t="str">
         <f>IF(COUNTA(S48:X48)=0,"",SUMPRODUCT(--(ISNUMBER(S48:X48)),S48:X48)+ (COUNTA(S48:X48)-COUNT(S48:X48))*8)</f>
         <v/>
       </c>
-      <c r="R47" s="107" t="str">
-        <f t="shared" ref="R47" si="51">IF(Q47="","",ROUND(Q47/8,2))</f>
+      <c r="R47" s="95" t="str">
+        <f t="shared" ref="R47" si="39">IF(Q47="","",ROUND(Q47/8,2))</f>
         <v/>
       </c>
       <c r="S47" s="85"/>
-      <c r="T47" s="85"/>
+      <c r="T47" s="85">
+        <v>8</v>
+      </c>
       <c r="U47" s="85"/>
       <c r="V47" s="85"/>
       <c r="W47" s="85"/>
@@ -5924,26 +7936,26 @@
       <c r="AE47" s="85"/>
       <c r="AF47" s="85"/>
       <c r="AG47" s="85"/>
-      <c r="AH47" s="111"/>
+      <c r="AH47" s="97"/>
     </row>
     <row r="48" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B48" s="90"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="100"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="104"/>
-      <c r="O48" s="106"/>
-      <c r="P48" s="108"/>
-      <c r="Q48" s="106"/>
-      <c r="R48" s="108"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="109"/>
+      <c r="L48" s="109"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="96"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="96"/>
       <c r="S48" s="86"/>
       <c r="T48" s="86"/>
       <c r="U48" s="86"/>
@@ -5959,52 +7971,29 @@
       <c r="AE48" s="86"/>
       <c r="AF48" s="86"/>
       <c r="AG48" s="86"/>
-      <c r="AH48" s="111"/>
+      <c r="AH48" s="97"/>
     </row>
     <row r="49" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B49" s="89">
-        <f t="shared" ref="B49:B51" si="52">(ROW()-10)/2+0.5</f>
+      <c r="B49" s="98">
+        <f>(ROW()-10)/2+0.5</f>
         <v>20</v>
       </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" s="95"/>
-      <c r="H49" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="I49" s="99">
-        <v>42199</v>
-      </c>
-      <c r="J49" s="99">
-        <v>42200</v>
-      </c>
-      <c r="K49" s="99"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="103" t="str">
-        <f ca="1">IF(B49="","",IF(AND(I49="",J49="",K49="",L49=""),"",IF(OR(I49="",J49=""),"?",IF(AND(I49&lt;&gt;"",J49&lt;&gt;"",K49&lt;&gt;"",L49&lt;&gt;"",M49=100),"○",IF(AND(I49&lt;=TODAY(),J49&gt;=TODAY(),K49=""),"▲",  IF(J49&lt;TODAY(),"★",IF(K49&lt;&gt;"","△",IF(AND(I49&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O49" s="105" t="str">
-        <f>IF(COUNTA(S49:X49)=0,"",SUMPRODUCT(--(ISNUMBER(S49:X49)),S49:X49)+ (COUNTA(S49:X49)-COUNT(S49:X49))*8)</f>
-        <v/>
-      </c>
-      <c r="P49" s="107" t="str">
-        <f t="shared" ref="P49" si="53">IF(O49="","",ROUND(O49/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q49" s="105" t="str">
-        <f>IF(COUNTA(S50:X50)=0,"",SUMPRODUCT(--(ISNUMBER(S50:X50)),S50:X50)+ (COUNTA(S50:X50)-COUNT(S50:X50))*8)</f>
-        <v/>
-      </c>
-      <c r="R49" s="107" t="str">
-        <f t="shared" ref="R49" si="54">IF(Q49="","",ROUND(Q49/8,2))</f>
-        <v/>
-      </c>
+      <c r="C49" s="100"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="108"/>
+      <c r="L49" s="108"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="91"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="95"/>
+      <c r="Q49" s="93"/>
+      <c r="R49" s="95"/>
       <c r="S49" s="85"/>
       <c r="T49" s="85"/>
       <c r="U49" s="85"/>
@@ -6020,26 +8009,26 @@
       <c r="AE49" s="85"/>
       <c r="AF49" s="85"/>
       <c r="AG49" s="85"/>
-      <c r="AH49" s="111"/>
+      <c r="AH49" s="97"/>
     </row>
     <row r="50" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B50" s="90"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
-      <c r="M50" s="102"/>
-      <c r="N50" s="104"/>
-      <c r="O50" s="106"/>
-      <c r="P50" s="108"/>
-      <c r="Q50" s="106"/>
-      <c r="R50" s="108"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="109"/>
+      <c r="L50" s="109"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="96"/>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="96"/>
       <c r="S50" s="86"/>
       <c r="T50" s="86"/>
       <c r="U50" s="86"/>
@@ -6055,54 +8044,62 @@
       <c r="AE50" s="86"/>
       <c r="AF50" s="86"/>
       <c r="AG50" s="86"/>
-      <c r="AH50" s="111"/>
+      <c r="AH50" s="97"/>
     </row>
     <row r="51" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B51" s="89">
-        <f t="shared" si="52"/>
+      <c r="B51" s="98">
+        <f t="shared" ref="B51:B52" si="40">(ROW()-10)/2+0.5</f>
         <v>21</v>
       </c>
-      <c r="C51" s="91"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="95"/>
-      <c r="H51" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="I51" s="99">
-        <v>42201</v>
-      </c>
-      <c r="J51" s="99">
-        <v>42205</v>
-      </c>
-      <c r="K51" s="99"/>
-      <c r="L51" s="99"/>
-      <c r="M51" s="101"/>
-      <c r="N51" s="103" t="str">
+      <c r="C51" s="100"/>
+      <c r="D51" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="104"/>
+      <c r="H51" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="108">
+        <v>42172</v>
+      </c>
+      <c r="J51" s="108">
+        <v>42174</v>
+      </c>
+      <c r="K51" s="108">
+        <v>42172</v>
+      </c>
+      <c r="L51" s="108"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="91" t="str">
         <f ca="1">IF(B51="","",IF(AND(I51="",J51="",K51="",L51=""),"",IF(OR(I51="",J51=""),"?",IF(AND(I51&lt;&gt;"",J51&lt;&gt;"",K51&lt;&gt;"",L51&lt;&gt;"",M51=100),"○",IF(AND(I51&lt;=TODAY(),J51&gt;=TODAY(),K51=""),"▲",  IF(J51&lt;TODAY(),"★",IF(K51&lt;&gt;"","△",IF(AND(I51&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O51" s="105" t="str">
+        <v>△</v>
+      </c>
+      <c r="O51" s="93">
         <f>IF(COUNTA(S51:X51)=0,"",SUMPRODUCT(--(ISNUMBER(S51:X51)),S51:X51)+ (COUNTA(S51:X51)-COUNT(S51:X51))*8)</f>
-        <v/>
-      </c>
-      <c r="P51" s="107" t="str">
-        <f t="shared" ref="P51" si="55">IF(O51="","",ROUND(O51/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q51" s="105" t="str">
+        <v>8</v>
+      </c>
+      <c r="P51" s="95">
+        <f t="shared" ref="P51" si="41">IF(O51="","",ROUND(O51/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="93" t="str">
         <f>IF(COUNTA(S52:X52)=0,"",SUMPRODUCT(--(ISNUMBER(S52:X52)),S52:X52)+ (COUNTA(S52:X52)-COUNT(S52:X52))*8)</f>
         <v/>
       </c>
-      <c r="R51" s="107" t="str">
-        <f t="shared" ref="R51" si="56">IF(Q51="","",ROUND(Q51/8,2))</f>
+      <c r="R51" s="95" t="str">
+        <f t="shared" ref="R51" si="42">IF(Q51="","",ROUND(Q51/8,2))</f>
         <v/>
       </c>
       <c r="S51" s="85"/>
-      <c r="T51" s="85"/>
+      <c r="T51" s="85">
+        <v>8</v>
+      </c>
       <c r="U51" s="85"/>
       <c r="V51" s="85"/>
       <c r="W51" s="85"/>
@@ -6116,26 +8113,26 @@
       <c r="AE51" s="85"/>
       <c r="AF51" s="85"/>
       <c r="AG51" s="85"/>
-      <c r="AH51" s="111"/>
+      <c r="AH51" s="97"/>
     </row>
     <row r="52" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B52" s="90"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="102"/>
-      <c r="N52" s="104"/>
-      <c r="O52" s="106"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="106"/>
-      <c r="R52" s="108"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="109"/>
+      <c r="L52" s="109"/>
+      <c r="M52" s="90"/>
+      <c r="N52" s="92"/>
+      <c r="O52" s="94"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="96"/>
       <c r="S52" s="86"/>
       <c r="T52" s="86"/>
       <c r="U52" s="86"/>
@@ -6151,52 +8148,29 @@
       <c r="AE52" s="86"/>
       <c r="AF52" s="86"/>
       <c r="AG52" s="86"/>
-      <c r="AH52" s="111"/>
-    </row>
-    <row r="53" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B53" s="89">
-        <f t="shared" ref="B53" si="57">(ROW()-10)/2+0.5</f>
+      <c r="AH52" s="97"/>
+    </row>
+    <row r="53" spans="2:34" ht="50.1" customHeight="1">
+      <c r="B53" s="98">
+        <f t="shared" ref="B53" si="43">(ROW()-10)/2+0.5</f>
         <v>22</v>
       </c>
-      <c r="C53" s="91"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" s="95"/>
-      <c r="H53" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="I53" s="99">
-        <v>42206</v>
-      </c>
-      <c r="J53" s="99">
-        <v>42207</v>
-      </c>
-      <c r="K53" s="112"/>
-      <c r="L53" s="112"/>
-      <c r="M53" s="101"/>
-      <c r="N53" s="103" t="str">
-        <f ca="1">IF(B53="","",IF(AND(I53="",J53="",K53="",L53=""),"",IF(OR(I53="",J53=""),"?",IF(AND(I53&lt;&gt;"",J53&lt;&gt;"",K53&lt;&gt;"",L53&lt;&gt;"",M53=100),"○",IF(AND(I53&lt;=TODAY(),J53&gt;=TODAY(),K53=""),"▲",  IF(J53&lt;TODAY(),"★",IF(K53&lt;&gt;"","△",IF(AND(I53&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
-      </c>
-      <c r="O53" s="105" t="str">
-        <f>IF(COUNTA(S53:X53)=0,"",SUMPRODUCT(--(ISNUMBER(S53:X53)),S53:X53)+ (COUNTA(S53:X53)-COUNT(S53:X53))*8)</f>
-        <v/>
-      </c>
-      <c r="P53" s="107" t="str">
-        <f t="shared" ref="P53" si="58">IF(O53="","",ROUND(O53/8,2))</f>
-        <v/>
-      </c>
-      <c r="Q53" s="105" t="str">
-        <f>IF(COUNTA(S54:X54)=0,"",SUMPRODUCT(--(ISNUMBER(S54:X54)),S54:X54)+ (COUNTA(S54:X54)-COUNT(S54:X54))*8)</f>
-        <v/>
-      </c>
-      <c r="R53" s="107" t="str">
-        <f t="shared" ref="R53" si="59">IF(Q53="","",ROUND(Q53/8,2))</f>
-        <v/>
-      </c>
+      <c r="C53" s="100"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
+      <c r="K53" s="108"/>
+      <c r="L53" s="108"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="91"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="93"/>
+      <c r="R53" s="95"/>
       <c r="S53" s="85"/>
       <c r="T53" s="85"/>
       <c r="U53" s="85"/>
@@ -6212,26 +8186,26 @@
       <c r="AE53" s="85"/>
       <c r="AF53" s="85"/>
       <c r="AG53" s="85"/>
-      <c r="AH53" s="111"/>
+      <c r="AH53" s="97"/>
     </row>
     <row r="54" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B54" s="90"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="113"/>
-      <c r="L54" s="113"/>
-      <c r="M54" s="102"/>
-      <c r="N54" s="104"/>
-      <c r="O54" s="106"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="106"/>
-      <c r="R54" s="108"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="109"/>
+      <c r="L54" s="109"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="92"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="96"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="96"/>
       <c r="S54" s="86"/>
       <c r="T54" s="86"/>
       <c r="U54" s="86"/>
@@ -6247,80 +8221,7 @@
       <c r="AE54" s="86"/>
       <c r="AF54" s="86"/>
       <c r="AG54" s="86"/>
-      <c r="AH54" s="111"/>
-    </row>
-    <row r="55" spans="2:34" ht="50.1" customHeight="1">
-      <c r="B55" s="89">
-        <f t="shared" ref="B55" si="60">(ROW()-10)/2+0.5</f>
-        <v>23</v>
-      </c>
-      <c r="C55" s="91"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
-      <c r="K55" s="99"/>
-      <c r="L55" s="99"/>
-      <c r="M55" s="101"/>
-      <c r="N55" s="103"/>
-      <c r="O55" s="105"/>
-      <c r="P55" s="107"/>
-      <c r="Q55" s="105"/>
-      <c r="R55" s="107"/>
-      <c r="S55" s="85"/>
-      <c r="T55" s="85"/>
-      <c r="U55" s="85"/>
-      <c r="V55" s="85"/>
-      <c r="W55" s="85"/>
-      <c r="X55" s="85"/>
-      <c r="Y55" s="85"/>
-      <c r="Z55" s="85"/>
-      <c r="AA55" s="85"/>
-      <c r="AB55" s="85"/>
-      <c r="AC55" s="85"/>
-      <c r="AD55" s="85"/>
-      <c r="AE55" s="85"/>
-      <c r="AF55" s="85"/>
-      <c r="AG55" s="85"/>
-      <c r="AH55" s="111"/>
-    </row>
-    <row r="56" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B56" s="90"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
-      <c r="L56" s="100"/>
-      <c r="M56" s="102"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="106"/>
-      <c r="P56" s="108"/>
-      <c r="Q56" s="106"/>
-      <c r="R56" s="108"/>
-      <c r="S56" s="86"/>
-      <c r="T56" s="86"/>
-      <c r="U56" s="86"/>
-      <c r="V56" s="86"/>
-      <c r="W56" s="86"/>
-      <c r="X56" s="86"/>
-      <c r="Y56" s="86"/>
-      <c r="Z56" s="86"/>
-      <c r="AA56" s="86"/>
-      <c r="AB56" s="86"/>
-      <c r="AC56" s="86"/>
-      <c r="AD56" s="86"/>
-      <c r="AE56" s="86"/>
-      <c r="AF56" s="86"/>
-      <c r="AG56" s="86"/>
-      <c r="AH56" s="111"/>
+      <c r="AH54" s="97"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
@@ -6328,25 +8229,7 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <dataConsolidate/>
-  <mergeCells count="433">
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="AH53:AH54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
+  <mergeCells count="415">
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="L51:L52"/>
     <mergeCell ref="M51:M52"/>
@@ -6419,53 +8302,257 @@
     <mergeCell ref="H45:H46"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="AH43:AH44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="AH33:AH34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="AH53:AH54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="AH21:AH22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="AH25:AH26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="N27:N28"/>
     <mergeCell ref="O27:O28"/>
@@ -6477,13 +8564,8 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="O29:O30"/>
@@ -6509,60 +8591,6 @@
     <mergeCell ref="Q31:Q32"/>
     <mergeCell ref="R31:R32"/>
     <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="AH33:AH34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="AH37:AH38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D39:D40"/>
@@ -6581,747 +8609,943 @@
     <mergeCell ref="Q39:Q40"/>
     <mergeCell ref="R39:R40"/>
     <mergeCell ref="AH39:AH40"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="AH21:AH22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="AH25:AH26"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="AH23:AH24"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="AH43:AH44"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="S8:X8">
-    <cfRule type="expression" dxfId="149" priority="51038" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="51242" stopIfTrue="1">
       <formula>IF(TEXT(S$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="51039" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="51243" stopIfTrue="1">
       <formula>OR(IF(TEXT(S$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:AG10">
-    <cfRule type="expression" dxfId="147" priority="51040" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="51244" stopIfTrue="1">
       <formula>IF(S$9=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="51041" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="51245" stopIfTrue="1">
       <formula>IF(WEEKDAY(S$9)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="51042" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="51246" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S16:X20 S56:X56 S24:X24 S22:X22 S26:X26 S12:X14">
-    <cfRule type="expression" dxfId="144" priority="65551" stopIfTrue="1">
+  <conditionalFormatting sqref="S12:X14 S22:AG22 S24:AG24 S26:AG26 S42:AG42 S40:AG40 S44:AG44 S16:AG16 S20:AG20 S28:AG32 S54:AG54 S52:AG52 S50:AG50">
+    <cfRule type="expression" dxfId="237" priority="65755" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="65552" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="65756" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=S$9,S$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="65553" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="65757" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=S$9,S$9&lt;=$L11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:R56 B11:R26">
-    <cfRule type="expression" dxfId="141" priority="65569" stopIfTrue="1">
+  <conditionalFormatting sqref="B53:R54 B21:G24 I21:R24 B11:R14 B19:E20 B15:E16 G15:R16 G19:R20 J47:J48 M47:R48 B47:G48">
+    <cfRule type="expression" dxfId="234" priority="65773" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;"",$L11&lt;&gt;"",$M11=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="65570" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="65774" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$J11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="65571" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="65775" stopIfTrue="1">
       <formula>IF(OR(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;"",$M11&lt;100),AND($I11&lt;&gt;"",$J11&lt;&gt;"",TODAY()&gt;=$I11)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S55:X55 S25:X25 S21:X21 S23:X23">
-    <cfRule type="expression" dxfId="138" priority="65746" stopIfTrue="1">
+  <conditionalFormatting sqref="S43:AG43 S39:AG39 S41:AG41 S53:AG53 S51:AG51">
+    <cfRule type="expression" dxfId="231" priority="65950" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="65747" stopIfTrue="1">
-      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"", $I21&lt;=S$9,S$9&lt;=$J21),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="65748" stopIfTrue="1">
-      <formula>IF(AND($B21="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    <cfRule type="expression" dxfId="230" priority="65951" stopIfTrue="1">
+      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"", $I39&lt;=S$9,S$9&lt;=$J39),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="65952" stopIfTrue="1">
+      <formula>IF(AND($B39="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:X15">
-    <cfRule type="expression" dxfId="135" priority="65758" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="65962" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="65759" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="65963" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=S$9,S$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="65760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="65964" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=S$9,S$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:X11">
-    <cfRule type="expression" dxfId="132" priority="65800" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="66004" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="65801" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="66005" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=S$9,S$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="65802" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="66006" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30:X34 S38:X38 S36:X36 S40:X40 S27:X28">
-    <cfRule type="expression" dxfId="129" priority="143" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="144" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"", $I27&lt;=S$9,S$9&lt;=$J27),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="145" stopIfTrue="1">
-      <formula>IF(AND($B27="", $K26&lt;&gt;"",$K26&lt;=S$9,S$9&lt;=$L26),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:G40 I27:R40">
-    <cfRule type="expression" dxfId="126" priority="140" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="141" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="142" stopIfTrue="1">
-      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S39:X39 S35:X35 S37:X37">
-    <cfRule type="expression" dxfId="123" priority="137" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="138" stopIfTrue="1">
-      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"", $I35&lt;=S$9,S$9&lt;=$J35),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="139" stopIfTrue="1">
-      <formula>IF(AND($B35="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29:X29">
-    <cfRule type="expression" dxfId="120" priority="134" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="135" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"", $I29&lt;=S$9,S$9&lt;=$J29),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="136" stopIfTrue="1">
-      <formula>IF(AND($B29="", $K24&lt;&gt;"",$K24&lt;=S$9,S$9&lt;=$L24),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AD8">
-    <cfRule type="expression" dxfId="117" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="336" stopIfTrue="1">
       <formula>IF(TEXT(Y$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="337" stopIfTrue="1">
       <formula>OR(IF(TEXT(Y$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:AD20 Y56:AD56 Y24:AD24 Y22:AD22 Y26:AD26 Y12:AD14">
-    <cfRule type="expression" dxfId="115" priority="126" stopIfTrue="1">
+  <conditionalFormatting sqref="Y12:AD14">
+    <cfRule type="expression" dxfId="220" priority="330" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="331" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=Y$9,Y$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="332" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=Y$9,Y$9&lt;=$L11),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y55:AD55 Y25:AD25 Y21:AD21 Y23:AD23">
-    <cfRule type="expression" dxfId="112" priority="123" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="124" stopIfTrue="1">
-      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"", $I21&lt;=Y$9,Y$9&lt;=$J21),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="125" stopIfTrue="1">
-      <formula>IF(AND($B21="", #REF!&lt;&gt;"",#REF!&lt;=Y$9,Y$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:AD15">
-    <cfRule type="expression" dxfId="109" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="324" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="325" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=Y$9,Y$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="326" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=Y$9,Y$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:AD11">
-    <cfRule type="expression" dxfId="106" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="321" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="322" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=Y$9,Y$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="323" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=Y$9,Y$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y30:AD34 Y38:AD38 Y36:AD36 Y40:AD40 Y27:AD28">
-    <cfRule type="expression" dxfId="103" priority="114" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="115" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"", $I27&lt;=Y$9,Y$9&lt;=$J27),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="116" stopIfTrue="1">
-      <formula>IF(AND($B27="", $K26&lt;&gt;"",$K26&lt;=Y$9,Y$9&lt;=$L26),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y39:AD39 Y35:AD35 Y37:AD37">
-    <cfRule type="expression" dxfId="100" priority="111" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="112" stopIfTrue="1">
-      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"", $I35&lt;=Y$9,Y$9&lt;=$J35),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="113" stopIfTrue="1">
-      <formula>IF(AND($B35="", #REF!&lt;&gt;"",#REF!&lt;=Y$9,Y$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y29:AD29">
-    <cfRule type="expression" dxfId="97" priority="108" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="109" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"", $I29&lt;=Y$9,Y$9&lt;=$J29),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="110" stopIfTrue="1">
-      <formula>IF(AND($B29="", $K24&lt;&gt;"",$K24&lt;=Y$9,Y$9&lt;=$L24),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AG8">
-    <cfRule type="expression" dxfId="94" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="307" stopIfTrue="1">
       <formula>IF(TEXT(AE$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="308" stopIfTrue="1">
       <formula>OR(IF(TEXT(AE$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16:AG20 AE56:AG56 AE24:AG24 AE22:AG22 AE26:AG26 AE12:AG14">
-    <cfRule type="expression" dxfId="92" priority="100" stopIfTrue="1">
+  <conditionalFormatting sqref="AE12:AG14">
+    <cfRule type="expression" dxfId="209" priority="304" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="305" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=AE$9,AE$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="306" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=AE$9,AE$9&lt;=$L11),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE55:AG55 AE25:AG25 AE21:AG21 AE23:AG23">
-    <cfRule type="expression" dxfId="89" priority="97" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="98" stopIfTrue="1">
-      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"", $I21&lt;=AE$9,AE$9&lt;=$J21),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="99" stopIfTrue="1">
-      <formula>IF(AND($B21="", #REF!&lt;&gt;"",#REF!&lt;=AE$9,AE$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15:AG15">
-    <cfRule type="expression" dxfId="86" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="298" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="299" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=AE$9,AE$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="300" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=AE$9,AE$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AG11">
-    <cfRule type="expression" dxfId="83" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="295" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="296" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=AE$9,AE$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="297" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=AE$9,AE$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE30:AG34 AE38:AG38 AE36:AG36 AE40:AG40 AE27:AG28">
-    <cfRule type="expression" dxfId="80" priority="88" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="89" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"", $I27&lt;=AE$9,AE$9&lt;=$J27),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="90" stopIfTrue="1">
-      <formula>IF(AND($B27="", $K26&lt;&gt;"",$K26&lt;=AE$9,AE$9&lt;=$L26),TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="H23:H24">
+    <cfRule type="expression" dxfId="200" priority="280" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="281" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="282" stopIfTrue="1">
+      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE39:AG39 AE35:AG35 AE37:AG37">
-    <cfRule type="expression" dxfId="77" priority="85" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="86" stopIfTrue="1">
-      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"", $I35&lt;=AE$9,AE$9&lt;=$J35),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="87" stopIfTrue="1">
-      <formula>IF(AND($B35="", #REF!&lt;&gt;"",#REF!&lt;=AE$9,AE$9&lt;=#REF!),TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="H21:H22">
+    <cfRule type="expression" dxfId="197" priority="277" stopIfTrue="1">
+      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$L21&lt;&gt;"",$M21=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="278" stopIfTrue="1">
+      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$J21&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="279" stopIfTrue="1">
+      <formula>IF(OR(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$M21&lt;100),AND($I21&lt;&gt;"",$J21&lt;&gt;"",TODAY()&gt;=$I21)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE29:AG29">
-    <cfRule type="expression" dxfId="74" priority="82" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="83" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"", $I29&lt;=AE$9,AE$9&lt;=$J29),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="84" stopIfTrue="1">
-      <formula>IF(AND($B29="", $K24&lt;&gt;"",$K24&lt;=AE$9,AE$9&lt;=$L24),TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="I31:R32 B25:G32 I27:I30 M25:R30 J39:J44 M39:R44 B39:G44">
+    <cfRule type="expression" dxfId="194" priority="250" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="251" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="252" stopIfTrue="1">
+      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H40">
+    <cfRule type="expression" dxfId="191" priority="208" stopIfTrue="1">
+      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="209" stopIfTrue="1">
+      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="210" stopIfTrue="1">
+      <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H28">
+    <cfRule type="expression" dxfId="188" priority="223" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="224" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="225" stopIfTrue="1">
+      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H26">
+    <cfRule type="expression" dxfId="185" priority="220" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="221" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="222" stopIfTrue="1">
+      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H30">
+    <cfRule type="expression" dxfId="182" priority="217" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="218" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="219" stopIfTrue="1">
+      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="expression" dxfId="179" priority="214" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="215" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="216" stopIfTrue="1">
+      <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:H44">
+    <cfRule type="expression" dxfId="176" priority="205" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="206" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="207" stopIfTrue="1">
+      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H42">
+    <cfRule type="expression" dxfId="173" priority="211" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="212" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="213" stopIfTrue="1">
+      <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21:AG21 S25:AG25 S49:AG49">
+    <cfRule type="expression" dxfId="170" priority="66031" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="66032" stopIfTrue="1">
+      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"", $I21&lt;=S$9,S$9&lt;=$J21),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="66033" stopIfTrue="1">
+      <formula>IF(AND($B21="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23:AG23 S27:AG27">
+    <cfRule type="expression" dxfId="167" priority="66046" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="66047" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"", $I23&lt;=S$9,S$9&lt;=$J23),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="66048" stopIfTrue="1">
+      <formula>IF(AND($B23="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I26">
+    <cfRule type="expression" dxfId="164" priority="202" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="203" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="204" stopIfTrue="1">
+      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K28">
+    <cfRule type="expression" dxfId="161" priority="178" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="179" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="180" stopIfTrue="1">
+      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:K26">
+    <cfRule type="expression" dxfId="158" priority="196" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="197" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="198" stopIfTrue="1">
+      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:L30">
+    <cfRule type="expression" dxfId="155" priority="169" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="170" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="171" stopIfTrue="1">
+      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:L26">
+    <cfRule type="expression" dxfId="152" priority="190" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="191" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="192" stopIfTrue="1">
+      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:J26">
+    <cfRule type="expression" dxfId="149" priority="187" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="188" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="189" stopIfTrue="1">
+      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J28">
+    <cfRule type="expression" dxfId="146" priority="184" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="185" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="186" stopIfTrue="1">
+      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="expression" dxfId="143" priority="181" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="182" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="183" stopIfTrue="1">
+      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K30">
+    <cfRule type="expression" dxfId="140" priority="175" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="176" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="177" stopIfTrue="1">
+      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L28">
+    <cfRule type="expression" dxfId="137" priority="172" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="173" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="174" stopIfTrue="1">
+      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19:AG19">
+    <cfRule type="expression" dxfId="134" priority="66052" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="66053" stopIfTrue="1">
+      <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"", $I19&lt;=S$9,S$9&lt;=$J19),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="66054" stopIfTrue="1">
+      <formula>IF(AND($B19="", $K16&lt;&gt;"",$K16&lt;=S$9,S$9&lt;=$L16),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18:AG18">
+    <cfRule type="expression" dxfId="131" priority="166" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="167" stopIfTrue="1">
+      <formula>IF(AND($B18&lt;&gt;"",$I18&lt;&gt;"", $I18&lt;=S$9,S$9&lt;=$J18),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="168" stopIfTrue="1">
+      <formula>IF(AND($B18="", $K17&lt;&gt;"",$K17&lt;=S$9,S$9&lt;=$L17),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:E18 G17:R18">
+    <cfRule type="expression" dxfId="128" priority="163" stopIfTrue="1">
+      <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$L17&lt;&gt;"",$M17=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="164" stopIfTrue="1">
+      <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$J17&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="165" stopIfTrue="1">
+      <formula>IF(OR(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$M17&lt;100),AND($I17&lt;&gt;"",$J17&lt;&gt;"",TODAY()&gt;=$I17)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17:AG17">
+    <cfRule type="expression" dxfId="125" priority="160" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="161" stopIfTrue="1">
+      <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"", $I17&lt;=S$9,S$9&lt;=$J17),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="162" stopIfTrue="1">
+      <formula>IF(AND($B17="", $K14&lt;&gt;"",$K14&lt;=S$9,S$9&lt;=$L14),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F16">
+    <cfRule type="expression" dxfId="122" priority="157" stopIfTrue="1">
+      <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;"",$L15&lt;&gt;"",$M15=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="158" stopIfTrue="1">
+      <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"",$J15&lt;&gt;"",$J15&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="159" stopIfTrue="1">
+      <formula>IF(OR(AND($B15&lt;&gt;"",$I15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;"",$M15&lt;100),AND($I15&lt;&gt;"",$J15&lt;&gt;"",TODAY()&gt;=$I15)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S34:AG38">
+    <cfRule type="expression" dxfId="119" priority="154" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="155" stopIfTrue="1">
+      <formula>IF(AND($B34&lt;&gt;"",$I34&lt;&gt;"", $I34&lt;=S$9,S$9&lt;=$J34),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="156" stopIfTrue="1">
+      <formula>IF(AND($B34="", $K33&lt;&gt;"",$K33&lt;=S$9,S$9&lt;=$L33),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:R38 B35:G38 I33:I36 M33:R36 B33:C34 E33:G34">
+    <cfRule type="expression" dxfId="116" priority="151" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="152" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="153" stopIfTrue="1">
+      <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:H34">
+    <cfRule type="expression" dxfId="113" priority="148" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="149" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="150" stopIfTrue="1">
+      <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H36">
-    <cfRule type="expression" dxfId="71" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="145" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="146" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="147" stopIfTrue="1">
       <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H30">
-    <cfRule type="expression" dxfId="68" priority="76" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="77" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="78" stopIfTrue="1">
-      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H28">
-    <cfRule type="expression" dxfId="65" priority="73" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="74" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="75" stopIfTrue="1">
-      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="expression" dxfId="62" priority="70" stopIfTrue="1">
-      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="71" stopIfTrue="1">
-      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="72" stopIfTrue="1">
-      <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H34">
-    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
-      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="65" stopIfTrue="1">
-      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="66" stopIfTrue="1">
-      <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H40">
-    <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
-      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
-      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
-      <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H38">
-    <cfRule type="expression" dxfId="53" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="142" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$L37&lt;&gt;"",$M37=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="143" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$J37&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="144" stopIfTrue="1">
       <formula>IF(OR(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$M37&lt;100),AND($I37&lt;&gt;"",$J37&lt;&gt;"",TODAY()&gt;=$I37)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S44:X48 S52:X52 S50:X50 S54:X54 S41:X42">
-    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
+  <conditionalFormatting sqref="S33:AG33">
+    <cfRule type="expression" dxfId="104" priority="139" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
-      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"", $I41&lt;=S$9,S$9&lt;=$J41),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
-      <formula>IF(AND($B41="", $K40&lt;&gt;"",$K40&lt;=S$9,S$9&lt;=$L40),TRUE,FALSE)</formula>
+    <cfRule type="expression" dxfId="103" priority="140" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"", $I33&lt;=S$9,S$9&lt;=$J33),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="141" stopIfTrue="1">
+      <formula>IF(AND($B33="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:G54 I41:R54">
-    <cfRule type="expression" dxfId="47" priority="46" stopIfTrue="1">
+  <conditionalFormatting sqref="K33:K34">
+    <cfRule type="expression" dxfId="101" priority="136" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="137" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="138" stopIfTrue="1">
+      <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L36">
+    <cfRule type="expression" dxfId="98" priority="133" stopIfTrue="1">
+      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="134" stopIfTrue="1">
+      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="135" stopIfTrue="1">
+      <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:J34">
+    <cfRule type="expression" dxfId="95" priority="130" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="131" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="132" stopIfTrue="1">
+      <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:J36">
+    <cfRule type="expression" dxfId="92" priority="127" stopIfTrue="1">
+      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="128" stopIfTrue="1">
+      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="129" stopIfTrue="1">
+      <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:K36">
+    <cfRule type="expression" dxfId="89" priority="124" stopIfTrue="1">
+      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="125" stopIfTrue="1">
+      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="126" stopIfTrue="1">
+      <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33:L34">
+    <cfRule type="expression" dxfId="86" priority="121" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="122" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="123" stopIfTrue="1">
+      <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:I40">
+    <cfRule type="expression" dxfId="83" priority="118" stopIfTrue="1">
+      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="119" stopIfTrue="1">
+      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="120" stopIfTrue="1">
+      <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I42">
+    <cfRule type="expression" dxfId="80" priority="115" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="116" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="117" stopIfTrue="1">
       <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S53:X53 S49:X49 S51:X51">
-    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
+  <conditionalFormatting sqref="I43:I44">
+    <cfRule type="expression" dxfId="77" priority="112" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="113" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="114" stopIfTrue="1">
+      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:K40">
+    <cfRule type="expression" dxfId="74" priority="109" stopIfTrue="1">
+      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="110" stopIfTrue="1">
+      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="111" stopIfTrue="1">
+      <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:K42">
+    <cfRule type="expression" dxfId="71" priority="106" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="107" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="108" stopIfTrue="1">
+      <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:K44">
+    <cfRule type="expression" dxfId="68" priority="103" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="104" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="105" stopIfTrue="1">
+      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39:L40">
+    <cfRule type="expression" dxfId="65" priority="100" stopIfTrue="1">
+      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="101" stopIfTrue="1">
+      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="102" stopIfTrue="1">
+      <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:L42">
+    <cfRule type="expression" dxfId="62" priority="97" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="98" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="99" stopIfTrue="1">
+      <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:L44">
+    <cfRule type="expression" dxfId="59" priority="94" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="95" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="96" stopIfTrue="1">
+      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D34">
+    <cfRule type="expression" dxfId="56" priority="91" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="92" stopIfTrue="1">
+      <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="93" stopIfTrue="1">
+      <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S48:AG48">
+    <cfRule type="expression" dxfId="53" priority="88" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"", $I49&lt;=S$9,S$9&lt;=$J49),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
-      <formula>IF(AND($B49="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    <cfRule type="expression" dxfId="52" priority="89" stopIfTrue="1">
+      <formula>IF(AND($B48&lt;&gt;"",$I48&lt;&gt;"", $I48&lt;=S$9,S$9&lt;=$J48),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="90" stopIfTrue="1">
+      <formula>IF(AND($B48="", $K47&lt;&gt;"",$K47&lt;=S$9,S$9&lt;=$L47),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S43:X43">
-    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
+  <conditionalFormatting sqref="S47:AG47">
+    <cfRule type="expression" dxfId="50" priority="85" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"", $I43&lt;=S$9,S$9&lt;=$J43),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
-      <formula>IF(AND($B43="", $K38&lt;&gt;"",$K38&lt;=S$9,S$9&lt;=$L38),TRUE,FALSE)</formula>
+    <cfRule type="expression" dxfId="49" priority="86" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"", $I47&lt;=S$9,S$9&lt;=$J47),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="87" stopIfTrue="1">
+      <formula>IF(AND($B47="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y44:AD48 Y52:AD52 Y50:AD50 Y54:AD54 Y41:AD42">
-    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
-      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"", $I41&lt;=Y$9,Y$9&lt;=$J41),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
-      <formula>IF(AND($B41="", $K40&lt;&gt;"",$K40&lt;=Y$9,Y$9&lt;=$L40),TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="H47:H48">
+    <cfRule type="expression" dxfId="47" priority="79" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="80" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="81" stopIfTrue="1">
+      <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y53:AD53 Y49:AD49 Y51:AD51">
-    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"", $I49&lt;=Y$9,Y$9&lt;=$J49),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
-      <formula>IF(AND($B49="", #REF!&lt;&gt;"",#REF!&lt;=Y$9,Y$9&lt;=#REF!),TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="S45:AG46">
+    <cfRule type="expression" dxfId="44" priority="70" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="71" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"", $I45&lt;=S$9,S$9&lt;=$J45),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="72" stopIfTrue="1">
+      <formula>IF(AND($B45="", $K44&lt;&gt;"",$K44&lt;=S$9,S$9&lt;=$L44),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y43:AD43">
-    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"", $I43&lt;=Y$9,Y$9&lt;=$J43),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
-      <formula>IF(AND($B43="", $K38&lt;&gt;"",$K38&lt;=Y$9,Y$9&lt;=$L38),TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="I45:R46 B45:G46">
+    <cfRule type="expression" dxfId="41" priority="67" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="68" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="69" stopIfTrue="1">
+      <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE44:AG48 AE52:AG52 AE50:AG50 AE54:AG54 AE41:AG42">
-    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
-      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"", $I41&lt;=AE$9,AE$9&lt;=$J41),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
-      <formula>IF(AND($B41="", $K40&lt;&gt;"",$K40&lt;=AE$9,AE$9&lt;=$L40),TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="H45:H46">
+    <cfRule type="expression" dxfId="38" priority="64" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="65" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="66" stopIfTrue="1">
+      <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE53:AG53 AE49:AG49 AE51:AG51">
-    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"", $I49&lt;=AE$9,AE$9&lt;=$J49),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
-      <formula>IF(AND($B49="", #REF!&lt;&gt;"",#REF!&lt;=AE$9,AE$9&lt;=#REF!),TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="I47:I48">
+    <cfRule type="expression" dxfId="35" priority="61" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="62" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="63" stopIfTrue="1">
+      <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE43:AG43">
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"", $I43&lt;=AE$9,AE$9&lt;=$J43),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
-      <formula>IF(AND($B43="", $K38&lt;&gt;"",$K38&lt;=AE$9,AE$9&lt;=$L38),TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="K47:K48">
+    <cfRule type="expression" dxfId="32" priority="52" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="53" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
+      <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:L48">
+    <cfRule type="expression" dxfId="29" priority="43" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="44" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="45" stopIfTrue="1">
+      <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F18">
+    <cfRule type="expression" dxfId="26" priority="34" stopIfTrue="1">
+      <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$L17&lt;&gt;"",$M17=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="35" stopIfTrue="1">
+      <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$J17&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
+      <formula>IF(OR(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$M17&lt;100),AND($I17&lt;&gt;"",$J17&lt;&gt;"",TODAY()&gt;=$I17)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F20">
+    <cfRule type="expression" dxfId="23" priority="31" stopIfTrue="1">
+      <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$L19&lt;&gt;"",$M19=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="32" stopIfTrue="1">
+      <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$J19&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="33" stopIfTrue="1">
+      <formula>IF(OR(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$M19&lt;100),AND($I19&lt;&gt;"",$J19&lt;&gt;"",TODAY()&gt;=$I19)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:J52 M51:R52 B51:G52">
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:H52">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="21" stopIfTrue="1">
+      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:R50 B49:G50">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:H50">
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H44">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="21" stopIfTrue="1">
-      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="I51:I52">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H42">
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
-      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
-      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
-      <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="K51:K52">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H46">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
-      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
-      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
-      <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
-      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
-      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
-      <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53:H54">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$L53&lt;&gt;"",$M53=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$J53&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>IF(OR(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$M53&lt;100),AND($I53&lt;&gt;"",$J53&lt;&gt;"",TODAY()&gt;=$I53)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H52">
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="L51:L52">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 M13:M56">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 M13:M54">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H52">
       <formula1>"XuanDT2,DongDL1,DuongTD1,TuyenTV1,TuanNT22,NamMH,QuyetND2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7355,11 +9579,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
     </row>
     <row r="4" spans="2:23" ht="16.5" customHeight="1">
       <c r="B4" s="34" t="s">
@@ -8345,59 +10569,59 @@
   <sheetData>
     <row r="41" spans="2:4" ht="14.25" thickBot="1"/>
     <row r="42" spans="2:4">
-      <c r="B42" s="158" t="s">
+      <c r="B42" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="159"/>
+      <c r="C42" s="157"/>
       <c r="D42" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B43" s="160"/>
-      <c r="C43" s="161"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="159"/>
     </row>
     <row r="44" spans="2:4" ht="14.25" thickBot="1"/>
     <row r="45" spans="2:4">
-      <c r="B45" s="162" t="s">
+      <c r="B45" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="163"/>
+      <c r="C45" s="161"/>
       <c r="D45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B46" s="164"/>
-      <c r="C46" s="165"/>
+      <c r="B46" s="162"/>
+      <c r="C46" s="163"/>
     </row>
     <row r="47" spans="2:4" ht="14.25" thickBot="1"/>
     <row r="48" spans="2:4">
-      <c r="B48" s="166" t="s">
+      <c r="B48" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="167"/>
+      <c r="C48" s="165"/>
       <c r="D48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B49" s="168"/>
-      <c r="C49" s="169"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="167"/>
     </row>
     <row r="50" spans="2:4" ht="14.25" thickBot="1"/>
     <row r="51" spans="2:4">
-      <c r="B51" s="170" t="s">
+      <c r="B51" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="171"/>
+      <c r="C51" s="169"/>
       <c r="D51" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B52" s="172"/>
-      <c r="C52" s="173"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="171"/>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="10"/>

--- a/【JAPTOOL】Project Schedule Offshore.xlsx
+++ b/【JAPTOOL】Project Schedule Offshore.xlsx
@@ -19,7 +19,7 @@
     <definedName name="Excel_BuiltIn_Print_Titles">NA()</definedName>
     <definedName name="Holiday" localSheetId="0">Setting!$C$5:$C$104</definedName>
     <definedName name="Holiday">Setting!$C$5:$C$104</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Master-Detail'!$B$1:$AJ$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Master-Detail'!$B$1:$AJ$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Master-Detail'!$1:$10</definedName>
     <definedName name="syupo">[1]リスト!$H$2:$H$4</definedName>
   </definedNames>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
   <si>
     <t>○</t>
     <phoneticPr fontId="3"/>
@@ -347,6 +347,15 @@
   </si>
   <si>
     <t>Layout library page</t>
+  </si>
+  <si>
+    <t>Google Analytics</t>
+  </si>
+  <si>
+    <t>Guide using GA</t>
+  </si>
+  <si>
+    <t>Document</t>
   </si>
 </sst>
 </file>
@@ -1574,6 +1583,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -1642,36 +1659,92 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1718,26 +1791,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1752,54 +1809,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1867,7 +1876,469 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="435">
+  <dxfs count="309">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3639,1350 +4110,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5562,13 +4689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AJ58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="14" ySplit="10" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35:E36"/>
+      <selection pane="bottomRight" activeCell="V55" sqref="V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -5613,10 +4740,10 @@
       <c r="H1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="128"/>
+      <c r="J1" s="147"/>
       <c r="K1" s="46"/>
       <c r="L1" s="47" t="s">
         <v>47</v>
@@ -5624,8 +4751,8 @@
       <c r="M1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
       <c r="P1" s="49"/>
       <c r="Q1" s="50"/>
       <c r="R1" s="50"/>
@@ -5707,27 +4834,27 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61">
-        <f ca="1">COUNTIF(N15:N54,"=△") + COUNTIF(N15:N54,"=○") +COUNTIF(N15:N54,"=★") + COUNTIF(N15:N54,"=◇")+ COUNTIF(N15:N54,"=▲")</f>
-        <v>14</v>
+        <f ca="1">COUNTIF(N15:N58,"=△") + COUNTIF(N15:N58,"=○") +COUNTIF(N15:N58,"=★") + COUNTIF(N15:N58,"=◇")+ COUNTIF(N15:N58,"=▲")</f>
+        <v>15</v>
       </c>
       <c r="I3" s="61">
-        <f ca="1">COUNTIF(N15:N54,"=○")</f>
+        <f ca="1">COUNTIF(N15:N58,"=○")</f>
         <v>0</v>
       </c>
       <c r="J3" s="61">
-        <f ca="1">COUNTIF(N15:N54,"=△") + COUNTIF(N15:N54,"=▲")  +  COUNTIF(N15:N54,"=★")</f>
-        <v>14</v>
+        <f ca="1">COUNTIF(N15:N58,"=△") + COUNTIF(N15:N58,"=▲")  +  COUNTIF(N15:N58,"=★")</f>
+        <v>15</v>
       </c>
       <c r="K3" s="61">
-        <f ca="1">COUNTIF(N15:N54,"=◇")</f>
+        <f ca="1">COUNTIF(N15:N58,"=◇")</f>
         <v>0</v>
       </c>
       <c r="L3" s="61">
-        <f ca="1">COUNTIF(N15:N54,"=▲")</f>
+        <f ca="1">COUNTIF(N15:N58,"=▲")</f>
         <v>0</v>
       </c>
       <c r="M3" s="61">
-        <f ca="1">COUNTIF(N15:N54,"=★")</f>
+        <f ca="1">COUNTIF(N15:N58,"=★")</f>
         <v>0</v>
       </c>
       <c r="N3" s="50"/>
@@ -5842,19 +4969,19 @@
     </row>
     <row r="7" spans="1:36" ht="18.75" customHeight="1">
       <c r="A7" s="71"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="125" t="s">
+      <c r="B7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="146"/>
       <c r="M7" s="71"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -5871,44 +4998,44 @@
     </row>
     <row r="8" spans="1:36" ht="18.75" customHeight="1">
       <c r="A8" s="71"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="124"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="143"/>
       <c r="I8" s="72">
-        <f>MIN(I15:I54)</f>
+        <f>MIN(I15:I58)</f>
         <v>42172</v>
       </c>
       <c r="J8" s="72">
-        <f>MAX(J15:J54)</f>
+        <f>MAX(J15:J58)</f>
         <v>42174</v>
       </c>
       <c r="K8" s="72">
-        <f>IF(MIN(K15:K54)=DATE(1900,1,0),"",MIN(K15:K54))</f>
+        <f>IF(MIN(K15:K58)=DATE(1900,1,0),"",MIN(K15:K58))</f>
         <v>42172</v>
       </c>
-      <c r="L8" s="72" t="str">
-        <f>IF(MAX(L15:L54)=DATE(1900,1,0),"",MAX(L15:L54))</f>
-        <v/>
+      <c r="L8" s="72">
+        <f>IF(MAX(L15:L58)=DATE(1900,1,0),"",MAX(L15:L58))</f>
+        <v>42172</v>
       </c>
       <c r="M8" s="73"/>
       <c r="N8" s="74" t="str">
         <f>TEXT(T9,"yyyy")</f>
         <v>2015</v>
       </c>
-      <c r="O8" s="146">
-        <f>SUM(P15:P54)</f>
-        <v>14</v>
-      </c>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="146">
-        <f>SUM(R15:R54)</f>
+      <c r="O8" s="132">
+        <f>SUM(P15:P58)</f>
+        <v>15</v>
+      </c>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="132">
+        <f>SUM(R15:R58)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="147"/>
+      <c r="R8" s="133"/>
       <c r="S8" s="75">
         <v>6</v>
       </c>
@@ -5965,52 +5092,52 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH8" s="138" t="s">
+      <c r="AH8" s="120" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="D9" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="131" t="s">
+      <c r="E9" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="134" t="s">
+      <c r="F9" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="129" t="s">
+      <c r="G9" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="139" t="s">
+      <c r="I9" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="140"/>
-      <c r="K9" s="139" t="s">
+      <c r="J9" s="126"/>
+      <c r="K9" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="141"/>
-      <c r="M9" s="142" t="s">
+      <c r="L9" s="127"/>
+      <c r="M9" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="143"/>
-      <c r="O9" s="148" t="s">
+      <c r="N9" s="129"/>
+      <c r="O9" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="149"/>
-      <c r="Q9" s="150" t="s">
+      <c r="P9" s="135"/>
+      <c r="Q9" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="149"/>
+      <c r="R9" s="135"/>
       <c r="S9" s="77">
         <v>42171</v>
       </c>
@@ -6056,16 +5183,16 @@
       <c r="AG9" s="77">
         <v>42185</v>
       </c>
-      <c r="AH9" s="138"/>
+      <c r="AH9" s="120"/>
     </row>
     <row r="10" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B10" s="130"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="137"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="152"/>
       <c r="I10" s="78" t="s">
         <v>18</v>
       </c>
@@ -6078,8 +5205,8 @@
       <c r="L10" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="144"/>
-      <c r="N10" s="145"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="131"/>
       <c r="O10" s="82" t="s">
         <v>3</v>
       </c>
@@ -6152,41 +5279,41 @@
         <f t="shared" si="2"/>
         <v>42185</v>
       </c>
-      <c r="AH10" s="138"/>
+      <c r="AH10" s="120"/>
     </row>
     <row r="11" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B11" s="98">
+      <c r="B11" s="100">
         <f>(ROW()-10)/2+0.5</f>
         <v>1</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="91" t="str">
+      <c r="C11" s="102"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="93" t="str">
         <f ca="1">IF(B11="","",IF(AND(I11="",J11="",K11="",L11=""),"",IF(OR(I11="",J11=""),"?",IF(AND(I11&lt;&gt;"",J11&lt;&gt;"",K11&lt;&gt;"",L11&lt;&gt;"",M11=100),"○",IF(AND(I11&lt;=TODAY(),J11&gt;=TODAY(),K11=""),"▲",  IF(J11&lt;TODAY(),"★",IF(K11&lt;&gt;"","△",IF(AND(I11&lt;&gt;""),"◇",""))))))))</f>
         <v/>
       </c>
-      <c r="O11" s="93" t="str">
+      <c r="O11" s="95" t="str">
         <f>IF(COUNTA(S11:X11)=0,"",SUMPRODUCT(--(ISNUMBER(S11:X11)),S11:X11)+ (COUNTA(S11:X11)-COUNT(S11:X11))*8)</f>
         <v/>
       </c>
-      <c r="P11" s="95" t="str">
+      <c r="P11" s="97" t="str">
         <f t="shared" ref="P11" si="3">IF(O11="","",ROUND(O11/8,2))</f>
         <v/>
       </c>
-      <c r="Q11" s="93" t="str">
+      <c r="Q11" s="95" t="str">
         <f>IF(COUNTA(S12:X12)=0,"",SUMPRODUCT(--(ISNUMBER(S12:X12)),S12:X12)+ (COUNTA(S12:X12)-COUNT(S12:X12))*8)</f>
         <v/>
       </c>
-      <c r="R11" s="95" t="str">
+      <c r="R11" s="97" t="str">
         <f t="shared" ref="R11" si="4">IF(Q11="","",ROUND(Q11/8,2))</f>
         <v/>
       </c>
@@ -6205,26 +5332,26 @@
       <c r="AE11" s="85"/>
       <c r="AF11" s="85"/>
       <c r="AG11" s="85"/>
-      <c r="AH11" s="97"/>
+      <c r="AH11" s="99"/>
     </row>
     <row r="12" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B12" s="99"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="96"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="98"/>
       <c r="S12" s="86"/>
       <c r="T12" s="86"/>
       <c r="U12" s="86"/>
@@ -6240,41 +5367,41 @@
       <c r="AE12" s="86"/>
       <c r="AF12" s="86"/>
       <c r="AG12" s="86"/>
-      <c r="AH12" s="97"/>
+      <c r="AH12" s="99"/>
     </row>
     <row r="13" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B13" s="98">
+      <c r="B13" s="100">
         <f t="shared" ref="B13" si="5">(ROW()-10)/2+0.5</f>
         <v>2</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="91" t="str">
+      <c r="C13" s="102"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="93" t="str">
         <f ca="1">IF(B13="","",IF(AND(I13="",J13="",K13="",L13=""),"",IF(OR(I13="",J13=""),"?",IF(AND(I13&lt;&gt;"",J13&lt;&gt;"",K13&lt;&gt;"",L13&lt;&gt;"",M13=100),"○",IF(AND(I13&lt;=TODAY(),J13&gt;=TODAY(),K13=""),"▲",  IF(J13&lt;TODAY(),"★",IF(K13&lt;&gt;"","△",IF(AND(I13&lt;&gt;""),"◇",""))))))))</f>
         <v/>
       </c>
-      <c r="O13" s="93" t="str">
+      <c r="O13" s="95" t="str">
         <f>IF(COUNTA(S13:X13)=0,"",SUMPRODUCT(--(ISNUMBER(S13:X13)),S13:X13)+ (COUNTA(S13:X13)-COUNT(S13:X13))*8)</f>
         <v/>
       </c>
-      <c r="P13" s="95" t="str">
+      <c r="P13" s="97" t="str">
         <f t="shared" ref="P13" si="6">IF(O13="","",ROUND(O13/8,2))</f>
         <v/>
       </c>
-      <c r="Q13" s="93" t="str">
+      <c r="Q13" s="95" t="str">
         <f>IF(COUNTA(S14:X14)=0,"",SUMPRODUCT(--(ISNUMBER(S14:X14)),S14:X14)+ (COUNTA(S14:X14)-COUNT(S14:X14))*8)</f>
         <v/>
       </c>
-      <c r="R13" s="95" t="str">
+      <c r="R13" s="97" t="str">
         <f t="shared" ref="R13" si="7">IF(Q13="","",ROUND(Q13/8,2))</f>
         <v/>
       </c>
@@ -6293,26 +5420,26 @@
       <c r="AE13" s="85"/>
       <c r="AF13" s="85"/>
       <c r="AG13" s="85"/>
-      <c r="AH13" s="97"/>
+      <c r="AH13" s="99"/>
     </row>
     <row r="14" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B14" s="99"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="96"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="98"/>
       <c r="S14" s="86"/>
       <c r="T14" s="86"/>
       <c r="U14" s="86"/>
@@ -6328,40 +5455,40 @@
       <c r="AE14" s="86"/>
       <c r="AF14" s="86"/>
       <c r="AG14" s="86"/>
-      <c r="AH14" s="97"/>
+      <c r="AH14" s="99"/>
     </row>
     <row r="15" spans="1:36" ht="13.5" customHeight="1">
       <c r="B15" s="116">
         <f>(ROW()-10)/2+0.5</f>
         <v>3</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="F15" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="104"/>
-      <c r="H15" s="106" t="s">
+      <c r="G15" s="106"/>
+      <c r="H15" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="108">
+      <c r="I15" s="89">
         <v>42172</v>
       </c>
-      <c r="J15" s="108">
+      <c r="J15" s="89">
         <v>42174</v>
       </c>
-      <c r="K15" s="108">
+      <c r="K15" s="89">
         <v>42172</v>
       </c>
-      <c r="L15" s="108"/>
-      <c r="M15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="91"/>
       <c r="N15" s="110" t="str">
         <f ca="1">IF(B15="","",IF(AND(I15="",J15="",K15="",L15=""),"",IF(OR(I15="",J15=""),"?",IF(AND(I15&lt;&gt;"",J15&lt;&gt;"",K15&lt;&gt;"",L15&lt;&gt;"",M15=100),"○",IF(AND(I15&lt;=TODAY(),J15&gt;=TODAY(),K15=""),"▲",  IF(J15&lt;TODAY(),"★",IF(K15&lt;&gt;"","△",IF(AND(I15&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
@@ -6399,21 +5526,21 @@
       <c r="AE15" s="85"/>
       <c r="AF15" s="85"/>
       <c r="AG15" s="85"/>
-      <c r="AH15" s="97"/>
+      <c r="AH15" s="99"/>
     </row>
     <row r="16" spans="1:36" ht="13.5" customHeight="1">
       <c r="B16" s="117"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="90"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="92"/>
       <c r="N16" s="111"/>
       <c r="O16" s="113"/>
       <c r="P16" s="115"/>
@@ -6434,53 +5561,53 @@
       <c r="AE16" s="86"/>
       <c r="AF16" s="86"/>
       <c r="AG16" s="86"/>
-      <c r="AH16" s="97"/>
+      <c r="AH16" s="99"/>
     </row>
     <row r="17" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B17" s="98">
+      <c r="B17" s="100">
         <f t="shared" ref="B17:B19" si="9">(ROW()-10)/2+0.5</f>
         <v>4</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102" t="s">
+      <c r="C17" s="102"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="104" t="s">
+      <c r="F17" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="106" t="s">
+      <c r="G17" s="106"/>
+      <c r="H17" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="108">
+      <c r="I17" s="89">
         <v>42172</v>
       </c>
-      <c r="J17" s="108">
+      <c r="J17" s="89">
         <v>42174</v>
       </c>
-      <c r="K17" s="108">
+      <c r="K17" s="89">
         <v>42172</v>
       </c>
-      <c r="L17" s="108"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="91" t="str">
+      <c r="L17" s="89"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="93" t="str">
         <f ca="1">IF(B17="","",IF(AND(I17="",J17="",K17="",L17=""),"",IF(OR(I17="",J17=""),"?",IF(AND(I17&lt;&gt;"",J17&lt;&gt;"",K17&lt;&gt;"",L17&lt;&gt;"",M17=100),"○",IF(AND(I17&lt;=TODAY(),J17&gt;=TODAY(),K17=""),"▲",  IF(J17&lt;TODAY(),"★",IF(K17&lt;&gt;"","△",IF(AND(I17&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O17" s="93">
+      <c r="O17" s="95">
         <f>IF(COUNTA(S17:X17)=0,"",SUMPRODUCT(--(ISNUMBER(S17:X17)),S17:X17)+ (COUNTA(S17:X17)-COUNT(S17:X17))*8)</f>
         <v>8</v>
       </c>
-      <c r="P17" s="95">
+      <c r="P17" s="97">
         <f t="shared" ref="P17" si="10">IF(O17="","",ROUND(O17/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="93" t="str">
+      <c r="Q17" s="95" t="str">
         <f>IF(COUNTA(S18:X18)=0,"",SUMPRODUCT(--(ISNUMBER(S18:X18)),S18:X18)+ (COUNTA(S18:X18)-COUNT(S18:X18))*8)</f>
         <v/>
       </c>
-      <c r="R17" s="95" t="str">
+      <c r="R17" s="97" t="str">
         <f t="shared" ref="R17" si="11">IF(Q17="","",ROUND(Q17/8,2))</f>
         <v/>
       </c>
@@ -6501,26 +5628,26 @@
       <c r="AE17" s="85"/>
       <c r="AF17" s="85"/>
       <c r="AG17" s="85"/>
-      <c r="AH17" s="97"/>
+      <c r="AH17" s="99"/>
     </row>
     <row r="18" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B18" s="99"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="96"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="98"/>
       <c r="S18" s="86"/>
       <c r="T18" s="86"/>
       <c r="U18" s="86"/>
@@ -6536,51 +5663,51 @@
       <c r="AE18" s="86"/>
       <c r="AF18" s="86"/>
       <c r="AG18" s="86"/>
-      <c r="AH18" s="97"/>
+      <c r="AH18" s="99"/>
     </row>
     <row r="19" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B19" s="98">
+      <c r="B19" s="100">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="104" t="s">
+      <c r="C19" s="102"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="104"/>
-      <c r="H19" s="106" t="s">
+      <c r="G19" s="106"/>
+      <c r="H19" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="108">
+      <c r="I19" s="89">
         <v>42172</v>
       </c>
-      <c r="J19" s="108">
+      <c r="J19" s="89">
         <v>42174</v>
       </c>
-      <c r="K19" s="108">
+      <c r="K19" s="89">
         <v>42172</v>
       </c>
-      <c r="L19" s="108"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="91" t="str">
+      <c r="L19" s="89"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="93" t="str">
         <f ca="1">IF(B19="","",IF(AND(I19="",J19="",K19="",L19=""),"",IF(OR(I19="",J19=""),"?",IF(AND(I19&lt;&gt;"",J19&lt;&gt;"",K19&lt;&gt;"",L19&lt;&gt;"",M19=100),"○",IF(AND(I19&lt;=TODAY(),J19&gt;=TODAY(),K19=""),"▲",  IF(J19&lt;TODAY(),"★",IF(K19&lt;&gt;"","△",IF(AND(I19&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O19" s="93">
+      <c r="O19" s="95">
         <f>IF(COUNTA(S19:X19)=0,"",SUMPRODUCT(--(ISNUMBER(S19:X19)),S19:X19)+ (COUNTA(S19:X19)-COUNT(S19:X19))*8)</f>
         <v>8</v>
       </c>
-      <c r="P19" s="95">
+      <c r="P19" s="97">
         <f t="shared" ref="P19" si="12">IF(O19="","",ROUND(O19/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="93" t="str">
+      <c r="Q19" s="95" t="str">
         <f>IF(COUNTA(S20:X20)=0,"",SUMPRODUCT(--(ISNUMBER(S20:X20)),S20:X20)+ (COUNTA(S20:X20)-COUNT(S20:X20))*8)</f>
         <v/>
       </c>
-      <c r="R19" s="95" t="str">
+      <c r="R19" s="97" t="str">
         <f t="shared" ref="R19" si="13">IF(Q19="","",ROUND(Q19/8,2))</f>
         <v/>
       </c>
@@ -6601,26 +5728,26 @@
       <c r="AE19" s="85"/>
       <c r="AF19" s="85"/>
       <c r="AG19" s="85"/>
-      <c r="AH19" s="97"/>
+      <c r="AH19" s="99"/>
     </row>
     <row r="20" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B20" s="99"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="96"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="98"/>
       <c r="S20" s="86"/>
       <c r="T20" s="86"/>
       <c r="U20" s="86"/>
@@ -6636,41 +5763,41 @@
       <c r="AE20" s="86"/>
       <c r="AF20" s="86"/>
       <c r="AG20" s="86"/>
-      <c r="AH20" s="97"/>
+      <c r="AH20" s="99"/>
     </row>
     <row r="21" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B21" s="98">
+      <c r="B21" s="100">
         <f t="shared" ref="B21" si="14">(ROW()-10)/2+0.5</f>
         <v>6</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="91" t="str">
+      <c r="C21" s="102"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="93" t="str">
         <f ca="1">IF(B21="","",IF(AND(I21="",J21="",K21="",L21=""),"",IF(OR(I21="",J21=""),"?",IF(AND(I21&lt;&gt;"",J21&lt;&gt;"",K21&lt;&gt;"",L21&lt;&gt;"",M21=100),"○",IF(AND(I21&lt;=TODAY(),J21&gt;=TODAY(),K21=""),"▲",  IF(J21&lt;TODAY(),"★",IF(K21&lt;&gt;"","△",IF(AND(I21&lt;&gt;""),"◇",""))))))))</f>
         <v/>
       </c>
-      <c r="O21" s="93" t="str">
+      <c r="O21" s="95" t="str">
         <f>IF(COUNTA(S21:X21)=0,"",SUMPRODUCT(--(ISNUMBER(S21:X21)),S21:X21)+ (COUNTA(S21:X21)-COUNT(S21:X21))*8)</f>
         <v/>
       </c>
-      <c r="P21" s="95" t="str">
+      <c r="P21" s="97" t="str">
         <f t="shared" ref="P21" si="15">IF(O21="","",ROUND(O21/8,2))</f>
         <v/>
       </c>
-      <c r="Q21" s="93" t="str">
+      <c r="Q21" s="95" t="str">
         <f>IF(COUNTA(S22:X22)=0,"",SUMPRODUCT(--(ISNUMBER(S22:X22)),S22:X22)+ (COUNTA(S22:X22)-COUNT(S22:X22))*8)</f>
         <v/>
       </c>
-      <c r="R21" s="95" t="str">
+      <c r="R21" s="97" t="str">
         <f t="shared" ref="R21" si="16">IF(Q21="","",ROUND(Q21/8,2))</f>
         <v/>
       </c>
@@ -6689,26 +5816,26 @@
       <c r="AE21" s="85"/>
       <c r="AF21" s="85"/>
       <c r="AG21" s="85"/>
-      <c r="AH21" s="97"/>
+      <c r="AH21" s="99"/>
     </row>
     <row r="22" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B22" s="99"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="96"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="98"/>
       <c r="S22" s="86"/>
       <c r="T22" s="86"/>
       <c r="U22" s="86"/>
@@ -6724,38 +5851,38 @@
       <c r="AE22" s="86"/>
       <c r="AF22" s="86"/>
       <c r="AG22" s="86"/>
-      <c r="AH22" s="97"/>
+      <c r="AH22" s="99"/>
     </row>
     <row r="23" spans="2:34" ht="13.5" customHeight="1">
       <c r="B23" s="116">
         <f>(ROW()-10)/2+0.5</f>
         <v>7</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="102" t="s">
+      <c r="C23" s="102"/>
+      <c r="D23" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="102" t="s">
+      <c r="E23" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="104" t="s">
+      <c r="F23" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="104"/>
-      <c r="H23" s="106" t="s">
+      <c r="G23" s="106"/>
+      <c r="H23" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="108">
+      <c r="I23" s="89">
         <v>42172</v>
       </c>
-      <c r="J23" s="108">
+      <c r="J23" s="89">
         <v>42174</v>
       </c>
-      <c r="K23" s="108">
+      <c r="K23" s="89">
         <v>42172</v>
       </c>
-      <c r="L23" s="108"/>
-      <c r="M23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="91"/>
       <c r="N23" s="110" t="str">
         <f ca="1">IF(B23="","",IF(AND(I23="",J23="",K23="",L23=""),"",IF(OR(I23="",J23=""),"?",IF(AND(I23&lt;&gt;"",J23&lt;&gt;"",K23&lt;&gt;"",L23&lt;&gt;"",M23=100),"○",IF(AND(I23&lt;=TODAY(),J23&gt;=TODAY(),K23=""),"▲",  IF(J23&lt;TODAY(),"★",IF(K23&lt;&gt;"","△",IF(AND(I23&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
@@ -6793,21 +5920,21 @@
       <c r="AE23" s="85"/>
       <c r="AF23" s="85"/>
       <c r="AG23" s="85"/>
-      <c r="AH23" s="97"/>
+      <c r="AH23" s="99"/>
     </row>
     <row r="24" spans="2:34" ht="13.5" customHeight="1">
       <c r="B24" s="117"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="90"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="92"/>
       <c r="N24" s="111"/>
       <c r="O24" s="113"/>
       <c r="P24" s="115"/>
@@ -6828,53 +5955,53 @@
       <c r="AE24" s="86"/>
       <c r="AF24" s="86"/>
       <c r="AG24" s="86"/>
-      <c r="AH24" s="97"/>
+      <c r="AH24" s="99"/>
     </row>
     <row r="25" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B25" s="98">
+      <c r="B25" s="100">
         <f t="shared" ref="B25" si="18">(ROW()-10)/2+0.5</f>
         <v>8</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102" t="s">
+      <c r="C25" s="102"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="F25" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="104"/>
-      <c r="H25" s="106" t="s">
+      <c r="G25" s="106"/>
+      <c r="H25" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="108">
+      <c r="I25" s="89">
         <v>42172</v>
       </c>
-      <c r="J25" s="108">
+      <c r="J25" s="89">
         <v>42174</v>
       </c>
-      <c r="K25" s="108">
+      <c r="K25" s="89">
         <v>42172</v>
       </c>
-      <c r="L25" s="108"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="91" t="str">
+      <c r="L25" s="89"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="93" t="str">
         <f ca="1">IF(B25="","",IF(AND(I25="",J25="",K25="",L25=""),"",IF(OR(I25="",J25=""),"?",IF(AND(I25&lt;&gt;"",J25&lt;&gt;"",K25&lt;&gt;"",L25&lt;&gt;"",M25=100),"○",IF(AND(I25&lt;=TODAY(),J25&gt;=TODAY(),K25=""),"▲",  IF(J25&lt;TODAY(),"★",IF(K25&lt;&gt;"","△",IF(AND(I25&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O25" s="93">
+      <c r="O25" s="95">
         <f>IF(COUNTA(S25:X25)=0,"",SUMPRODUCT(--(ISNUMBER(S25:X25)),S25:X25)+ (COUNTA(S25:X25)-COUNT(S25:X25))*8)</f>
         <v>8</v>
       </c>
-      <c r="P25" s="95">
+      <c r="P25" s="97">
         <f t="shared" ref="P25" si="19">IF(O25="","",ROUND(O25/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="93" t="str">
+      <c r="Q25" s="95" t="str">
         <f>IF(COUNTA(S26:X26)=0,"",SUMPRODUCT(--(ISNUMBER(S26:X26)),S26:X26)+ (COUNTA(S26:X26)-COUNT(S26:X26))*8)</f>
         <v/>
       </c>
-      <c r="R25" s="95" t="str">
+      <c r="R25" s="97" t="str">
         <f t="shared" ref="R25" si="20">IF(Q25="","",ROUND(Q25/8,2))</f>
         <v/>
       </c>
@@ -6895,26 +6022,26 @@
       <c r="AE25" s="85"/>
       <c r="AF25" s="85"/>
       <c r="AG25" s="85"/>
-      <c r="AH25" s="97"/>
+      <c r="AH25" s="99"/>
     </row>
     <row r="26" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B26" s="99"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="96"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="98"/>
       <c r="S26" s="86"/>
       <c r="T26" s="86"/>
       <c r="U26" s="86"/>
@@ -6930,36 +6057,36 @@
       <c r="AE26" s="86"/>
       <c r="AF26" s="86"/>
       <c r="AG26" s="86"/>
-      <c r="AH26" s="97"/>
+      <c r="AH26" s="99"/>
     </row>
     <row r="27" spans="2:34" ht="13.5" customHeight="1">
       <c r="B27" s="116">
         <f>(ROW()-10)/2+0.5</f>
         <v>9</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102" t="s">
+      <c r="C27" s="102"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="104" t="s">
+      <c r="F27" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="104"/>
-      <c r="H27" s="106" t="s">
+      <c r="G27" s="106"/>
+      <c r="H27" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="108">
+      <c r="I27" s="89">
         <v>42172</v>
       </c>
-      <c r="J27" s="108">
+      <c r="J27" s="89">
         <v>42174</v>
       </c>
-      <c r="K27" s="108">
+      <c r="K27" s="89">
         <v>42172</v>
       </c>
-      <c r="L27" s="108"/>
-      <c r="M27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="91"/>
       <c r="N27" s="110" t="str">
         <f ca="1">IF(B27="","",IF(AND(I27="",J27="",K27="",L27=""),"",IF(OR(I27="",J27=""),"?",IF(AND(I27&lt;&gt;"",J27&lt;&gt;"",K27&lt;&gt;"",L27&lt;&gt;"",M27=100),"○",IF(AND(I27&lt;=TODAY(),J27&gt;=TODAY(),K27=""),"▲",  IF(J27&lt;TODAY(),"★",IF(K27&lt;&gt;"","△",IF(AND(I27&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
@@ -6997,21 +6124,21 @@
       <c r="AE27" s="85"/>
       <c r="AF27" s="85"/>
       <c r="AG27" s="85"/>
-      <c r="AH27" s="97"/>
+      <c r="AH27" s="99"/>
     </row>
     <row r="28" spans="2:34" ht="13.5" customHeight="1">
       <c r="B28" s="117"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="90"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="92"/>
       <c r="N28" s="111"/>
       <c r="O28" s="113"/>
       <c r="P28" s="115"/>
@@ -7032,53 +6159,53 @@
       <c r="AE28" s="86"/>
       <c r="AF28" s="86"/>
       <c r="AG28" s="86"/>
-      <c r="AH28" s="97"/>
+      <c r="AH28" s="99"/>
     </row>
     <row r="29" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B29" s="98">
+      <c r="B29" s="100">
         <f t="shared" ref="B29" si="22">(ROW()-10)/2+0.5</f>
         <v>10</v>
       </c>
-      <c r="C29" s="100"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102" t="s">
+      <c r="C29" s="102"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="104" t="s">
+      <c r="F29" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="104"/>
-      <c r="H29" s="106" t="s">
+      <c r="G29" s="106"/>
+      <c r="H29" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="108">
+      <c r="I29" s="89">
         <v>42172</v>
       </c>
-      <c r="J29" s="108">
+      <c r="J29" s="89">
         <v>42174</v>
       </c>
-      <c r="K29" s="108">
+      <c r="K29" s="89">
         <v>42172</v>
       </c>
-      <c r="L29" s="108"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="91" t="str">
+      <c r="L29" s="89"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="93" t="str">
         <f ca="1">IF(B29="","",IF(AND(I29="",J29="",K29="",L29=""),"",IF(OR(I29="",J29=""),"?",IF(AND(I29&lt;&gt;"",J29&lt;&gt;"",K29&lt;&gt;"",L29&lt;&gt;"",M29=100),"○",IF(AND(I29&lt;=TODAY(),J29&gt;=TODAY(),K29=""),"▲",  IF(J29&lt;TODAY(),"★",IF(K29&lt;&gt;"","△",IF(AND(I29&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O29" s="93">
+      <c r="O29" s="95">
         <f>IF(COUNTA(S29:X29)=0,"",SUMPRODUCT(--(ISNUMBER(S29:X29)),S29:X29)+ (COUNTA(S29:X29)-COUNT(S29:X29))*8)</f>
         <v>8</v>
       </c>
-      <c r="P29" s="95">
+      <c r="P29" s="97">
         <f t="shared" ref="P29" si="23">IF(O29="","",ROUND(O29/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q29" s="93" t="str">
+      <c r="Q29" s="95" t="str">
         <f>IF(COUNTA(S30:X30)=0,"",SUMPRODUCT(--(ISNUMBER(S30:X30)),S30:X30)+ (COUNTA(S30:X30)-COUNT(S30:X30))*8)</f>
         <v/>
       </c>
-      <c r="R29" s="95" t="str">
+      <c r="R29" s="97" t="str">
         <f t="shared" ref="R29" si="24">IF(Q29="","",ROUND(Q29/8,2))</f>
         <v/>
       </c>
@@ -7099,26 +6226,26 @@
       <c r="AE29" s="85"/>
       <c r="AF29" s="85"/>
       <c r="AG29" s="85"/>
-      <c r="AH29" s="97"/>
+      <c r="AH29" s="99"/>
     </row>
     <row r="30" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B30" s="99"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="96"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="98"/>
       <c r="S30" s="86"/>
       <c r="T30" s="86"/>
       <c r="U30" s="86"/>
@@ -7134,29 +6261,29 @@
       <c r="AE30" s="86"/>
       <c r="AF30" s="86"/>
       <c r="AG30" s="86"/>
-      <c r="AH30" s="97"/>
+      <c r="AH30" s="99"/>
     </row>
     <row r="31" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B31" s="98">
+      <c r="B31" s="100">
         <f>(ROW()-10)/2+0.5</f>
         <v>11</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="95"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="97"/>
       <c r="S31" s="85"/>
       <c r="T31" s="85"/>
       <c r="U31" s="85"/>
@@ -7172,26 +6299,26 @@
       <c r="AE31" s="85"/>
       <c r="AF31" s="85"/>
       <c r="AG31" s="85"/>
-      <c r="AH31" s="97"/>
+      <c r="AH31" s="99"/>
     </row>
     <row r="32" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B32" s="99"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="96"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="98"/>
       <c r="S32" s="86"/>
       <c r="T32" s="86"/>
       <c r="U32" s="86"/>
@@ -7207,38 +6334,38 @@
       <c r="AE32" s="86"/>
       <c r="AF32" s="86"/>
       <c r="AG32" s="86"/>
-      <c r="AH32" s="97"/>
+      <c r="AH32" s="99"/>
     </row>
     <row r="33" spans="2:34" ht="13.5" customHeight="1">
       <c r="B33" s="116">
         <f>(ROW()-10)/2+0.5</f>
         <v>12</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="102" t="s">
+      <c r="C33" s="102"/>
+      <c r="D33" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="102" t="s">
+      <c r="E33" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="104" t="s">
+      <c r="F33" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="104"/>
-      <c r="H33" s="106" t="s">
+      <c r="G33" s="106"/>
+      <c r="H33" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="108">
+      <c r="I33" s="89">
         <v>42172</v>
       </c>
-      <c r="J33" s="108">
+      <c r="J33" s="89">
         <v>42174</v>
       </c>
-      <c r="K33" s="108">
+      <c r="K33" s="89">
         <v>42172</v>
       </c>
-      <c r="L33" s="108"/>
-      <c r="M33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="91"/>
       <c r="N33" s="110" t="str">
         <f ca="1">IF(B33="","",IF(AND(I33="",J33="",K33="",L33=""),"",IF(OR(I33="",J33=""),"?",IF(AND(I33&lt;&gt;"",J33&lt;&gt;"",K33&lt;&gt;"",L33&lt;&gt;"",M33=100),"○",IF(AND(I33&lt;=TODAY(),J33&gt;=TODAY(),K33=""),"▲",  IF(J33&lt;TODAY(),"★",IF(K33&lt;&gt;"","△",IF(AND(I33&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
@@ -7276,21 +6403,21 @@
       <c r="AE33" s="85"/>
       <c r="AF33" s="85"/>
       <c r="AG33" s="85"/>
-      <c r="AH33" s="97"/>
+      <c r="AH33" s="99"/>
     </row>
     <row r="34" spans="2:34" ht="13.5" customHeight="1">
       <c r="B34" s="117"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="90"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="92"/>
       <c r="N34" s="111"/>
       <c r="O34" s="113"/>
       <c r="P34" s="115"/>
@@ -7311,53 +6438,53 @@
       <c r="AE34" s="86"/>
       <c r="AF34" s="86"/>
       <c r="AG34" s="86"/>
-      <c r="AH34" s="97"/>
+      <c r="AH34" s="99"/>
     </row>
     <row r="35" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B35" s="98">
+      <c r="B35" s="100">
         <f t="shared" ref="B35" si="26">(ROW()-10)/2+0.5</f>
         <v>13</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102" t="s">
+      <c r="C35" s="102"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="104" t="s">
+      <c r="F35" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="104"/>
-      <c r="H35" s="106" t="s">
+      <c r="G35" s="106"/>
+      <c r="H35" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="108">
+      <c r="I35" s="89">
         <v>42172</v>
       </c>
-      <c r="J35" s="108">
+      <c r="J35" s="89">
         <v>42174</v>
       </c>
-      <c r="K35" s="108">
+      <c r="K35" s="89">
         <v>42172</v>
       </c>
-      <c r="L35" s="108"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="91" t="str">
+      <c r="L35" s="89"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="93" t="str">
         <f ca="1">IF(B35="","",IF(AND(I35="",J35="",K35="",L35=""),"",IF(OR(I35="",J35=""),"?",IF(AND(I35&lt;&gt;"",J35&lt;&gt;"",K35&lt;&gt;"",L35&lt;&gt;"",M35=100),"○",IF(AND(I35&lt;=TODAY(),J35&gt;=TODAY(),K35=""),"▲",  IF(J35&lt;TODAY(),"★",IF(K35&lt;&gt;"","△",IF(AND(I35&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O35" s="93">
+      <c r="O35" s="95">
         <f>IF(COUNTA(S35:X35)=0,"",SUMPRODUCT(--(ISNUMBER(S35:X35)),S35:X35)+ (COUNTA(S35:X35)-COUNT(S35:X35))*8)</f>
         <v>8</v>
       </c>
-      <c r="P35" s="95">
+      <c r="P35" s="97">
         <f t="shared" ref="P35" si="27">IF(O35="","",ROUND(O35/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q35" s="93" t="str">
+      <c r="Q35" s="95" t="str">
         <f>IF(COUNTA(S36:X36)=0,"",SUMPRODUCT(--(ISNUMBER(S36:X36)),S36:X36)+ (COUNTA(S36:X36)-COUNT(S36:X36))*8)</f>
         <v/>
       </c>
-      <c r="R35" s="95" t="str">
+      <c r="R35" s="97" t="str">
         <f t="shared" ref="R35" si="28">IF(Q35="","",ROUND(Q35/8,2))</f>
         <v/>
       </c>
@@ -7378,26 +6505,26 @@
       <c r="AE35" s="85"/>
       <c r="AF35" s="85"/>
       <c r="AG35" s="85"/>
-      <c r="AH35" s="97"/>
+      <c r="AH35" s="99"/>
     </row>
     <row r="36" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B36" s="99"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="96"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="98"/>
       <c r="S36" s="86"/>
       <c r="T36" s="86"/>
       <c r="U36" s="86"/>
@@ -7413,29 +6540,29 @@
       <c r="AE36" s="86"/>
       <c r="AF36" s="86"/>
       <c r="AG36" s="86"/>
-      <c r="AH36" s="97"/>
+      <c r="AH36" s="99"/>
     </row>
     <row r="37" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B37" s="98">
+      <c r="B37" s="100">
         <f>(ROW()-10)/2+0.5</f>
         <v>14</v>
       </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="95"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="97"/>
       <c r="S37" s="85"/>
       <c r="T37" s="85"/>
       <c r="U37" s="85"/>
@@ -7451,26 +6578,26 @@
       <c r="AE37" s="85"/>
       <c r="AF37" s="85"/>
       <c r="AG37" s="85"/>
-      <c r="AH37" s="97"/>
+      <c r="AH37" s="99"/>
     </row>
     <row r="38" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B38" s="99"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="94"/>
-      <c r="R38" s="96"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="98"/>
       <c r="S38" s="86"/>
       <c r="T38" s="86"/>
       <c r="U38" s="86"/>
@@ -7486,55 +6613,55 @@
       <c r="AE38" s="86"/>
       <c r="AF38" s="86"/>
       <c r="AG38" s="86"/>
-      <c r="AH38" s="97"/>
+      <c r="AH38" s="99"/>
     </row>
     <row r="39" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B39" s="98">
+      <c r="B39" s="100">
         <f t="shared" ref="B39:B41" si="29">(ROW()-10)/2+0.5</f>
         <v>15</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="102" t="s">
+      <c r="C39" s="102"/>
+      <c r="D39" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="102" t="s">
+      <c r="E39" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="104" t="s">
+      <c r="F39" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="104"/>
-      <c r="H39" s="106" t="s">
+      <c r="G39" s="106"/>
+      <c r="H39" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="I39" s="108">
+      <c r="I39" s="89">
         <v>42172</v>
       </c>
-      <c r="J39" s="108">
+      <c r="J39" s="89">
         <v>42173</v>
       </c>
-      <c r="K39" s="108">
+      <c r="K39" s="89">
         <v>42172</v>
       </c>
-      <c r="L39" s="108"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="91" t="str">
+      <c r="L39" s="89"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="93" t="str">
         <f ca="1">IF(B39="","",IF(AND(I39="",J39="",K39="",L39=""),"",IF(OR(I39="",J39=""),"?",IF(AND(I39&lt;&gt;"",J39&lt;&gt;"",K39&lt;&gt;"",L39&lt;&gt;"",M39=100),"○",IF(AND(I39&lt;=TODAY(),J39&gt;=TODAY(),K39=""),"▲",  IF(J39&lt;TODAY(),"★",IF(K39&lt;&gt;"","△",IF(AND(I39&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O39" s="93">
+      <c r="O39" s="95">
         <f>IF(COUNTA(S39:X39)=0,"",SUMPRODUCT(--(ISNUMBER(S39:X39)),S39:X39)+ (COUNTA(S39:X39)-COUNT(S39:X39))*8)</f>
         <v>8</v>
       </c>
-      <c r="P39" s="95">
+      <c r="P39" s="97">
         <f t="shared" ref="P39" si="30">IF(O39="","",ROUND(O39/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q39" s="93" t="str">
+      <c r="Q39" s="95" t="str">
         <f>IF(COUNTA(S40:X40)=0,"",SUMPRODUCT(--(ISNUMBER(S40:X40)),S40:X40)+ (COUNTA(S40:X40)-COUNT(S40:X40))*8)</f>
         <v/>
       </c>
-      <c r="R39" s="95" t="str">
+      <c r="R39" s="97" t="str">
         <f t="shared" ref="R39" si="31">IF(Q39="","",ROUND(Q39/8,2))</f>
         <v/>
       </c>
@@ -7555,26 +6682,26 @@
       <c r="AE39" s="85"/>
       <c r="AF39" s="85"/>
       <c r="AG39" s="85"/>
-      <c r="AH39" s="97"/>
+      <c r="AH39" s="99"/>
     </row>
     <row r="40" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B40" s="99"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
-      <c r="L40" s="109"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="94"/>
-      <c r="R40" s="96"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="96"/>
+      <c r="P40" s="98"/>
+      <c r="Q40" s="96"/>
+      <c r="R40" s="98"/>
       <c r="S40" s="86"/>
       <c r="T40" s="86"/>
       <c r="U40" s="86"/>
@@ -7590,53 +6717,53 @@
       <c r="AE40" s="86"/>
       <c r="AF40" s="86"/>
       <c r="AG40" s="86"/>
-      <c r="AH40" s="97"/>
+      <c r="AH40" s="99"/>
     </row>
     <row r="41" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B41" s="98">
+      <c r="B41" s="100">
         <f t="shared" si="29"/>
         <v>16</v>
       </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102" t="s">
+      <c r="C41" s="102"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="104" t="s">
+      <c r="F41" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="104"/>
-      <c r="H41" s="106" t="s">
+      <c r="G41" s="106"/>
+      <c r="H41" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="I41" s="108">
+      <c r="I41" s="89">
         <v>42172</v>
       </c>
-      <c r="J41" s="108">
+      <c r="J41" s="89">
         <v>42173</v>
       </c>
-      <c r="K41" s="108">
+      <c r="K41" s="89">
         <v>42172</v>
       </c>
-      <c r="L41" s="108"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="91" t="str">
+      <c r="L41" s="89"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="93" t="str">
         <f ca="1">IF(B41="","",IF(AND(I41="",J41="",K41="",L41=""),"",IF(OR(I41="",J41=""),"?",IF(AND(I41&lt;&gt;"",J41&lt;&gt;"",K41&lt;&gt;"",L41&lt;&gt;"",M41=100),"○",IF(AND(I41&lt;=TODAY(),J41&gt;=TODAY(),K41=""),"▲",  IF(J41&lt;TODAY(),"★",IF(K41&lt;&gt;"","△",IF(AND(I41&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O41" s="93">
+      <c r="O41" s="95">
         <f>IF(COUNTA(S41:X41)=0,"",SUMPRODUCT(--(ISNUMBER(S41:X41)),S41:X41)+ (COUNTA(S41:X41)-COUNT(S41:X41))*8)</f>
         <v>8</v>
       </c>
-      <c r="P41" s="95">
+      <c r="P41" s="97">
         <f t="shared" ref="P41" si="32">IF(O41="","",ROUND(O41/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="93" t="str">
+      <c r="Q41" s="95" t="str">
         <f>IF(COUNTA(S42:X42)=0,"",SUMPRODUCT(--(ISNUMBER(S42:X42)),S42:X42)+ (COUNTA(S42:X42)-COUNT(S42:X42))*8)</f>
         <v/>
       </c>
-      <c r="R41" s="95" t="str">
+      <c r="R41" s="97" t="str">
         <f t="shared" ref="R41" si="33">IF(Q41="","",ROUND(Q41/8,2))</f>
         <v/>
       </c>
@@ -7657,26 +6784,26 @@
       <c r="AE41" s="85"/>
       <c r="AF41" s="85"/>
       <c r="AG41" s="85"/>
-      <c r="AH41" s="97"/>
+      <c r="AH41" s="99"/>
     </row>
     <row r="42" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B42" s="99"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="92"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="96"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="92"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="98"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="98"/>
       <c r="S42" s="86"/>
       <c r="T42" s="86"/>
       <c r="U42" s="86"/>
@@ -7692,53 +6819,53 @@
       <c r="AE42" s="86"/>
       <c r="AF42" s="86"/>
       <c r="AG42" s="86"/>
-      <c r="AH42" s="97"/>
+      <c r="AH42" s="99"/>
     </row>
     <row r="43" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B43" s="98">
+      <c r="B43" s="100">
         <f t="shared" ref="B43" si="34">(ROW()-10)/2+0.5</f>
         <v>17</v>
       </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102" t="s">
+      <c r="C43" s="102"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="104" t="s">
+      <c r="F43" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="104"/>
-      <c r="H43" s="106" t="s">
+      <c r="G43" s="106"/>
+      <c r="H43" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="I43" s="108">
+      <c r="I43" s="89">
         <v>42172</v>
       </c>
-      <c r="J43" s="108">
+      <c r="J43" s="89">
         <v>42173</v>
       </c>
-      <c r="K43" s="108">
+      <c r="K43" s="89">
         <v>42172</v>
       </c>
-      <c r="L43" s="108"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="91" t="str">
+      <c r="L43" s="89"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="93" t="str">
         <f ca="1">IF(B43="","",IF(AND(I43="",J43="",K43="",L43=""),"",IF(OR(I43="",J43=""),"?",IF(AND(I43&lt;&gt;"",J43&lt;&gt;"",K43&lt;&gt;"",L43&lt;&gt;"",M43=100),"○",IF(AND(I43&lt;=TODAY(),J43&gt;=TODAY(),K43=""),"▲",  IF(J43&lt;TODAY(),"★",IF(K43&lt;&gt;"","△",IF(AND(I43&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O43" s="93">
+      <c r="O43" s="95">
         <f>IF(COUNTA(S43:X43)=0,"",SUMPRODUCT(--(ISNUMBER(S43:X43)),S43:X43)+ (COUNTA(S43:X43)-COUNT(S43:X43))*8)</f>
         <v>8</v>
       </c>
-      <c r="P43" s="95">
+      <c r="P43" s="97">
         <f t="shared" ref="P43" si="35">IF(O43="","",ROUND(O43/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q43" s="93" t="str">
+      <c r="Q43" s="95" t="str">
         <f>IF(COUNTA(S44:X44)=0,"",SUMPRODUCT(--(ISNUMBER(S44:X44)),S44:X44)+ (COUNTA(S44:X44)-COUNT(S44:X44))*8)</f>
         <v/>
       </c>
-      <c r="R43" s="95" t="str">
+      <c r="R43" s="97" t="str">
         <f t="shared" ref="R43" si="36">IF(Q43="","",ROUND(Q43/8,2))</f>
         <v/>
       </c>
@@ -7759,26 +6886,26 @@
       <c r="AE43" s="85"/>
       <c r="AF43" s="85"/>
       <c r="AG43" s="85"/>
-      <c r="AH43" s="97"/>
+      <c r="AH43" s="99"/>
     </row>
     <row r="44" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B44" s="99"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="109"/>
-      <c r="K44" s="109"/>
-      <c r="L44" s="109"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="96"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="98"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="98"/>
       <c r="S44" s="86"/>
       <c r="T44" s="86"/>
       <c r="U44" s="86"/>
@@ -7794,29 +6921,29 @@
       <c r="AE44" s="86"/>
       <c r="AF44" s="86"/>
       <c r="AG44" s="86"/>
-      <c r="AH44" s="97"/>
+      <c r="AH44" s="99"/>
     </row>
     <row r="45" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B45" s="98">
+      <c r="B45" s="100">
         <f>(ROW()-10)/2+0.5</f>
         <v>18</v>
       </c>
-      <c r="C45" s="100"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="93"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="93"/>
-      <c r="R45" s="95"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="91"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="97"/>
       <c r="S45" s="85"/>
       <c r="T45" s="85"/>
       <c r="U45" s="85"/>
@@ -7832,26 +6959,26 @@
       <c r="AE45" s="85"/>
       <c r="AF45" s="85"/>
       <c r="AG45" s="85"/>
-      <c r="AH45" s="97"/>
+      <c r="AH45" s="99"/>
     </row>
     <row r="46" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B46" s="99"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="96"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="96"/>
+      <c r="P46" s="98"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="98"/>
       <c r="S46" s="86"/>
       <c r="T46" s="86"/>
       <c r="U46" s="86"/>
@@ -7867,55 +6994,55 @@
       <c r="AE46" s="86"/>
       <c r="AF46" s="86"/>
       <c r="AG46" s="86"/>
-      <c r="AH46" s="97"/>
+      <c r="AH46" s="99"/>
     </row>
     <row r="47" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B47" s="98">
+      <c r="B47" s="100">
         <f t="shared" ref="B47" si="37">(ROW()-10)/2+0.5</f>
         <v>19</v>
       </c>
-      <c r="C47" s="100"/>
-      <c r="D47" s="102" t="s">
+      <c r="C47" s="102"/>
+      <c r="D47" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="102" t="s">
+      <c r="E47" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="104" t="s">
+      <c r="F47" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="104"/>
-      <c r="H47" s="106" t="s">
+      <c r="G47" s="106"/>
+      <c r="H47" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="I47" s="108">
+      <c r="I47" s="89">
         <v>42172</v>
       </c>
-      <c r="J47" s="108">
+      <c r="J47" s="89">
         <v>42172</v>
       </c>
-      <c r="K47" s="108">
+      <c r="K47" s="89">
         <v>42172</v>
       </c>
-      <c r="L47" s="108"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="91" t="str">
+      <c r="L47" s="89"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="93" t="str">
         <f ca="1">IF(B47="","",IF(AND(I47="",J47="",K47="",L47=""),"",IF(OR(I47="",J47=""),"?",IF(AND(I47&lt;&gt;"",J47&lt;&gt;"",K47&lt;&gt;"",L47&lt;&gt;"",M47=100),"○",IF(AND(I47&lt;=TODAY(),J47&gt;=TODAY(),K47=""),"▲",  IF(J47&lt;TODAY(),"★",IF(K47&lt;&gt;"","△",IF(AND(I47&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O47" s="93">
+      <c r="O47" s="95">
         <f>IF(COUNTA(S47:X47)=0,"",SUMPRODUCT(--(ISNUMBER(S47:X47)),S47:X47)+ (COUNTA(S47:X47)-COUNT(S47:X47))*8)</f>
         <v>8</v>
       </c>
-      <c r="P47" s="95">
+      <c r="P47" s="97">
         <f t="shared" ref="P47" si="38">IF(O47="","",ROUND(O47/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q47" s="93" t="str">
+      <c r="Q47" s="95" t="str">
         <f>IF(COUNTA(S48:X48)=0,"",SUMPRODUCT(--(ISNUMBER(S48:X48)),S48:X48)+ (COUNTA(S48:X48)-COUNT(S48:X48))*8)</f>
         <v/>
       </c>
-      <c r="R47" s="95" t="str">
+      <c r="R47" s="97" t="str">
         <f t="shared" ref="R47" si="39">IF(Q47="","",ROUND(Q47/8,2))</f>
         <v/>
       </c>
@@ -7936,26 +7063,26 @@
       <c r="AE47" s="85"/>
       <c r="AF47" s="85"/>
       <c r="AG47" s="85"/>
-      <c r="AH47" s="97"/>
+      <c r="AH47" s="99"/>
     </row>
     <row r="48" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B48" s="99"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="109"/>
-      <c r="L48" s="109"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="92"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="96"/>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="96"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="96"/>
+      <c r="P48" s="98"/>
+      <c r="Q48" s="96"/>
+      <c r="R48" s="98"/>
       <c r="S48" s="86"/>
       <c r="T48" s="86"/>
       <c r="U48" s="86"/>
@@ -7971,29 +7098,29 @@
       <c r="AE48" s="86"/>
       <c r="AF48" s="86"/>
       <c r="AG48" s="86"/>
-      <c r="AH48" s="97"/>
+      <c r="AH48" s="99"/>
     </row>
     <row r="49" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B49" s="98">
+      <c r="B49" s="100">
         <f>(ROW()-10)/2+0.5</f>
         <v>20</v>
       </c>
-      <c r="C49" s="100"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="91"/>
-      <c r="O49" s="93"/>
-      <c r="P49" s="95"/>
-      <c r="Q49" s="93"/>
-      <c r="R49" s="95"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="91"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="95"/>
+      <c r="P49" s="97"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="97"/>
       <c r="S49" s="85"/>
       <c r="T49" s="85"/>
       <c r="U49" s="85"/>
@@ -8009,26 +7136,26 @@
       <c r="AE49" s="85"/>
       <c r="AF49" s="85"/>
       <c r="AG49" s="85"/>
-      <c r="AH49" s="97"/>
+      <c r="AH49" s="99"/>
     </row>
     <row r="50" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B50" s="99"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="109"/>
-      <c r="L50" s="109"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="92"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="96"/>
-      <c r="Q50" s="94"/>
-      <c r="R50" s="96"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="92"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="96"/>
+      <c r="P50" s="98"/>
+      <c r="Q50" s="96"/>
+      <c r="R50" s="98"/>
       <c r="S50" s="86"/>
       <c r="T50" s="86"/>
       <c r="U50" s="86"/>
@@ -8044,55 +7171,55 @@
       <c r="AE50" s="86"/>
       <c r="AF50" s="86"/>
       <c r="AG50" s="86"/>
-      <c r="AH50" s="97"/>
+      <c r="AH50" s="99"/>
     </row>
     <row r="51" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B51" s="98">
-        <f t="shared" ref="B51:B52" si="40">(ROW()-10)/2+0.5</f>
+      <c r="B51" s="100">
+        <f t="shared" ref="B51" si="40">(ROW()-10)/2+0.5</f>
         <v>21</v>
       </c>
-      <c r="C51" s="100"/>
-      <c r="D51" s="102" t="s">
+      <c r="C51" s="102"/>
+      <c r="D51" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="102" t="s">
+      <c r="E51" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="104" t="s">
+      <c r="F51" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="104"/>
-      <c r="H51" s="106" t="s">
+      <c r="G51" s="106"/>
+      <c r="H51" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="I51" s="108">
+      <c r="I51" s="89">
         <v>42172</v>
       </c>
-      <c r="J51" s="108">
+      <c r="J51" s="89">
         <v>42174</v>
       </c>
-      <c r="K51" s="108">
+      <c r="K51" s="89">
         <v>42172</v>
       </c>
-      <c r="L51" s="108"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="91" t="str">
+      <c r="L51" s="89"/>
+      <c r="M51" s="91"/>
+      <c r="N51" s="93" t="str">
         <f ca="1">IF(B51="","",IF(AND(I51="",J51="",K51="",L51=""),"",IF(OR(I51="",J51=""),"?",IF(AND(I51&lt;&gt;"",J51&lt;&gt;"",K51&lt;&gt;"",L51&lt;&gt;"",M51=100),"○",IF(AND(I51&lt;=TODAY(),J51&gt;=TODAY(),K51=""),"▲",  IF(J51&lt;TODAY(),"★",IF(K51&lt;&gt;"","△",IF(AND(I51&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O51" s="93">
+      <c r="O51" s="95">
         <f>IF(COUNTA(S51:X51)=0,"",SUMPRODUCT(--(ISNUMBER(S51:X51)),S51:X51)+ (COUNTA(S51:X51)-COUNT(S51:X51))*8)</f>
         <v>8</v>
       </c>
-      <c r="P51" s="95">
+      <c r="P51" s="97">
         <f t="shared" ref="P51" si="41">IF(O51="","",ROUND(O51/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q51" s="93" t="str">
+      <c r="Q51" s="95" t="str">
         <f>IF(COUNTA(S52:X52)=0,"",SUMPRODUCT(--(ISNUMBER(S52:X52)),S52:X52)+ (COUNTA(S52:X52)-COUNT(S52:X52))*8)</f>
         <v/>
       </c>
-      <c r="R51" s="95" t="str">
+      <c r="R51" s="97" t="str">
         <f t="shared" ref="R51" si="42">IF(Q51="","",ROUND(Q51/8,2))</f>
         <v/>
       </c>
@@ -8113,26 +7240,26 @@
       <c r="AE51" s="85"/>
       <c r="AF51" s="85"/>
       <c r="AG51" s="85"/>
-      <c r="AH51" s="97"/>
+      <c r="AH51" s="99"/>
     </row>
     <row r="52" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B52" s="99"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="109"/>
-      <c r="K52" s="109"/>
-      <c r="L52" s="109"/>
-      <c r="M52" s="90"/>
-      <c r="N52" s="92"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="96"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="92"/>
+      <c r="N52" s="94"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="98"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="98"/>
       <c r="S52" s="86"/>
       <c r="T52" s="86"/>
       <c r="U52" s="86"/>
@@ -8148,29 +7275,29 @@
       <c r="AE52" s="86"/>
       <c r="AF52" s="86"/>
       <c r="AG52" s="86"/>
-      <c r="AH52" s="97"/>
-    </row>
-    <row r="53" spans="2:34" ht="50.1" customHeight="1">
-      <c r="B53" s="98">
-        <f t="shared" ref="B53" si="43">(ROW()-10)/2+0.5</f>
+      <c r="AH52" s="99"/>
+    </row>
+    <row r="53" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B53" s="100">
+        <f>(ROW()-10)/2+0.5</f>
         <v>22</v>
       </c>
-      <c r="C53" s="100"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="91"/>
-      <c r="O53" s="93"/>
-      <c r="P53" s="95"/>
-      <c r="Q53" s="93"/>
-      <c r="R53" s="95"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="91"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="95"/>
+      <c r="P53" s="97"/>
+      <c r="Q53" s="95"/>
+      <c r="R53" s="97"/>
       <c r="S53" s="85"/>
       <c r="T53" s="85"/>
       <c r="U53" s="85"/>
@@ -8186,26 +7313,26 @@
       <c r="AE53" s="85"/>
       <c r="AF53" s="85"/>
       <c r="AG53" s="85"/>
-      <c r="AH53" s="97"/>
+      <c r="AH53" s="99"/>
     </row>
     <row r="54" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B54" s="99"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="109"/>
-      <c r="L54" s="109"/>
-      <c r="M54" s="90"/>
-      <c r="N54" s="92"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="96"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="96"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="92"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="96"/>
+      <c r="P54" s="98"/>
+      <c r="Q54" s="96"/>
+      <c r="R54" s="98"/>
       <c r="S54" s="86"/>
       <c r="T54" s="86"/>
       <c r="U54" s="86"/>
@@ -8221,7 +7348,186 @@
       <c r="AE54" s="86"/>
       <c r="AF54" s="86"/>
       <c r="AG54" s="86"/>
-      <c r="AH54" s="97"/>
+      <c r="AH54" s="99"/>
+    </row>
+    <row r="55" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B55" s="100">
+        <f t="shared" ref="B55" si="43">(ROW()-10)/2+0.5</f>
+        <v>23</v>
+      </c>
+      <c r="C55" s="102"/>
+      <c r="D55" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="106"/>
+      <c r="H55" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="I55" s="89">
+        <v>42172</v>
+      </c>
+      <c r="J55" s="89">
+        <v>42172</v>
+      </c>
+      <c r="K55" s="89">
+        <v>42172</v>
+      </c>
+      <c r="L55" s="89">
+        <v>42172</v>
+      </c>
+      <c r="M55" s="91"/>
+      <c r="N55" s="93" t="str">
+        <f ca="1">IF(B55="","",IF(AND(I55="",J55="",K55="",L55=""),"",IF(OR(I55="",J55=""),"?",IF(AND(I55&lt;&gt;"",J55&lt;&gt;"",K55&lt;&gt;"",L55&lt;&gt;"",M55=100),"○",IF(AND(I55&lt;=TODAY(),J55&gt;=TODAY(),K55=""),"▲",  IF(J55&lt;TODAY(),"★",IF(K55&lt;&gt;"","△",IF(AND(I55&lt;&gt;""),"◇",""))))))))</f>
+        <v>△</v>
+      </c>
+      <c r="O55" s="95">
+        <f>IF(COUNTA(S55:X55)=0,"",SUMPRODUCT(--(ISNUMBER(S55:X55)),S55:X55)+ (COUNTA(S55:X55)-COUNT(S55:X55))*8)</f>
+        <v>8</v>
+      </c>
+      <c r="P55" s="97">
+        <f t="shared" ref="P55" si="44">IF(O55="","",ROUND(O55/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q55" s="95" t="str">
+        <f>IF(COUNTA(S56:X56)=0,"",SUMPRODUCT(--(ISNUMBER(S56:X56)),S56:X56)+ (COUNTA(S56:X56)-COUNT(S56:X56))*8)</f>
+        <v/>
+      </c>
+      <c r="R55" s="97" t="str">
+        <f t="shared" ref="R55" si="45">IF(Q55="","",ROUND(Q55/8,2))</f>
+        <v/>
+      </c>
+      <c r="S55" s="85"/>
+      <c r="T55" s="85">
+        <v>8</v>
+      </c>
+      <c r="U55" s="85"/>
+      <c r="V55" s="85"/>
+      <c r="W55" s="85"/>
+      <c r="X55" s="85"/>
+      <c r="Y55" s="85"/>
+      <c r="Z55" s="85"/>
+      <c r="AA55" s="85"/>
+      <c r="AB55" s="85"/>
+      <c r="AC55" s="85"/>
+      <c r="AD55" s="85"/>
+      <c r="AE55" s="85"/>
+      <c r="AF55" s="85"/>
+      <c r="AG55" s="85"/>
+      <c r="AH55" s="99"/>
+    </row>
+    <row r="56" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B56" s="101"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
+      <c r="K56" s="90"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="92"/>
+      <c r="N56" s="94"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="98"/>
+      <c r="Q56" s="96"/>
+      <c r="R56" s="98"/>
+      <c r="S56" s="86"/>
+      <c r="T56" s="86"/>
+      <c r="U56" s="86"/>
+      <c r="V56" s="86"/>
+      <c r="W56" s="86"/>
+      <c r="X56" s="86"/>
+      <c r="Y56" s="86"/>
+      <c r="Z56" s="86"/>
+      <c r="AA56" s="86"/>
+      <c r="AB56" s="86"/>
+      <c r="AC56" s="86"/>
+      <c r="AD56" s="86"/>
+      <c r="AE56" s="86"/>
+      <c r="AF56" s="86"/>
+      <c r="AG56" s="86"/>
+      <c r="AH56" s="99"/>
+    </row>
+    <row r="57" spans="2:34" ht="50.1" customHeight="1">
+      <c r="B57" s="100">
+        <f t="shared" ref="B57" si="46">(ROW()-10)/2+0.5</f>
+        <v>24</v>
+      </c>
+      <c r="C57" s="102"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="89"/>
+      <c r="M57" s="91"/>
+      <c r="N57" s="93"/>
+      <c r="O57" s="95"/>
+      <c r="P57" s="97"/>
+      <c r="Q57" s="95"/>
+      <c r="R57" s="97"/>
+      <c r="S57" s="85"/>
+      <c r="T57" s="85"/>
+      <c r="U57" s="85"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
+      <c r="X57" s="85"/>
+      <c r="Y57" s="85"/>
+      <c r="Z57" s="85"/>
+      <c r="AA57" s="85"/>
+      <c r="AB57" s="85"/>
+      <c r="AC57" s="85"/>
+      <c r="AD57" s="85"/>
+      <c r="AE57" s="85"/>
+      <c r="AF57" s="85"/>
+      <c r="AG57" s="85"/>
+      <c r="AH57" s="99"/>
+    </row>
+    <row r="58" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B58" s="101"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="92"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="98"/>
+      <c r="Q58" s="96"/>
+      <c r="R58" s="98"/>
+      <c r="S58" s="86"/>
+      <c r="T58" s="86"/>
+      <c r="U58" s="86"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
+      <c r="X58" s="86"/>
+      <c r="Y58" s="86"/>
+      <c r="Z58" s="86"/>
+      <c r="AA58" s="86"/>
+      <c r="AB58" s="86"/>
+      <c r="AC58" s="86"/>
+      <c r="AD58" s="86"/>
+      <c r="AE58" s="86"/>
+      <c r="AF58" s="86"/>
+      <c r="AG58" s="86"/>
+      <c r="AH58" s="99"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
@@ -8229,205 +7535,27 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <dataConsolidate/>
-  <mergeCells count="415">
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="AH51:AH52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="AH49:AH50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="AH47:AH48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="AH45:AH46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="AH33:AH34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="K23:K24"/>
+  <mergeCells count="451">
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K53:K54"/>
     <mergeCell ref="L53:L54"/>
-    <mergeCell ref="G53:G54"/>
     <mergeCell ref="M53:M54"/>
     <mergeCell ref="N53:N54"/>
     <mergeCell ref="O53:O54"/>
@@ -8438,43 +7566,155 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
     <mergeCell ref="H53:H54"/>
     <mergeCell ref="I53:I54"/>
     <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="AH39:AH40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="AH31:AH32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="AH25:AH26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="AH27:AH28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="AH21:AH22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
     <mergeCell ref="AH19:AH20"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B7:H8"/>
@@ -8498,1054 +7738,1266 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="AH57:AH58"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="M23:M24"/>
     <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="AH23:AH24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="AH21:AH22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="AH25:AH26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="AH27:AH28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="AH39:AH40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="AH33:AH34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="AH45:AH46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="AH47:AH48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="AH49:AH50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="AH51:AH52"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="S8:X8">
-    <cfRule type="expression" dxfId="242" priority="51242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="51275" stopIfTrue="1">
       <formula>IF(TEXT(S$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="51243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="51276" stopIfTrue="1">
       <formula>OR(IF(TEXT(S$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:AG10">
-    <cfRule type="expression" dxfId="240" priority="51244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="51277" stopIfTrue="1">
       <formula>IF(S$9=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="51245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="51278" stopIfTrue="1">
       <formula>IF(WEEKDAY(S$9)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="51246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="51279" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:X14 S22:AG22 S24:AG24 S26:AG26 S42:AG42 S40:AG40 S44:AG44 S16:AG16 S20:AG20 S28:AG32 S54:AG54 S52:AG52 S50:AG50">
-    <cfRule type="expression" dxfId="237" priority="65755" stopIfTrue="1">
+  <conditionalFormatting sqref="S12:X14 S22:AG22 S24:AG24 S26:AG26 S42:AG42 S40:AG40 S44:AG44 S16:AG16 S20:AG20 S28:AG32 S58:AG58 S52:AG52 S50:AG50">
+    <cfRule type="expression" dxfId="303" priority="65788" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="65756" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="65789" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=S$9,S$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="65757" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="65790" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=S$9,S$9&lt;=$L11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:R54 B21:G24 I21:R24 B11:R14 B19:E20 B15:E16 G15:R16 G19:R20 J47:J48 M47:R48 B47:G48">
-    <cfRule type="expression" dxfId="234" priority="65773" stopIfTrue="1">
+  <conditionalFormatting sqref="B57:R58 B21:G24 I21:R24 B11:R14 B19:E20 B15:E16 G15:R16 G19:R20 J47:J48 M47:R48 B47:G48">
+    <cfRule type="expression" dxfId="300" priority="65806" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;"",$L11&lt;&gt;"",$M11=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="65774" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="65807" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$J11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="65775" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="65808" stopIfTrue="1">
       <formula>IF(OR(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;"",$M11&lt;100),AND($I11&lt;&gt;"",$J11&lt;&gt;"",TODAY()&gt;=$I11)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S43:AG43 S39:AG39 S41:AG41 S53:AG53 S51:AG51">
-    <cfRule type="expression" dxfId="231" priority="65950" stopIfTrue="1">
+  <conditionalFormatting sqref="S43:AG43 S39:AG39 S41:AG41 S57:AG57 S51:AG51">
+    <cfRule type="expression" dxfId="297" priority="65983" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="65951" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="65984" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"", $I39&lt;=S$9,S$9&lt;=$J39),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="65952" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="65985" stopIfTrue="1">
       <formula>IF(AND($B39="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:X15">
-    <cfRule type="expression" dxfId="228" priority="65962" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="65995" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="65963" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="65996" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=S$9,S$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="65964" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="65997" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=S$9,S$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:X11">
-    <cfRule type="expression" dxfId="225" priority="66004" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="66037" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="66005" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="66038" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=S$9,S$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="66006" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="66039" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AD8">
-    <cfRule type="expression" dxfId="222" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="369" stopIfTrue="1">
       <formula>IF(TEXT(Y$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="370" stopIfTrue="1">
       <formula>OR(IF(TEXT(Y$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AD14">
-    <cfRule type="expression" dxfId="220" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="363" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="364" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=Y$9,Y$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="365" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=Y$9,Y$9&lt;=$L11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:AD15">
-    <cfRule type="expression" dxfId="217" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="357" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="358" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=Y$9,Y$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="359" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=Y$9,Y$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:AD11">
-    <cfRule type="expression" dxfId="214" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="354" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="355" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=Y$9,Y$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="356" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=Y$9,Y$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AG8">
-    <cfRule type="expression" dxfId="211" priority="307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="340" stopIfTrue="1">
       <formula>IF(TEXT(AE$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="341" stopIfTrue="1">
       <formula>OR(IF(TEXT(AE$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:AG14">
-    <cfRule type="expression" dxfId="209" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="337" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="338" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=AE$9,AE$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="339" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=AE$9,AE$9&lt;=$L11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15:AG15">
-    <cfRule type="expression" dxfId="206" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="331" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="332" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=AE$9,AE$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="333" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=AE$9,AE$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AG11">
-    <cfRule type="expression" dxfId="203" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="328" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="329" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=AE$9,AE$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="330" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=AE$9,AE$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H24">
-    <cfRule type="expression" dxfId="200" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="313" stopIfTrue="1">
       <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="314" stopIfTrue="1">
       <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="315" stopIfTrue="1">
       <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H22">
-    <cfRule type="expression" dxfId="197" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="310" stopIfTrue="1">
       <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$L21&lt;&gt;"",$M21=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="311" stopIfTrue="1">
       <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$J21&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="312" stopIfTrue="1">
       <formula>IF(OR(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$M21&lt;100),AND($I21&lt;&gt;"",$J21&lt;&gt;"",TODAY()&gt;=$I21)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:R32 B25:G32 I27:I30 M25:R30 J39:J44 M39:R44 B39:G44">
-    <cfRule type="expression" dxfId="194" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="283" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="284" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="285" stopIfTrue="1">
       <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H40">
-    <cfRule type="expression" dxfId="191" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="241" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="242" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="243" stopIfTrue="1">
       <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H28">
-    <cfRule type="expression" dxfId="188" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="256" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="257" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="258" stopIfTrue="1">
       <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H26">
-    <cfRule type="expression" dxfId="185" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="253" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="254" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="255" stopIfTrue="1">
       <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H30">
-    <cfRule type="expression" dxfId="182" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="250" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="251" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="252" stopIfTrue="1">
       <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="expression" dxfId="179" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="247" stopIfTrue="1">
       <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="248" stopIfTrue="1">
       <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="249" stopIfTrue="1">
       <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H44">
-    <cfRule type="expression" dxfId="176" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="238" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="239" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="240" stopIfTrue="1">
       <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="expression" dxfId="173" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="244" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="245" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="246" stopIfTrue="1">
       <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21:AG21 S25:AG25 S49:AG49">
-    <cfRule type="expression" dxfId="170" priority="66031" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="66064" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="66032" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="66065" stopIfTrue="1">
       <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"", $I21&lt;=S$9,S$9&lt;=$J21),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="66033" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="66066" stopIfTrue="1">
       <formula>IF(AND($B21="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23:AG23 S27:AG27">
-    <cfRule type="expression" dxfId="167" priority="66046" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="66079" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="66047" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="66080" stopIfTrue="1">
       <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"", $I23&lt;=S$9,S$9&lt;=$J23),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="66048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="66081" stopIfTrue="1">
       <formula>IF(AND($B23="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I26">
-    <cfRule type="expression" dxfId="164" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="235" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="236" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="237" stopIfTrue="1">
       <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K28">
-    <cfRule type="expression" dxfId="161" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="211" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="212" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="213" stopIfTrue="1">
       <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K26">
-    <cfRule type="expression" dxfId="158" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="229" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="230" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="231" stopIfTrue="1">
       <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:L30">
-    <cfRule type="expression" dxfId="155" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="202" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="203" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="204" stopIfTrue="1">
       <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:L26">
-    <cfRule type="expression" dxfId="152" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="223" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="224" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="225" stopIfTrue="1">
       <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J26">
-    <cfRule type="expression" dxfId="149" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="220" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="221" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="222" stopIfTrue="1">
       <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J28">
-    <cfRule type="expression" dxfId="146" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="217" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="218" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="219" stopIfTrue="1">
       <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J30">
-    <cfRule type="expression" dxfId="143" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="214" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="215" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="216" stopIfTrue="1">
       <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="140" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="208" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="209" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="210" stopIfTrue="1">
       <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L28">
-    <cfRule type="expression" dxfId="137" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="205" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="206" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="207" stopIfTrue="1">
       <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:AG19">
-    <cfRule type="expression" dxfId="134" priority="66052" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="66085" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="66053" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="66086" stopIfTrue="1">
       <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"", $I19&lt;=S$9,S$9&lt;=$J19),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="66054" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="66087" stopIfTrue="1">
       <formula>IF(AND($B19="", $K16&lt;&gt;"",$K16&lt;=S$9,S$9&lt;=$L16),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:AG18">
-    <cfRule type="expression" dxfId="131" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="199" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="200" stopIfTrue="1">
       <formula>IF(AND($B18&lt;&gt;"",$I18&lt;&gt;"", $I18&lt;=S$9,S$9&lt;=$J18),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="201" stopIfTrue="1">
       <formula>IF(AND($B18="", $K17&lt;&gt;"",$K17&lt;=S$9,S$9&lt;=$L17),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E18 G17:R18">
-    <cfRule type="expression" dxfId="128" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="196" stopIfTrue="1">
       <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$L17&lt;&gt;"",$M17=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="197" stopIfTrue="1">
       <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$J17&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="198" stopIfTrue="1">
       <formula>IF(OR(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$M17&lt;100),AND($I17&lt;&gt;"",$J17&lt;&gt;"",TODAY()&gt;=$I17)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:AG17">
-    <cfRule type="expression" dxfId="125" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="193" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="194" stopIfTrue="1">
       <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"", $I17&lt;=S$9,S$9&lt;=$J17),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="195" stopIfTrue="1">
       <formula>IF(AND($B17="", $K14&lt;&gt;"",$K14&lt;=S$9,S$9&lt;=$L14),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="122" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="190" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;"",$L15&lt;&gt;"",$M15=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="191" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"",$J15&lt;&gt;"",$J15&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="192" stopIfTrue="1">
       <formula>IF(OR(AND($B15&lt;&gt;"",$I15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;"",$M15&lt;100),AND($I15&lt;&gt;"",$J15&lt;&gt;"",TODAY()&gt;=$I15)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:AG38">
-    <cfRule type="expression" dxfId="119" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="187" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="188" stopIfTrue="1">
       <formula>IF(AND($B34&lt;&gt;"",$I34&lt;&gt;"", $I34&lt;=S$9,S$9&lt;=$J34),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="189" stopIfTrue="1">
       <formula>IF(AND($B34="", $K33&lt;&gt;"",$K33&lt;=S$9,S$9&lt;=$L33),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:R38 B35:G38 I33:I36 M33:R36 B33:C34 E33:G34">
-    <cfRule type="expression" dxfId="116" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="184" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="185" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="186" stopIfTrue="1">
       <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H34">
-    <cfRule type="expression" dxfId="113" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="181" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="182" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="183" stopIfTrue="1">
       <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H36">
-    <cfRule type="expression" dxfId="110" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="178" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="179" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="180" stopIfTrue="1">
       <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H38">
-    <cfRule type="expression" dxfId="107" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="175" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$L37&lt;&gt;"",$M37=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="176" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$J37&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="177" stopIfTrue="1">
       <formula>IF(OR(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$M37&lt;100),AND($I37&lt;&gt;"",$J37&lt;&gt;"",TODAY()&gt;=$I37)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:AG33">
-    <cfRule type="expression" dxfId="104" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="172" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="173" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"", $I33&lt;=S$9,S$9&lt;=$J33),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="174" stopIfTrue="1">
       <formula>IF(AND($B33="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:K34">
-    <cfRule type="expression" dxfId="101" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="169" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="170" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="171" stopIfTrue="1">
       <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:L36">
-    <cfRule type="expression" dxfId="98" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="166" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="167" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="168" stopIfTrue="1">
       <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:J34">
-    <cfRule type="expression" dxfId="95" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="163" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="164" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="165" stopIfTrue="1">
       <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:J36">
-    <cfRule type="expression" dxfId="92" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="160" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="161" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="162" stopIfTrue="1">
       <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:K36">
-    <cfRule type="expression" dxfId="89" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="157" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="158" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="159" stopIfTrue="1">
       <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:L34">
-    <cfRule type="expression" dxfId="86" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="154" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="155" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="156" stopIfTrue="1">
       <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I40">
-    <cfRule type="expression" dxfId="83" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="151" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="152" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="153" stopIfTrue="1">
       <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I42">
-    <cfRule type="expression" dxfId="80" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="148" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="149" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="150" stopIfTrue="1">
       <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:I44">
-    <cfRule type="expression" dxfId="77" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="145" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="146" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="147" stopIfTrue="1">
       <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K40">
-    <cfRule type="expression" dxfId="74" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="142" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="143" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="144" stopIfTrue="1">
       <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:K42">
-    <cfRule type="expression" dxfId="71" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="139" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="140" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="141" stopIfTrue="1">
       <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:K44">
-    <cfRule type="expression" dxfId="68" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="136" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="137" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="138" stopIfTrue="1">
       <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:L40">
-    <cfRule type="expression" dxfId="65" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="133" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="134" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="135" stopIfTrue="1">
       <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:L42">
-    <cfRule type="expression" dxfId="62" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="130" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="131" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="132" stopIfTrue="1">
       <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:L44">
-    <cfRule type="expression" dxfId="59" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="127" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="128" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="129" stopIfTrue="1">
       <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D34">
-    <cfRule type="expression" dxfId="56" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="124" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="125" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="126" stopIfTrue="1">
       <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48:AG48">
-    <cfRule type="expression" dxfId="53" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="121" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="122" stopIfTrue="1">
       <formula>IF(AND($B48&lt;&gt;"",$I48&lt;&gt;"", $I48&lt;=S$9,S$9&lt;=$J48),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="123" stopIfTrue="1">
       <formula>IF(AND($B48="", $K47&lt;&gt;"",$K47&lt;=S$9,S$9&lt;=$L47),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47:AG47">
-    <cfRule type="expression" dxfId="50" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="118" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="119" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"", $I47&lt;=S$9,S$9&lt;=$J47),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="120" stopIfTrue="1">
       <formula>IF(AND($B47="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H48">
-    <cfRule type="expression" dxfId="47" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="112" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="113" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="114" stopIfTrue="1">
       <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S45:AG46">
-    <cfRule type="expression" dxfId="44" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="103" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="104" stopIfTrue="1">
       <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"", $I45&lt;=S$9,S$9&lt;=$J45),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="105" stopIfTrue="1">
       <formula>IF(AND($B45="", $K44&lt;&gt;"",$K44&lt;=S$9,S$9&lt;=$L44),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:R46 B45:G46">
-    <cfRule type="expression" dxfId="41" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="100" stopIfTrue="1">
       <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="101" stopIfTrue="1">
       <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="102" stopIfTrue="1">
       <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H46">
-    <cfRule type="expression" dxfId="38" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="97" stopIfTrue="1">
       <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="98" stopIfTrue="1">
       <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="99" stopIfTrue="1">
       <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I48">
-    <cfRule type="expression" dxfId="35" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="94" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="95" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="96" stopIfTrue="1">
       <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:K48">
-    <cfRule type="expression" dxfId="32" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="85" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="86" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="87" stopIfTrue="1">
       <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47:L48">
-    <cfRule type="expression" dxfId="29" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="76" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="77" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="78" stopIfTrue="1">
       <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="26" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="67" stopIfTrue="1">
       <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$L17&lt;&gt;"",$M17=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="68" stopIfTrue="1">
       <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$J17&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="69" stopIfTrue="1">
       <formula>IF(OR(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$M17&lt;100),AND($I17&lt;&gt;"",$J17&lt;&gt;"",TODAY()&gt;=$I17)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F20">
-    <cfRule type="expression" dxfId="23" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="64" stopIfTrue="1">
       <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$L19&lt;&gt;"",$M19=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="65" stopIfTrue="1">
       <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$J19&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="66" stopIfTrue="1">
       <formula>IF(OR(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$M19&lt;100),AND($I19&lt;&gt;"",$J19&lt;&gt;"",TODAY()&gt;=$I19)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:J52 M51:R52 B51:G52">
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="55" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="56" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="57" stopIfTrue="1">
       <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:H52">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="52" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="53" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="54" stopIfTrue="1">
       <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:R50 B49:G50">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="46" stopIfTrue="1">
       <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="47" stopIfTrue="1">
       <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="48" stopIfTrue="1">
       <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:H50">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="43" stopIfTrue="1">
       <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="44" stopIfTrue="1">
       <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="45" stopIfTrue="1">
       <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:I52">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="40" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="41" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="42" stopIfTrue="1">
       <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:K52">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="37" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="38" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="39" stopIfTrue="1">
       <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:L52">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="34" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="35" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="36" stopIfTrue="1">
       <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S56:AG56 S54:AG54">
+    <cfRule type="expression" dxfId="65" priority="31" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="32" stopIfTrue="1">
+      <formula>IF(AND($B54&lt;&gt;"",$I54&lt;&gt;"", $I54&lt;=S$9,S$9&lt;=$J54),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="33" stopIfTrue="1">
+      <formula>IF(AND($B54="", $K53&lt;&gt;"",$K53&lt;=S$9,S$9&lt;=$L53),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S55:AG55">
+    <cfRule type="expression" dxfId="59" priority="28" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="29" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"", $I55&lt;=S$9,S$9&lt;=$J55),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="30" stopIfTrue="1">
+      <formula>IF(AND($B55="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S53:AG53">
+    <cfRule type="expression" dxfId="53" priority="25" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="26" stopIfTrue="1">
+      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"", $I53&lt;=S$9,S$9&lt;=$J53),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="27" stopIfTrue="1">
+      <formula>IF(AND($B53="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:J56 M55:R56 B55:G56">
+    <cfRule type="expression" dxfId="47" priority="22" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="23" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="24" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:H56">
+    <cfRule type="expression" dxfId="41" priority="19" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="21" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:R54 B53:G54">
+    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
+      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$L53&lt;&gt;"",$M53=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
+      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$J53&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
+      <formula>IF(OR(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$M53&lt;100),AND($I53&lt;&gt;"",$J53&lt;&gt;"",TODAY()&gt;=$I53)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:H54">
+    <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
+      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$L53&lt;&gt;"",$M53=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
+      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$J53&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
+      <formula>IF(OR(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$M53&lt;100),AND($I53&lt;&gt;"",$J53&lt;&gt;"",TODAY()&gt;=$I53)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:I56">
+    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:K56">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55:L56">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 M13:M54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 M13:M58">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H56">
       <formula1>"XuanDT2,DongDL1,DuongTD1,TuyenTV1,TuanNT22,NamMH,QuyetND2"</formula1>
     </dataValidation>
   </dataValidations>
